--- a/JupyterNotebooks/AvgHW/CopperA-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
+    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9965249397803573</v>
+      </c>
+      <c r="D3">
+        <v>0.9994650083680818</v>
+      </c>
+      <c r="E3">
         <v>1.001877471035126</v>
       </c>
-      <c r="D3">
+      <c r="F3">
+        <v>1.001078792176916</v>
+      </c>
+      <c r="G3">
         <v>0.9965249397803573</v>
       </c>
-      <c r="E3">
-        <v>1.001078792176916</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
+        <v>0.9992888711753916</v>
+      </c>
+      <c r="I3">
+        <v>1.001294892220408</v>
+      </c>
+      <c r="J3">
         <v>1.001877471035126</v>
       </c>
-      <c r="G3">
-        <v>0.9992888711753916</v>
-      </c>
-      <c r="H3">
-        <v>1.001294892220408</v>
-      </c>
-      <c r="I3">
+      <c r="K3">
         <v>1.001877471035126</v>
       </c>
-      <c r="J3">
-        <v>0.9965249397803573</v>
-      </c>
-      <c r="K3">
-        <v>0.9994650083680818</v>
-      </c>
       <c r="L3">
+        <v>0.9977986877468767</v>
+      </c>
+      <c r="M3">
         <v>1.000743850888042</v>
-      </c>
-      <c r="M3">
-        <v>0.9977986877468767</v>
       </c>
       <c r="N3">
         <v>1.001877471035126</v>
@@ -764,7 +716,7 @@
         <v>0.9997590641739</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9933118002015141</v>
+      </c>
+      <c r="D4">
+        <v>0.9989545941088636</v>
+      </c>
+      <c r="E4">
         <v>1.003656699377196</v>
       </c>
-      <c r="D4">
+      <c r="F4">
+        <v>1.002055321614524</v>
+      </c>
+      <c r="G4">
         <v>0.9933118002015141</v>
       </c>
-      <c r="E4">
-        <v>1.002055321614524</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
+        <v>0.9986279843641259</v>
+      </c>
+      <c r="I4">
+        <v>1.002491542764299</v>
+      </c>
+      <c r="J4">
         <v>1.003656699377196</v>
       </c>
-      <c r="G4">
-        <v>0.9986279843641259</v>
-      </c>
-      <c r="H4">
-        <v>1.002491542764299</v>
-      </c>
-      <c r="I4">
+      <c r="K4">
         <v>1.003656699377196</v>
       </c>
-      <c r="J4">
-        <v>0.9933118002015141</v>
-      </c>
-      <c r="K4">
-        <v>0.9989545941088633</v>
-      </c>
       <c r="L4">
+        <v>0.9957576747887865</v>
+      </c>
+      <c r="M4">
         <v>1.001444029846168</v>
-      </c>
-      <c r="M4">
-        <v>0.9957576747887861</v>
       </c>
       <c r="N4">
         <v>1.003656699377196</v>
@@ -835,7 +787,7 @@
         <v>0.9995374558831847</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9871696325034197</v>
+      </c>
+      <c r="D5">
+        <v>0.9980033800987245</v>
+      </c>
+      <c r="E5">
         <v>1.006991218838297</v>
       </c>
-      <c r="D5">
+      <c r="F5">
+        <v>1.003949716900514</v>
+      </c>
+      <c r="G5">
         <v>0.9871696325034197</v>
       </c>
-      <c r="E5">
-        <v>1.003949716900514</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
+        <v>0.9973723755282361</v>
+      </c>
+      <c r="I5">
+        <v>1.004777434683475</v>
+      </c>
+      <c r="J5">
         <v>1.006991218838297</v>
       </c>
-      <c r="G5">
-        <v>0.9973723755282361</v>
-      </c>
-      <c r="H5">
-        <v>1.004777434683475</v>
-      </c>
-      <c r="I5">
+      <c r="K5">
         <v>1.006991218838297</v>
       </c>
-      <c r="J5">
-        <v>0.9871696325034197</v>
-      </c>
-      <c r="K5">
-        <v>0.9980033800987245</v>
-      </c>
       <c r="L5">
+        <v>0.9918666761541209</v>
+      </c>
+      <c r="M5">
         <v>1.002764921924352</v>
-      </c>
-      <c r="M5">
-        <v>0.9918666761541209</v>
       </c>
       <c r="N5">
         <v>1.006991218838297</v>
@@ -906,7 +858,7 @@
         <v>0.9991119195788924</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9811834311250328</v>
+      </c>
+      <c r="D6">
+        <v>0.9970702238746195</v>
+      </c>
+      <c r="E6">
         <v>1.010257660723159</v>
       </c>
-      <c r="D6">
+      <c r="F6">
+        <v>1.005788908173664</v>
+      </c>
+      <c r="G6">
         <v>0.9811834311250328</v>
       </c>
-      <c r="E6">
-        <v>1.005788908173664</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
+        <v>0.996146839567153</v>
+      </c>
+      <c r="I6">
+        <v>1.007005557217794</v>
+      </c>
+      <c r="J6">
         <v>1.010257660723159</v>
       </c>
-      <c r="G6">
-        <v>0.996146839567153</v>
-      </c>
-      <c r="H6">
-        <v>1.007005557217794</v>
-      </c>
-      <c r="I6">
+      <c r="K6">
         <v>1.010257660723159</v>
       </c>
-      <c r="J6">
-        <v>0.9811834311250328</v>
-      </c>
-      <c r="K6">
-        <v>0.9970702238746195</v>
-      </c>
       <c r="L6">
+        <v>0.9880719356746062</v>
+      </c>
+      <c r="M6">
         <v>1.004056713842406</v>
-      </c>
-      <c r="M6">
-        <v>0.9880719356746062</v>
       </c>
       <c r="N6">
         <v>1.010257660723159</v>
@@ -974,10 +926,10 @@
         <v>1.000726900062434</v>
       </c>
       <c r="W6">
-        <v>0.9986976587748044</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9986976587748043</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,37 +937,37 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9997149891480102</v>
+      </c>
+      <c r="D7">
+        <v>0.999925070392585</v>
+      </c>
+      <c r="E7">
         <v>1.000240157850922</v>
       </c>
-      <c r="D7">
+      <c r="F7">
+        <v>1.000040532685259</v>
+      </c>
+      <c r="G7">
         <v>0.9997149891480102</v>
       </c>
-      <c r="E7">
-        <v>1.000040532685259</v>
-      </c>
-      <c r="F7">
+      <c r="H7">
+        <v>0.9999384687558509</v>
+      </c>
+      <c r="I7">
+        <v>1.000101414094616</v>
+      </c>
+      <c r="J7">
         <v>1.000240157850922</v>
       </c>
-      <c r="G7">
-        <v>0.999938468755851</v>
-      </c>
-      <c r="H7">
-        <v>1.000101414094616</v>
-      </c>
-      <c r="I7">
+      <c r="K7">
         <v>1.000240157850922</v>
       </c>
-      <c r="J7">
-        <v>0.9997149891480102</v>
-      </c>
-      <c r="K7">
-        <v>0.999925070392585</v>
-      </c>
       <c r="L7">
+        <v>0.9998108407841123</v>
+      </c>
+      <c r="M7">
         <v>1.000087760843136</v>
-      </c>
-      <c r="M7">
-        <v>0.9998108407841121</v>
       </c>
       <c r="N7">
         <v>1.000240157850922</v>
@@ -1039,7 +991,7 @@
         <v>0.9999985598947303</v>
       </c>
       <c r="U7">
-        <v>0.9999835371100105</v>
+        <v>0.9999835371100104</v>
       </c>
       <c r="V7">
         <v>1.000034861258193</v>
@@ -1048,7 +1000,7 @@
         <v>0.9999824043193115</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,37 +1008,37 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9991509705420071</v>
+      </c>
+      <c r="D8">
+        <v>0.9997748975312105</v>
+      </c>
+      <c r="E8">
         <v>1.000720434021072</v>
       </c>
-      <c r="D8">
+      <c r="F8">
+        <v>1.000119650485361</v>
+      </c>
+      <c r="G8">
         <v>0.9991509705420071</v>
       </c>
-      <c r="E8">
-        <v>1.000119650485361</v>
-      </c>
-      <c r="F8">
+      <c r="H8">
+        <v>0.9998155617413556</v>
+      </c>
+      <c r="I8">
+        <v>1.000302784025368</v>
+      </c>
+      <c r="J8">
         <v>1.000720434021072</v>
       </c>
-      <c r="G8">
-        <v>0.9998155617413556</v>
-      </c>
-      <c r="H8">
-        <v>1.000302784025368</v>
-      </c>
-      <c r="I8">
+      <c r="K8">
         <v>1.000720434021072</v>
       </c>
-      <c r="J8">
-        <v>0.9991509705420071</v>
-      </c>
-      <c r="K8">
-        <v>0.9997748975312103</v>
-      </c>
       <c r="L8">
+        <v>0.9994353059576877</v>
+      </c>
+      <c r="M8">
         <v>1.000262427372802</v>
-      </c>
-      <c r="M8">
-        <v>0.9994353059576877</v>
       </c>
       <c r="N8">
         <v>1.000720434021072</v>
@@ -1119,7 +1071,7 @@
         <v>0.9999477539596081</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9986608908060839</v>
+      </c>
+      <c r="D9">
+        <v>0.9996352482885879</v>
+      </c>
+      <c r="E9">
         <v>1.001162636076085</v>
       </c>
-      <c r="D9">
+      <c r="F9">
+        <v>1.000178377782507</v>
+      </c>
+      <c r="G9">
         <v>0.9986608908060839</v>
       </c>
-      <c r="E9">
-        <v>1.000178377782507</v>
-      </c>
-      <c r="F9">
+      <c r="H9">
+        <v>0.9997056987113901</v>
+      </c>
+      <c r="I9">
+        <v>1.000478537818114</v>
+      </c>
+      <c r="J9">
         <v>1.001162636076085</v>
       </c>
-      <c r="G9">
-        <v>0.9997056987113901</v>
-      </c>
-      <c r="H9">
-        <v>1.000478537818114</v>
-      </c>
-      <c r="I9">
+      <c r="K9">
         <v>1.001162636076085</v>
       </c>
-      <c r="J9">
-        <v>0.9986608908060839</v>
-      </c>
-      <c r="K9">
-        <v>0.9996352482885879</v>
-      </c>
       <c r="L9">
+        <v>0.9991049209388092</v>
+      </c>
+      <c r="M9">
         <v>1.000420647136757</v>
-      </c>
-      <c r="M9">
-        <v>0.9991049209388092</v>
       </c>
       <c r="N9">
         <v>1.001162636076085</v>
@@ -1190,7 +1142,7 @@
         <v>0.9999183696947916</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9972424849351729</v>
+      </c>
+      <c r="D10">
+        <v>0.9992650943169916</v>
+      </c>
+      <c r="E10">
         <v>1.00234987005891</v>
       </c>
-      <c r="D10">
+      <c r="F10">
+        <v>1.000387022805093</v>
+      </c>
+      <c r="G10">
         <v>0.9972424849351729</v>
       </c>
-      <c r="E10">
-        <v>1.000387022805093</v>
-      </c>
-      <c r="F10">
+      <c r="H10">
+        <v>0.999398364714685</v>
+      </c>
+      <c r="I10">
+        <v>1.000985092461675</v>
+      </c>
+      <c r="J10">
         <v>1.00234987005891</v>
       </c>
-      <c r="G10">
-        <v>0.999398364714685</v>
-      </c>
-      <c r="H10">
-        <v>1.000985092461675</v>
-      </c>
-      <c r="I10">
+      <c r="K10">
         <v>1.00234987005891</v>
       </c>
-      <c r="J10">
-        <v>0.9972424849351729</v>
-      </c>
-      <c r="K10">
-        <v>0.9992650943169916</v>
-      </c>
       <c r="L10">
+        <v>0.9981633104225268</v>
+      </c>
+      <c r="M10">
         <v>1.000854104466089</v>
-      </c>
-      <c r="M10">
-        <v>0.9981633104225268</v>
       </c>
       <c r="N10">
         <v>1.00234987005891</v>
@@ -1261,7 +1213,7 @@
         <v>0.9998306680226429</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9950825199438512</v>
+      </c>
+      <c r="D11">
+        <v>0.998644170758648</v>
+      </c>
+      <c r="E11">
         <v>1.004315045116978</v>
       </c>
-      <c r="D11">
+      <c r="F11">
+        <v>1.000628856834206</v>
+      </c>
+      <c r="G11">
         <v>0.9950825199438512</v>
       </c>
-      <c r="E11">
-        <v>1.000628856834206</v>
-      </c>
-      <c r="F11">
+      <c r="H11">
+        <v>0.9989180115243492</v>
+      </c>
+      <c r="I11">
+        <v>1.001754289743498</v>
+      </c>
+      <c r="J11">
         <v>1.004315045116978</v>
       </c>
-      <c r="G11">
-        <v>0.9989180115243492</v>
-      </c>
-      <c r="H11">
-        <v>1.001754289743498</v>
-      </c>
-      <c r="I11">
+      <c r="K11">
         <v>1.004315045116978</v>
       </c>
-      <c r="J11">
-        <v>0.9950825199438512</v>
-      </c>
-      <c r="K11">
-        <v>0.998644170758648</v>
-      </c>
       <c r="L11">
+        <v>0.9967088762762576</v>
+      </c>
+      <c r="M11">
         <v>1.001559130495685</v>
-      </c>
-      <c r="M11">
-        <v>0.9967088762762576</v>
       </c>
       <c r="N11">
         <v>1.004315045116978</v>
@@ -1332,7 +1284,7 @@
         <v>0.9997013625866841</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,37 +1292,37 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.049916448254755</v>
+      </c>
+      <c r="D12">
+        <v>1.010926150135212</v>
+      </c>
+      <c r="E12">
         <v>0.9642540936251951</v>
       </c>
-      <c r="D12">
+      <c r="F12">
+        <v>0.9878492213880913</v>
+      </c>
+      <c r="G12">
         <v>1.049916448254755</v>
       </c>
-      <c r="E12">
-        <v>0.9878492213880913</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
+        <v>1.011402441526143</v>
+      </c>
+      <c r="I12">
+        <v>0.9810174755754272</v>
+      </c>
+      <c r="J12">
         <v>0.9642540936251951</v>
       </c>
-      <c r="G12">
-        <v>1.011402441526143</v>
-      </c>
-      <c r="H12">
-        <v>0.9810174755754274</v>
-      </c>
-      <c r="I12">
+      <c r="K12">
         <v>0.9642540936251951</v>
       </c>
-      <c r="J12">
-        <v>1.049916448254755</v>
-      </c>
-      <c r="K12">
-        <v>1.010926150135212</v>
-      </c>
       <c r="L12">
-        <v>0.9871029092539746</v>
+        <v>1.033137552110158</v>
       </c>
       <c r="M12">
-        <v>1.033137552110158</v>
+        <v>0.9871029092539747</v>
       </c>
       <c r="N12">
         <v>0.9642540936251951</v>
@@ -1403,7 +1355,7 @@
         <v>1.00320078648362</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,40 +1363,40 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9919709910869763</v>
+        <v>1.014606008043508</v>
       </c>
       <c r="D13">
+        <v>1.002239997021678</v>
+      </c>
+      <c r="E13">
+        <v>0.9919709910869762</v>
+      </c>
+      <c r="F13">
+        <v>0.9966806367573557</v>
+      </c>
+      <c r="G13">
         <v>1.014606008043508</v>
       </c>
-      <c r="E13">
-        <v>0.9966806367573557</v>
-      </c>
-      <c r="F13">
-        <v>0.9919709910869763</v>
-      </c>
-      <c r="G13">
+      <c r="H13">
         <v>1.002357225035031</v>
       </c>
-      <c r="H13">
-        <v>0.9952090615728052</v>
-      </c>
       <c r="I13">
-        <v>0.9919709910869763</v>
+        <v>0.9952090615728051</v>
       </c>
       <c r="J13">
-        <v>1.014606008043508</v>
+        <v>0.9919709910869762</v>
       </c>
       <c r="K13">
-        <v>1.002239997021678</v>
+        <v>0.9919709910869762</v>
       </c>
       <c r="L13">
+        <v>1.008792353710054</v>
+      </c>
+      <c r="M13">
         <v>0.9964513261108698</v>
       </c>
-      <c r="M13">
-        <v>1.008792353710054</v>
-      </c>
       <c r="N13">
-        <v>0.9919709910869763</v>
+        <v>0.9919709910869762</v>
       </c>
       <c r="O13">
         <v>0.9966806367573557</v>
@@ -1474,7 +1426,7 @@
         <v>1.001038449917285</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,37 +1434,37 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.8198670179631188</v>
+      </c>
+      <c r="D14">
+        <v>0.9839957928921003</v>
+      </c>
+      <c r="E14">
         <v>1.064307020482586</v>
       </c>
-      <c r="D14">
-        <v>0.8198670179631189</v>
-      </c>
-      <c r="E14">
+      <c r="F14">
         <v>1.077562692477143</v>
       </c>
-      <c r="F14">
+      <c r="G14">
+        <v>0.8198670179631188</v>
+      </c>
+      <c r="H14">
+        <v>0.9625349375141971</v>
+      </c>
+      <c r="I14">
+        <v>1.070809382430403</v>
+      </c>
+      <c r="J14">
         <v>1.064307020482586</v>
       </c>
-      <c r="G14">
-        <v>0.9625349375141971</v>
-      </c>
-      <c r="H14">
-        <v>1.070809382430403</v>
-      </c>
-      <c r="I14">
+      <c r="K14">
         <v>1.064307020482586</v>
       </c>
-      <c r="J14">
-        <v>0.8198670179631189</v>
-      </c>
-      <c r="K14">
-        <v>0.9839957928921003</v>
-      </c>
       <c r="L14">
+        <v>0.8878296979530805</v>
+      </c>
+      <c r="M14">
         <v>1.027217396599143</v>
-      </c>
-      <c r="M14">
-        <v>0.8878296979530805</v>
       </c>
       <c r="N14">
         <v>1.064307020482586</v>
@@ -1521,7 +1473,7 @@
         <v>1.077562692477143</v>
       </c>
       <c r="P14">
-        <v>0.9487148552201311</v>
+        <v>0.948714855220131</v>
       </c>
       <c r="Q14">
         <v>1.02004881499567</v>
@@ -1545,7 +1497,7 @@
         <v>0.9867654922889715</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,37 +1505,37 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.9662610896331583</v>
+      </c>
+      <c r="D15">
+        <v>0.9852570299017442</v>
+      </c>
+      <c r="E15">
         <v>1.044902067365519</v>
       </c>
-      <c r="D15">
+      <c r="F15">
+        <v>0.9944190829467452</v>
+      </c>
+      <c r="G15">
         <v>0.9662610896331583</v>
       </c>
-      <c r="E15">
-        <v>0.9944190829467452</v>
-      </c>
-      <c r="F15">
+      <c r="H15">
+        <v>0.9927817933959902</v>
+      </c>
+      <c r="I15">
+        <v>1.010402504950289</v>
+      </c>
+      <c r="J15">
         <v>1.044902067365519</v>
       </c>
-      <c r="G15">
-        <v>0.9927817933959902</v>
-      </c>
-      <c r="H15">
-        <v>1.010402504950289</v>
-      </c>
-      <c r="I15">
+      <c r="K15">
         <v>1.044902067365519</v>
       </c>
-      <c r="J15">
-        <v>0.9662610896331583</v>
-      </c>
-      <c r="K15">
-        <v>0.9852570299017442</v>
-      </c>
       <c r="L15">
+        <v>0.9764671976892316</v>
+      </c>
+      <c r="M15">
         <v>1.015907787121873</v>
-      </c>
-      <c r="M15">
-        <v>0.9764671976892316</v>
       </c>
       <c r="N15">
         <v>1.044902067365519</v>
@@ -1616,7 +1568,7 @@
         <v>0.9982998191255688</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9998779639791869</v>
+        <v>0.9325691084577036</v>
       </c>
       <c r="D16">
-        <v>0.9999155400096631</v>
+        <v>0.9893208070647319</v>
       </c>
       <c r="E16">
-        <v>1.000125985338641</v>
+        <v>1.037246747792882</v>
       </c>
       <c r="F16">
-        <v>0.9998779639791869</v>
+        <v>1.02056034184342</v>
       </c>
       <c r="G16">
-        <v>0.9999853356222279</v>
+        <v>0.9325691084577036</v>
       </c>
       <c r="H16">
-        <v>1.000044459043534</v>
+        <v>0.986125285393639</v>
       </c>
       <c r="I16">
-        <v>0.9998779639791869</v>
+        <v>1.025126907532542</v>
       </c>
       <c r="J16">
-        <v>0.9999155400096631</v>
+        <v>1.037246747792882</v>
       </c>
       <c r="K16">
-        <v>1.000047076570801</v>
+        <v>1.037246747792882</v>
       </c>
       <c r="L16">
-        <v>0.9999638647975629</v>
+        <v>0.9571699879989656</v>
       </c>
       <c r="M16">
-        <v>0.9999605543758394</v>
+        <v>1.014660117363333</v>
       </c>
       <c r="N16">
-        <v>0.9998779639791869</v>
+        <v>1.037246747792882</v>
       </c>
       <c r="O16">
-        <v>1.000125985338641</v>
+        <v>1.02056034184342</v>
       </c>
       <c r="P16">
-        <v>1.000020762674152</v>
+        <v>0.9765647251505618</v>
       </c>
       <c r="Q16">
-        <v>1.000055660480435</v>
+        <v>1.003342813618529</v>
       </c>
       <c r="R16">
-        <v>0.9999731631091638</v>
+        <v>0.9967920660313352</v>
       </c>
       <c r="S16">
-        <v>1.000008953656844</v>
+        <v>0.9797515785649208</v>
       </c>
       <c r="T16">
-        <v>0.9999731631091638</v>
+        <v>0.9967920660313352</v>
       </c>
       <c r="U16">
-        <v>0.9999762062374299</v>
+        <v>0.9941253708719111</v>
       </c>
       <c r="V16">
-        <v>0.9999565577857814</v>
+        <v>1.002749646256105</v>
       </c>
       <c r="W16">
-        <v>0.999990097467182</v>
+        <v>0.9953474129309021</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000436828779909</v>
+        <v>0.9456313971562357</v>
       </c>
       <c r="D17">
-        <v>0.9998450108368971</v>
+        <v>0.9905966687998862</v>
       </c>
       <c r="E17">
-        <v>0.9998406829820399</v>
+        <v>1.032231672745301</v>
       </c>
       <c r="F17">
-        <v>1.000436828779909</v>
+        <v>1.015355492180287</v>
       </c>
       <c r="G17">
-        <v>0.9999612805841828</v>
+        <v>0.9456313971562357</v>
       </c>
       <c r="H17">
-        <v>1.000031917555176</v>
+        <v>0.9887299264659415</v>
       </c>
       <c r="I17">
-        <v>1.000436828779909</v>
+        <v>1.020138364812574</v>
       </c>
       <c r="J17">
-        <v>0.9998450108368971</v>
+        <v>1.032231672745301</v>
       </c>
       <c r="K17">
-        <v>0.9998494753024121</v>
+        <v>1.032231672745301</v>
       </c>
       <c r="L17">
-        <v>1.000146456137585</v>
+        <v>0.9652460000144524</v>
       </c>
       <c r="M17">
-        <v>0.9998710975214894</v>
+        <v>1.012502611076579</v>
       </c>
       <c r="N17">
-        <v>1.000436828779909</v>
+        <v>1.032231672745301</v>
       </c>
       <c r="O17">
-        <v>0.9998406829820399</v>
+        <v>1.015355492180287</v>
       </c>
       <c r="P17">
-        <v>0.9998428469094685</v>
+        <v>0.9804934446682614</v>
       </c>
       <c r="Q17">
-        <v>0.9999009817831113</v>
+        <v>1.002042709323114</v>
       </c>
       <c r="R17">
-        <v>1.000040840866282</v>
+        <v>0.9977395206939411</v>
       </c>
       <c r="S17">
-        <v>0.9998823248010399</v>
+        <v>0.9832389386008215</v>
       </c>
       <c r="T17">
-        <v>1.000040840866282</v>
+        <v>0.9977395206939411</v>
       </c>
       <c r="U17">
-        <v>1.000020950795757</v>
+        <v>0.9954871221369412</v>
       </c>
       <c r="V17">
-        <v>1.000104126392588</v>
+        <v>1.002836032258613</v>
       </c>
       <c r="W17">
-        <v>0.9999978437124615</v>
+        <v>0.996304016656407</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000137842074254</v>
+        <v>0.9716181339315784</v>
       </c>
       <c r="D18">
-        <v>0.9986929981470891</v>
+        <v>0.9931198340849575</v>
       </c>
       <c r="E18">
-        <v>1.000745093564429</v>
+        <v>1.022295617242084</v>
       </c>
       <c r="F18">
-        <v>1.000137842074254</v>
+        <v>1.00498286517041</v>
       </c>
       <c r="G18">
-        <v>0.9997407367983574</v>
+        <v>0.9716181339315784</v>
       </c>
       <c r="H18">
-        <v>1.000531715755564</v>
+        <v>0.993907360849655</v>
       </c>
       <c r="I18">
-        <v>1.000137842074254</v>
+        <v>1.010214494414789</v>
       </c>
       <c r="J18">
-        <v>0.9986929981470891</v>
+        <v>1.022295617242084</v>
       </c>
       <c r="K18">
-        <v>1.000002360636614</v>
+        <v>1.022295617242084</v>
       </c>
       <c r="L18">
-        <v>1.000095618026563</v>
+        <v>0.9813065826579439</v>
       </c>
       <c r="M18">
-        <v>0.9992192195223716</v>
+        <v>1.00822146455549</v>
       </c>
       <c r="N18">
-        <v>1.000137842074254</v>
+        <v>1.022295617242084</v>
       </c>
       <c r="O18">
-        <v>1.000745093564429</v>
+        <v>1.00498286517041</v>
       </c>
       <c r="P18">
-        <v>0.999719045855759</v>
+        <v>0.9883004995509943</v>
       </c>
       <c r="Q18">
-        <v>1.000242915181393</v>
+        <v>0.9994451130100326</v>
       </c>
       <c r="R18">
-        <v>0.9998586445952574</v>
+        <v>0.9996322054480241</v>
       </c>
       <c r="S18">
-        <v>0.9997262761699585</v>
+        <v>0.9901694533172146</v>
       </c>
       <c r="T18">
-        <v>0.9998586445952574</v>
+        <v>0.9996322054480241</v>
       </c>
       <c r="U18">
-        <v>0.9998291676460325</v>
+        <v>0.9982009942984319</v>
       </c>
       <c r="V18">
-        <v>0.9998909025316769</v>
+        <v>1.003019918887162</v>
       </c>
       <c r="W18">
-        <v>0.9998956980656554</v>
+        <v>0.9982082941133634</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9696545809878773</v>
+      </c>
+      <c r="D19">
+        <v>0.9924200994485826</v>
+      </c>
+      <c r="E19">
+        <v>1.024484848940234</v>
+      </c>
+      <c r="F19">
+        <v>1.004786364554123</v>
+      </c>
+      <c r="G19">
+        <v>0.9696545809878773</v>
+      </c>
+      <c r="H19">
+        <v>0.9935632687260586</v>
+      </c>
+      <c r="I19">
+        <v>1.010782595578116</v>
+      </c>
+      <c r="J19">
+        <v>1.024484848940234</v>
+      </c>
+      <c r="K19">
+        <v>1.024484848940234</v>
+      </c>
+      <c r="L19">
+        <v>0.9800241697767401</v>
+      </c>
+      <c r="M19">
+        <v>1.009051505422695</v>
+      </c>
+      <c r="N19">
+        <v>1.024484848940234</v>
+      </c>
+      <c r="O19">
+        <v>1.004786364554123</v>
+      </c>
+      <c r="P19">
+        <v>0.9872204727710001</v>
+      </c>
+      <c r="Q19">
+        <v>0.9991748166400909</v>
+      </c>
+      <c r="R19">
+        <v>0.9996419314940782</v>
+      </c>
+      <c r="S19">
+        <v>0.989334738089353</v>
+      </c>
+      <c r="T19">
+        <v>0.9996419314940782</v>
+      </c>
+      <c r="U19">
+        <v>0.9981222658020733</v>
+      </c>
+      <c r="V19">
+        <v>1.003394782429706</v>
+      </c>
+      <c r="W19">
+        <v>0.9980959291793035</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999155400096631</v>
+      </c>
+      <c r="D20">
+        <v>1.000047076570801</v>
+      </c>
+      <c r="E20">
+        <v>0.9998779639791868</v>
+      </c>
+      <c r="F20">
+        <v>1.000125985338641</v>
+      </c>
+      <c r="G20">
+        <v>0.9999155400096631</v>
+      </c>
+      <c r="H20">
+        <v>0.9999853356222279</v>
+      </c>
+      <c r="I20">
+        <v>1.000044459043534</v>
+      </c>
+      <c r="J20">
+        <v>0.9998779639791868</v>
+      </c>
+      <c r="K20">
+        <v>0.9998779639791868</v>
+      </c>
+      <c r="L20">
+        <v>0.9999605543758396</v>
+      </c>
+      <c r="M20">
+        <v>0.9999638647975629</v>
+      </c>
+      <c r="N20">
+        <v>0.9998779639791868</v>
+      </c>
+      <c r="O20">
+        <v>1.000125985338641</v>
+      </c>
+      <c r="P20">
+        <v>1.000020762674152</v>
+      </c>
+      <c r="Q20">
+        <v>1.000055660480435</v>
+      </c>
+      <c r="R20">
+        <v>0.9999731631091638</v>
+      </c>
+      <c r="S20">
+        <v>1.000008953656844</v>
+      </c>
+      <c r="T20">
+        <v>0.9999731631091638</v>
+      </c>
+      <c r="U20">
+        <v>0.9999762062374299</v>
+      </c>
+      <c r="V20">
+        <v>0.9999565577857812</v>
+      </c>
+      <c r="W20">
+        <v>0.999990097467182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.999845010836897</v>
+      </c>
+      <c r="D21">
+        <v>0.9998494753024121</v>
+      </c>
+      <c r="E21">
+        <v>1.000436828779909</v>
+      </c>
+      <c r="F21">
+        <v>0.9998406829820399</v>
+      </c>
+      <c r="G21">
+        <v>0.999845010836897</v>
+      </c>
+      <c r="H21">
+        <v>0.9999612805841827</v>
+      </c>
+      <c r="I21">
+        <v>1.000031917555176</v>
+      </c>
+      <c r="J21">
+        <v>1.000436828779909</v>
+      </c>
+      <c r="K21">
+        <v>1.000436828779909</v>
+      </c>
+      <c r="L21">
+        <v>0.9998710975214894</v>
+      </c>
+      <c r="M21">
+        <v>1.000146456137585</v>
+      </c>
+      <c r="N21">
+        <v>1.000436828779909</v>
+      </c>
+      <c r="O21">
+        <v>0.9998406829820399</v>
+      </c>
+      <c r="P21">
+        <v>0.9998428469094685</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999009817831113</v>
+      </c>
+      <c r="R21">
+        <v>1.000040840866282</v>
+      </c>
+      <c r="S21">
+        <v>0.9998823248010398</v>
+      </c>
+      <c r="T21">
+        <v>1.000040840866282</v>
+      </c>
+      <c r="U21">
+        <v>1.000020950795757</v>
+      </c>
+      <c r="V21">
+        <v>1.000104126392588</v>
+      </c>
+      <c r="W21">
+        <v>0.9999978437124615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9986929981470891</v>
+      </c>
+      <c r="D22">
+        <v>1.000002360636614</v>
+      </c>
+      <c r="E22">
+        <v>1.000137842074254</v>
+      </c>
+      <c r="F22">
+        <v>1.000745093564429</v>
+      </c>
+      <c r="G22">
+        <v>0.9986929981470891</v>
+      </c>
+      <c r="H22">
+        <v>0.9997407367983574</v>
+      </c>
+      <c r="I22">
+        <v>1.000531715755564</v>
+      </c>
+      <c r="J22">
+        <v>1.000137842074254</v>
+      </c>
+      <c r="K22">
+        <v>1.000137842074254</v>
+      </c>
+      <c r="L22">
+        <v>0.9992192195223716</v>
+      </c>
+      <c r="M22">
+        <v>1.000095618026563</v>
+      </c>
+      <c r="N22">
+        <v>1.000137842074254</v>
+      </c>
+      <c r="O22">
+        <v>1.000745093564429</v>
+      </c>
+      <c r="P22">
+        <v>0.999719045855759</v>
+      </c>
+      <c r="Q22">
+        <v>1.000242915181393</v>
+      </c>
+      <c r="R22">
+        <v>0.9998586445952574</v>
+      </c>
+      <c r="S22">
+        <v>0.9997262761699585</v>
+      </c>
+      <c r="T22">
+        <v>0.9998586445952574</v>
+      </c>
+      <c r="U22">
+        <v>0.9998291676460325</v>
+      </c>
+      <c r="V22">
+        <v>0.9998909025316769</v>
+      </c>
+      <c r="W22">
+        <v>0.9998956980656554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9964618696980951</v>
+      </c>
+      <c r="D23">
+        <v>1.000338136619026</v>
+      </c>
+      <c r="E23">
         <v>0.9994483033013463</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>1.002560754245643</v>
+      </c>
+      <c r="G23">
         <v>0.9964618696980951</v>
       </c>
-      <c r="E19">
+      <c r="H23">
+        <v>0.999316273302983</v>
+      </c>
+      <c r="I23">
+        <v>1.001507290210313</v>
+      </c>
+      <c r="J23">
+        <v>0.9994483033013463</v>
+      </c>
+      <c r="K23">
+        <v>0.9994483033013463</v>
+      </c>
+      <c r="L23">
+        <v>0.9979666716574275</v>
+      </c>
+      <c r="M23">
+        <v>0.9999619850647878</v>
+      </c>
+      <c r="N23">
+        <v>0.9994483033013463</v>
+      </c>
+      <c r="O23">
         <v>1.002560754245643</v>
       </c>
-      <c r="F19">
-        <v>0.9994483033013463</v>
-      </c>
-      <c r="G19">
-        <v>0.999316273302983</v>
-      </c>
-      <c r="H19">
-        <v>1.001507290210313</v>
-      </c>
-      <c r="I19">
-        <v>0.9994483033013463</v>
-      </c>
-      <c r="J19">
-        <v>0.9964618696980951</v>
-      </c>
-      <c r="K19">
-        <v>1.000338136619026</v>
-      </c>
-      <c r="L19">
-        <v>0.9999619850647878</v>
-      </c>
-      <c r="M19">
-        <v>0.9979666716574275</v>
-      </c>
-      <c r="N19">
-        <v>0.9994483033013463</v>
-      </c>
-      <c r="O19">
-        <v>1.002560754245643</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9995113119718688</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000938513774313</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9994903090816947</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9994462990822403</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9994903090816946</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9994468001370167</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>0.9994471007698825</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.9996951605124527</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/CopperA-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW30.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9965249397803573</v>
+        <v>0.9664646180043224</v>
       </c>
       <c r="D3">
-        <v>0.9994650083680818</v>
+        <v>0.9918324632636896</v>
       </c>
       <c r="E3">
-        <v>1.001877471035126</v>
+        <v>1.026453361685878</v>
       </c>
       <c r="F3">
-        <v>1.001078792176916</v>
+        <v>1.00580110926513</v>
       </c>
       <c r="G3">
-        <v>0.9965249397803573</v>
+        <v>0.9664646180043224</v>
       </c>
       <c r="H3">
-        <v>0.9992888711753916</v>
+        <v>0.9928113758141218</v>
       </c>
       <c r="I3">
-        <v>1.001294892220408</v>
+        <v>1.012048604906343</v>
       </c>
       <c r="J3">
-        <v>1.001877471035126</v>
+        <v>1.026453361685878</v>
       </c>
       <c r="K3">
-        <v>1.001877471035126</v>
+        <v>1.026453361685878</v>
       </c>
       <c r="L3">
-        <v>0.9977986877468767</v>
+        <v>0.9779120373847247</v>
       </c>
       <c r="M3">
-        <v>1.000743850888042</v>
+        <v>1.009756811707492</v>
       </c>
       <c r="N3">
-        <v>1.001877471035126</v>
+        <v>1.026453361685878</v>
       </c>
       <c r="O3">
-        <v>1.001078792176916</v>
+        <v>1.00580110926513</v>
       </c>
       <c r="P3">
-        <v>0.9988018659786367</v>
+        <v>0.9861328636347262</v>
       </c>
       <c r="Q3">
-        <v>1.000183831676154</v>
+        <v>0.999306242539626</v>
       </c>
       <c r="R3">
-        <v>0.9998270676641333</v>
+        <v>0.9995730296517769</v>
       </c>
       <c r="S3">
-        <v>0.9989642010442217</v>
+        <v>0.9883590343611913</v>
       </c>
       <c r="T3">
-        <v>0.9998270676641333</v>
+        <v>0.9995730296517769</v>
       </c>
       <c r="U3">
-        <v>0.9996925185419478</v>
+        <v>0.9978826161923631</v>
       </c>
       <c r="V3">
-        <v>1.000129509040584</v>
+        <v>1.003596765291066</v>
       </c>
       <c r="W3">
-        <v>0.9997590641739</v>
+        <v>0.9978850477539627</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9933118002015141</v>
+        <v>0.9696342665672756</v>
       </c>
       <c r="D4">
-        <v>0.9989545941088636</v>
+        <v>0.9926225490150953</v>
       </c>
       <c r="E4">
-        <v>1.003656699377196</v>
+        <v>1.023901790061495</v>
       </c>
       <c r="F4">
-        <v>1.002055321614524</v>
+        <v>1.005288419664552</v>
       </c>
       <c r="G4">
-        <v>0.9933118002015141</v>
+        <v>0.9696342665672756</v>
       </c>
       <c r="H4">
-        <v>0.9986279843641259</v>
+        <v>0.9934887716390275</v>
       </c>
       <c r="I4">
-        <v>1.002491542764299</v>
+        <v>1.010916665514348</v>
       </c>
       <c r="J4">
-        <v>1.003656699377196</v>
+        <v>1.023901790061495</v>
       </c>
       <c r="K4">
-        <v>1.003656699377196</v>
+        <v>1.023901790061495</v>
       </c>
       <c r="L4">
-        <v>0.9957576747887865</v>
+        <v>0.9800018968803583</v>
       </c>
       <c r="M4">
-        <v>1.001444029846168</v>
+        <v>1.008816349845332</v>
       </c>
       <c r="N4">
-        <v>1.003656699377196</v>
+        <v>1.023901790061495</v>
       </c>
       <c r="O4">
-        <v>1.002055321614524</v>
+        <v>1.005288419664552</v>
       </c>
       <c r="P4">
-        <v>0.997683560908019</v>
+        <v>0.9874613431159136</v>
       </c>
       <c r="Q4">
-        <v>1.000341652989325</v>
+        <v>0.9993885956517896</v>
       </c>
       <c r="R4">
-        <v>0.9996746070644115</v>
+        <v>0.9996081587644406</v>
       </c>
       <c r="S4">
-        <v>0.9979983687267214</v>
+        <v>0.9894704859569515</v>
       </c>
       <c r="T4">
-        <v>0.9996746070644115</v>
+        <v>0.9996081587644406</v>
       </c>
       <c r="U4">
-        <v>0.9994129513893402</v>
+        <v>0.9980783119830874</v>
       </c>
       <c r="V4">
-        <v>1.000261700986911</v>
+        <v>1.003243007598769</v>
       </c>
       <c r="W4">
-        <v>0.9995374558831847</v>
+        <v>0.9980838386484353</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9871696325034197</v>
+        <v>0.9602677189218319</v>
       </c>
       <c r="D5">
-        <v>0.9980033800987245</v>
+        <v>0.9902740534231802</v>
       </c>
       <c r="E5">
-        <v>1.006991218838297</v>
+        <v>1.031479709568735</v>
       </c>
       <c r="F5">
-        <v>1.003949716900514</v>
+        <v>1.006784374123989</v>
       </c>
       <c r="G5">
-        <v>0.9871696325034197</v>
+        <v>0.9602677189218319</v>
       </c>
       <c r="H5">
-        <v>0.9973723755282361</v>
+        <v>0.9914845042857163</v>
       </c>
       <c r="I5">
-        <v>1.004777434683475</v>
+        <v>1.014260645444742</v>
       </c>
       <c r="J5">
-        <v>1.006991218838297</v>
+        <v>1.031479709568735</v>
       </c>
       <c r="K5">
-        <v>1.006991218838297</v>
+        <v>1.031479709568735</v>
       </c>
       <c r="L5">
-        <v>0.9918666761541209</v>
+        <v>0.9738216038544484</v>
       </c>
       <c r="M5">
-        <v>1.002764921924352</v>
+        <v>1.01160657671159</v>
       </c>
       <c r="N5">
-        <v>1.006991218838297</v>
+        <v>1.031479709568735</v>
       </c>
       <c r="O5">
-        <v>1.003949716900514</v>
+        <v>1.006784374123989</v>
       </c>
       <c r="P5">
-        <v>0.9955596747019668</v>
+        <v>0.9835260465229108</v>
       </c>
       <c r="Q5">
-        <v>1.000661046214375</v>
+        <v>0.9991344392048529</v>
       </c>
       <c r="R5">
-        <v>0.9993701894140771</v>
+        <v>0.999510600871519</v>
       </c>
       <c r="S5">
-        <v>0.9961639083107232</v>
+        <v>0.9861788657771792</v>
       </c>
       <c r="T5">
-        <v>0.9993701894140771</v>
+        <v>0.999510600871519</v>
       </c>
       <c r="U5">
-        <v>0.9988707359426168</v>
+        <v>0.9975040767250682</v>
       </c>
       <c r="V5">
-        <v>1.000494832521753</v>
+        <v>1.004299203293802</v>
       </c>
       <c r="W5">
-        <v>0.9991119195788924</v>
+        <v>0.9974973982917792</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9811834311250328</v>
+        <v>0.9542707401136366</v>
       </c>
       <c r="D6">
-        <v>0.9970702238746195</v>
+        <v>0.9887500532954548</v>
       </c>
       <c r="E6">
-        <v>1.010257660723159</v>
+        <v>1.03638761465909</v>
       </c>
       <c r="F6">
-        <v>1.005788908173664</v>
+        <v>1.007713887386364</v>
       </c>
       <c r="G6">
-        <v>0.9811834311250328</v>
+        <v>0.9542707401136366</v>
       </c>
       <c r="H6">
-        <v>0.996146839567153</v>
+        <v>0.9901975319318169</v>
       </c>
       <c r="I6">
-        <v>1.007005557217794</v>
+        <v>1.016400181534091</v>
       </c>
       <c r="J6">
-        <v>1.010257660723159</v>
+        <v>1.03638761465909</v>
       </c>
       <c r="K6">
-        <v>1.010257660723159</v>
+        <v>1.03638761465909</v>
       </c>
       <c r="L6">
-        <v>0.9880719356746062</v>
+        <v>0.9698578096590909</v>
       </c>
       <c r="M6">
-        <v>1.004056713842406</v>
+        <v>1.013409465397727</v>
       </c>
       <c r="N6">
-        <v>1.010257660723159</v>
+        <v>1.03638761465909</v>
       </c>
       <c r="O6">
-        <v>1.005788908173664</v>
+        <v>1.007713887386364</v>
       </c>
       <c r="P6">
-        <v>0.9934861696493482</v>
+        <v>0.9809923137500001</v>
       </c>
       <c r="Q6">
-        <v>1.000967873870408</v>
+        <v>0.9989557096590902</v>
       </c>
       <c r="R6">
-        <v>0.999076666673952</v>
+        <v>0.99945741405303</v>
       </c>
       <c r="S6">
-        <v>0.9943730596219499</v>
+        <v>0.9840607198106057</v>
       </c>
       <c r="T6">
-        <v>0.999076666673952</v>
+        <v>0.99945741405303</v>
       </c>
       <c r="U6">
-        <v>0.9983442098972523</v>
+        <v>0.9971424435227267</v>
       </c>
       <c r="V6">
-        <v>1.000726900062434</v>
+        <v>1.004991477749999</v>
       </c>
       <c r="W6">
-        <v>0.9986976587748043</v>
+        <v>0.9971234104971589</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9997149891480102</v>
+        <v>0.9445776623839773</v>
       </c>
       <c r="D7">
-        <v>0.999925070392585</v>
+        <v>0.97619456261316</v>
       </c>
       <c r="E7">
-        <v>1.000240157850922</v>
+        <v>1.072100272103949</v>
       </c>
       <c r="F7">
-        <v>1.000040532685259</v>
+        <v>0.9953761708647564</v>
       </c>
       <c r="G7">
-        <v>0.9997149891480102</v>
+        <v>0.9445776623839773</v>
       </c>
       <c r="H7">
-        <v>0.9999384687558509</v>
+        <v>0.9861788015318449</v>
       </c>
       <c r="I7">
-        <v>1.000101414094616</v>
+        <v>1.019228533993074</v>
       </c>
       <c r="J7">
-        <v>1.000240157850922</v>
+        <v>1.072100272103949</v>
       </c>
       <c r="K7">
-        <v>1.000240157850922</v>
+        <v>1.072100272103949</v>
       </c>
       <c r="L7">
-        <v>0.9998108407841123</v>
+        <v>0.9600021040959968</v>
       </c>
       <c r="M7">
-        <v>1.000087760843136</v>
+        <v>1.024409391495349</v>
       </c>
       <c r="N7">
-        <v>1.000240157850922</v>
+        <v>1.072100272103949</v>
       </c>
       <c r="O7">
-        <v>1.000040532685259</v>
+        <v>0.9953761708647564</v>
       </c>
       <c r="P7">
-        <v>0.9998777609166344</v>
+        <v>0.9699769166243668</v>
       </c>
       <c r="Q7">
-        <v>0.9999895007205548</v>
+        <v>0.9907774861983006</v>
       </c>
       <c r="R7">
-        <v>0.9999985598947303</v>
+        <v>1.004018035117561</v>
       </c>
       <c r="S7">
-        <v>0.9998979968630399</v>
+        <v>0.9753775449268595</v>
       </c>
       <c r="T7">
-        <v>0.9999985598947303</v>
+        <v>1.004018035117561</v>
       </c>
       <c r="U7">
-        <v>0.9999835371100104</v>
+        <v>0.999558226721132</v>
       </c>
       <c r="V7">
-        <v>1.000034861258193</v>
+        <v>1.014066635797696</v>
       </c>
       <c r="W7">
-        <v>0.9999824043193115</v>
+        <v>0.9972584373852634</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9991509705420071</v>
+        <v>0.9431794387605827</v>
       </c>
       <c r="D8">
-        <v>0.9997748975312105</v>
+        <v>0.9758666872123553</v>
       </c>
       <c r="E8">
-        <v>1.000720434021072</v>
+        <v>1.073168402735414</v>
       </c>
       <c r="F8">
-        <v>1.000119650485361</v>
+        <v>0.9956351238892717</v>
       </c>
       <c r="G8">
-        <v>0.9991509705420071</v>
+        <v>0.9431794387605827</v>
       </c>
       <c r="H8">
-        <v>0.9998155617413556</v>
+        <v>0.9858816561632406</v>
       </c>
       <c r="I8">
-        <v>1.000302784025368</v>
+        <v>1.01973152841155</v>
       </c>
       <c r="J8">
-        <v>1.000720434021072</v>
+        <v>1.073168402735414</v>
       </c>
       <c r="K8">
-        <v>1.000720434021072</v>
+        <v>1.073168402735414</v>
       </c>
       <c r="L8">
-        <v>0.9994353059576877</v>
+        <v>0.9590856012157658</v>
       </c>
       <c r="M8">
-        <v>1.000262427372802</v>
+        <v>1.02480614590369</v>
       </c>
       <c r="N8">
-        <v>1.000720434021072</v>
+        <v>1.073168402735414</v>
       </c>
       <c r="O8">
-        <v>1.000119650485361</v>
+        <v>0.9956351238892717</v>
       </c>
       <c r="P8">
-        <v>0.9996353105136841</v>
+        <v>0.9694072813249273</v>
       </c>
       <c r="Q8">
-        <v>0.9999676061133583</v>
+        <v>0.9907583900262562</v>
       </c>
       <c r="R8">
-        <v>0.9999970183494801</v>
+        <v>1.00399432179509</v>
       </c>
       <c r="S8">
-        <v>0.9996953942562413</v>
+        <v>0.974898739604365</v>
       </c>
       <c r="T8">
-        <v>0.9999970183494801</v>
+        <v>1.00399432179509</v>
       </c>
       <c r="U8">
-        <v>0.9999516541974489</v>
+        <v>0.9994661553871274</v>
       </c>
       <c r="V8">
-        <v>1.000105410162174</v>
+        <v>1.014206604856785</v>
       </c>
       <c r="W8">
-        <v>0.9999477539596081</v>
+        <v>0.9971693230364839</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9986608908060839</v>
+        <v>0.9423011263027925</v>
       </c>
       <c r="D9">
-        <v>0.9996352482885879</v>
+        <v>0.9757041492514672</v>
       </c>
       <c r="E9">
-        <v>1.001162636076085</v>
+        <v>1.073719835068905</v>
       </c>
       <c r="F9">
-        <v>1.000178377782507</v>
+        <v>0.9958573820271581</v>
       </c>
       <c r="G9">
-        <v>0.9986608908060839</v>
+        <v>0.9423011263027925</v>
       </c>
       <c r="H9">
-        <v>0.9997056987113901</v>
+        <v>0.9857033168733016</v>
       </c>
       <c r="I9">
-        <v>1.000478537818114</v>
+        <v>1.020050225749156</v>
       </c>
       <c r="J9">
-        <v>1.001162636076085</v>
+        <v>1.073719835068905</v>
       </c>
       <c r="K9">
-        <v>1.001162636076085</v>
+        <v>1.073719835068905</v>
       </c>
       <c r="L9">
-        <v>0.9991049209388092</v>
+        <v>0.9585247093520298</v>
       </c>
       <c r="M9">
-        <v>1.000420647136757</v>
+        <v>1.025020566922883</v>
       </c>
       <c r="N9">
-        <v>1.001162636076085</v>
+        <v>1.073719835068905</v>
       </c>
       <c r="O9">
-        <v>1.000178377782507</v>
+        <v>0.9958573820271581</v>
       </c>
       <c r="P9">
-        <v>0.9994196342942954</v>
+        <v>0.9690792541649753</v>
       </c>
       <c r="Q9">
-        <v>0.9999420382469485</v>
+        <v>0.9907803494502299</v>
       </c>
       <c r="R9">
-        <v>1.000000634888225</v>
+        <v>1.003959447799619</v>
       </c>
       <c r="S9">
-        <v>0.9995149890999936</v>
+        <v>0.974620608401084</v>
       </c>
       <c r="T9">
-        <v>1.000000634888225</v>
+        <v>1.003959447799619</v>
       </c>
       <c r="U9">
-        <v>0.9999269008440164</v>
+        <v>0.9993954150680395</v>
       </c>
       <c r="V9">
-        <v>1.00017404789043</v>
+        <v>1.014260299068213</v>
       </c>
       <c r="W9">
-        <v>0.9999183696947916</v>
+        <v>0.9971101639434616</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9972424849351729</v>
+        <v>0.9370737148743343</v>
       </c>
       <c r="D10">
-        <v>0.9992650943169916</v>
+        <v>0.9744214323153816</v>
       </c>
       <c r="E10">
-        <v>1.00234987005891</v>
+        <v>1.077866666879346</v>
       </c>
       <c r="F10">
-        <v>1.000387022805093</v>
+        <v>0.9967714950147265</v>
       </c>
       <c r="G10">
-        <v>0.9972424849351729</v>
+        <v>0.9370737148743343</v>
       </c>
       <c r="H10">
-        <v>0.999398364714685</v>
+        <v>0.9845691225937258</v>
       </c>
       <c r="I10">
-        <v>1.000985092461675</v>
+        <v>1.021939955700046</v>
       </c>
       <c r="J10">
-        <v>1.00234987005891</v>
+        <v>1.077866666879346</v>
       </c>
       <c r="K10">
-        <v>1.00234987005891</v>
+        <v>1.077866666879346</v>
       </c>
       <c r="L10">
-        <v>0.9981633104225268</v>
+        <v>0.9550698536492011</v>
       </c>
       <c r="M10">
-        <v>1.000854104466089</v>
+        <v>1.026541069063434</v>
       </c>
       <c r="N10">
-        <v>1.00234987005891</v>
+        <v>1.077866666879346</v>
       </c>
       <c r="O10">
-        <v>1.000387022805093</v>
+        <v>0.9967714950147265</v>
       </c>
       <c r="P10">
-        <v>0.9988147538701327</v>
+        <v>0.9669226049445304</v>
       </c>
       <c r="Q10">
-        <v>0.9998926937598889</v>
+        <v>0.9906703088042261</v>
       </c>
       <c r="R10">
-        <v>0.9999931259330582</v>
+        <v>1.003903958922802</v>
       </c>
       <c r="S10">
-        <v>0.9990092908183169</v>
+        <v>0.9728047774942622</v>
       </c>
       <c r="T10">
-        <v>0.9999931259330582</v>
+        <v>1.003903958922802</v>
       </c>
       <c r="U10">
-        <v>0.9998444356284649</v>
+        <v>0.9990702498405332</v>
       </c>
       <c r="V10">
-        <v>1.000345522514554</v>
+        <v>1.014829533248296</v>
       </c>
       <c r="W10">
-        <v>0.9998306680226429</v>
+        <v>0.9967816637612743</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9950825199438512</v>
+        <v>0.9961704411763582</v>
       </c>
       <c r="D11">
-        <v>0.998644170758648</v>
+        <v>0.9992873445483992</v>
       </c>
       <c r="E11">
-        <v>1.004315045116978</v>
+        <v>1.00240868669014</v>
       </c>
       <c r="F11">
-        <v>1.000628856834206</v>
+        <v>1.001013377543666</v>
       </c>
       <c r="G11">
-        <v>0.9950825199438512</v>
+        <v>0.9961704411763582</v>
       </c>
       <c r="H11">
-        <v>0.9989180115243492</v>
+        <v>0.9991961076208813</v>
       </c>
       <c r="I11">
-        <v>1.001754289743498</v>
+        <v>1.001415761735209</v>
       </c>
       <c r="J11">
-        <v>1.004315045116978</v>
+        <v>1.00240868669014</v>
       </c>
       <c r="K11">
-        <v>1.004315045116978</v>
+        <v>1.00240868669014</v>
       </c>
       <c r="L11">
-        <v>0.9967088762762576</v>
+        <v>0.9975345463433838</v>
       </c>
       <c r="M11">
-        <v>1.001559130495685</v>
+        <v>1.000920682256807</v>
       </c>
       <c r="N11">
-        <v>1.004315045116978</v>
+        <v>1.00240868669014</v>
       </c>
       <c r="O11">
-        <v>1.000628856834206</v>
+        <v>1.001013377543666</v>
       </c>
       <c r="P11">
-        <v>0.9978556883890284</v>
+        <v>0.9985919093600122</v>
       </c>
       <c r="Q11">
-        <v>0.9997734341792774</v>
+        <v>1.000104742582274</v>
       </c>
       <c r="R11">
-        <v>1.000008807298345</v>
+        <v>0.9998641684700548</v>
       </c>
       <c r="S11">
-        <v>0.998209796100802</v>
+        <v>0.9987933087803018</v>
       </c>
       <c r="T11">
-        <v>1.000008807298345</v>
+        <v>0.9998641684700548</v>
       </c>
       <c r="U11">
-        <v>0.9997361083548459</v>
+        <v>0.9996971532577614</v>
       </c>
       <c r="V11">
-        <v>1.000651895707272</v>
+        <v>1.000239459944237</v>
       </c>
       <c r="W11">
-        <v>0.9997013625866841</v>
+        <v>0.9997433684893556</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.049916448254755</v>
+        <v>0.9978159876638378</v>
       </c>
       <c r="D12">
-        <v>1.010926150135212</v>
+        <v>0.9995996574483775</v>
       </c>
       <c r="E12">
-        <v>0.9642540936251951</v>
+        <v>1.001356491622555</v>
       </c>
       <c r="F12">
-        <v>0.9878492213880913</v>
+        <v>1.000589570832675</v>
       </c>
       <c r="G12">
-        <v>1.049916448254755</v>
+        <v>0.9978159876638378</v>
       </c>
       <c r="H12">
-        <v>1.011402441526143</v>
+        <v>0.9995410182371797</v>
       </c>
       <c r="I12">
-        <v>0.9810174755754272</v>
+        <v>1.000809543100461</v>
       </c>
       <c r="J12">
-        <v>0.9642540936251951</v>
+        <v>1.001356491622555</v>
       </c>
       <c r="K12">
-        <v>0.9642540936251951</v>
+        <v>1.001356491622555</v>
       </c>
       <c r="L12">
-        <v>1.033137552110158</v>
+        <v>0.9985947962054271</v>
       </c>
       <c r="M12">
-        <v>0.9871029092539747</v>
+        <v>1.000519040275416</v>
       </c>
       <c r="N12">
-        <v>0.9642540936251951</v>
+        <v>1.001356491622555</v>
       </c>
       <c r="O12">
-        <v>0.9878492213880913</v>
+        <v>1.000589570832675</v>
       </c>
       <c r="P12">
-        <v>1.018882834821423</v>
+        <v>0.9992027792482565</v>
       </c>
       <c r="Q12">
-        <v>0.9996258314571174</v>
+        <v>1.000065294534928</v>
       </c>
       <c r="R12">
-        <v>1.00067325442268</v>
+        <v>0.9999206833730226</v>
       </c>
       <c r="S12">
-        <v>1.016389370389663</v>
+        <v>0.9993155255778975</v>
       </c>
       <c r="T12">
-        <v>1.00067325442268</v>
+        <v>0.9999206833730229</v>
       </c>
       <c r="U12">
-        <v>1.003355551198546</v>
+        <v>0.999825767089062</v>
       </c>
       <c r="V12">
-        <v>0.9955352596838759</v>
+        <v>1.000131911995761</v>
       </c>
       <c r="W12">
-        <v>1.00320078648362</v>
+        <v>0.9998532631732412</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.014606008043508</v>
+        <v>0.9912553642305189</v>
       </c>
       <c r="D13">
-        <v>1.002239997021678</v>
+        <v>0.9984589770902216</v>
       </c>
       <c r="E13">
-        <v>0.9919709910869762</v>
+        <v>1.005260034633331</v>
       </c>
       <c r="F13">
-        <v>0.9966806367573557</v>
+        <v>1.002451825902543</v>
       </c>
       <c r="G13">
-        <v>1.014606008043508</v>
+        <v>0.9912553642305189</v>
       </c>
       <c r="H13">
-        <v>1.002357225035031</v>
+        <v>0.998170912996745</v>
       </c>
       <c r="I13">
-        <v>0.9952090615728051</v>
+        <v>1.003248569365333</v>
       </c>
       <c r="J13">
-        <v>0.9919709910869762</v>
+        <v>1.005260034633331</v>
       </c>
       <c r="K13">
-        <v>0.9919709910869762</v>
+        <v>1.005260034633331</v>
       </c>
       <c r="L13">
-        <v>1.008792353710054</v>
+        <v>0.9943924817393062</v>
       </c>
       <c r="M13">
-        <v>0.9964513261108698</v>
+        <v>1.002026386996346</v>
       </c>
       <c r="N13">
-        <v>0.9919709910869762</v>
+        <v>1.005260034633331</v>
       </c>
       <c r="O13">
-        <v>0.9966806367573557</v>
+        <v>1.002451825902543</v>
       </c>
       <c r="P13">
-        <v>1.005643322400432</v>
+        <v>0.9968535950665312</v>
       </c>
       <c r="Q13">
-        <v>0.9995189308961935</v>
+        <v>1.000311369449644</v>
       </c>
       <c r="R13">
-        <v>1.00108587862928</v>
+        <v>0.9996557415887978</v>
       </c>
       <c r="S13">
-        <v>1.004547956611965</v>
+        <v>0.9972927010432691</v>
       </c>
       <c r="T13">
-        <v>1.00108587862928</v>
+        <v>0.9996557415887978</v>
       </c>
       <c r="U13">
-        <v>1.001403715230718</v>
+        <v>0.9992845344407846</v>
       </c>
       <c r="V13">
-        <v>0.9995171704019695</v>
+        <v>1.000479634479294</v>
       </c>
       <c r="W13">
-        <v>1.001038449917285</v>
+        <v>0.9994080691192933</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8198670179631188</v>
+        <v>0.9902931180059588</v>
       </c>
       <c r="D14">
-        <v>0.9839957928921003</v>
+        <v>0.9984825687841472</v>
       </c>
       <c r="E14">
-        <v>1.064307020482586</v>
+        <v>1.005307524261825</v>
       </c>
       <c r="F14">
-        <v>1.077562692477143</v>
+        <v>1.002983774920639</v>
       </c>
       <c r="G14">
-        <v>0.8198670179631188</v>
+        <v>0.9902931180059588</v>
       </c>
       <c r="H14">
-        <v>0.9625349375141971</v>
+        <v>0.9980081506233668</v>
       </c>
       <c r="I14">
-        <v>1.070809382430403</v>
+        <v>1.003616641240585</v>
       </c>
       <c r="J14">
-        <v>1.064307020482586</v>
+        <v>1.005307524261825</v>
       </c>
       <c r="K14">
-        <v>1.064307020482586</v>
+        <v>1.005307524261825</v>
       </c>
       <c r="L14">
-        <v>0.8878296979530805</v>
+        <v>0.9938424583371034</v>
       </c>
       <c r="M14">
-        <v>1.027217396599143</v>
+        <v>1.002095565142738</v>
       </c>
       <c r="N14">
-        <v>1.064307020482586</v>
+        <v>1.005307524261825</v>
       </c>
       <c r="O14">
-        <v>1.077562692477143</v>
+        <v>1.002983774920639</v>
       </c>
       <c r="P14">
-        <v>0.948714855220131</v>
+        <v>0.9966384464632989</v>
       </c>
       <c r="Q14">
-        <v>1.02004881499567</v>
+        <v>1.000495962772003</v>
       </c>
       <c r="R14">
-        <v>0.9872455769742828</v>
+        <v>0.9995281390628076</v>
       </c>
       <c r="S14">
-        <v>0.953321549318153</v>
+        <v>0.9970950145166548</v>
       </c>
       <c r="T14">
-        <v>0.9872455769742828</v>
+        <v>0.9995281390628076</v>
       </c>
       <c r="U14">
-        <v>0.9810679171092614</v>
+        <v>0.9991481419529473</v>
       </c>
       <c r="V14">
-        <v>0.9977157377839264</v>
+        <v>1.000380018414723</v>
       </c>
       <c r="W14">
-        <v>0.9867654922889715</v>
+        <v>0.9993287251645453</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9662610896331583</v>
+        <v>0.9965249397803573</v>
       </c>
       <c r="D15">
-        <v>0.9852570299017442</v>
+        <v>0.9994650083680818</v>
       </c>
       <c r="E15">
-        <v>1.044902067365519</v>
+        <v>1.001877471035126</v>
       </c>
       <c r="F15">
-        <v>0.9944190829467452</v>
+        <v>1.001078792176916</v>
       </c>
       <c r="G15">
-        <v>0.9662610896331583</v>
+        <v>0.9965249397803573</v>
       </c>
       <c r="H15">
-        <v>0.9927817933959902</v>
+        <v>0.9992888711753916</v>
       </c>
       <c r="I15">
-        <v>1.010402504950289</v>
+        <v>1.001294892220408</v>
       </c>
       <c r="J15">
-        <v>1.044902067365519</v>
+        <v>1.001877471035126</v>
       </c>
       <c r="K15">
-        <v>1.044902067365519</v>
+        <v>1.001877471035126</v>
       </c>
       <c r="L15">
-        <v>0.9764671976892316</v>
+        <v>0.9977986877468767</v>
       </c>
       <c r="M15">
-        <v>1.015907787121873</v>
+        <v>1.000743850888042</v>
       </c>
       <c r="N15">
-        <v>1.044902067365519</v>
+        <v>1.001877471035126</v>
       </c>
       <c r="O15">
-        <v>0.9944190829467452</v>
+        <v>1.001078792176916</v>
       </c>
       <c r="P15">
-        <v>0.9803400862899517</v>
+        <v>0.9988018659786367</v>
       </c>
       <c r="Q15">
-        <v>0.9936004381713677</v>
+        <v>1.000183831676154</v>
       </c>
       <c r="R15">
-        <v>1.001860746648474</v>
+        <v>0.9998270676641333</v>
       </c>
       <c r="S15">
-        <v>0.9844873219919646</v>
+        <v>0.9989642010442217</v>
       </c>
       <c r="T15">
-        <v>1.001860746648474</v>
+        <v>0.9998270676641333</v>
       </c>
       <c r="U15">
-        <v>0.9995910083353531</v>
+        <v>0.9996925185419478</v>
       </c>
       <c r="V15">
-        <v>1.008653220141386</v>
+        <v>1.000129509040584</v>
       </c>
       <c r="W15">
-        <v>0.9982998191255688</v>
+        <v>0.9997590641739</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9325691084577036</v>
+        <v>0.9933118002015141</v>
       </c>
       <c r="D16">
-        <v>0.9893208070647319</v>
+        <v>0.9989545941088636</v>
       </c>
       <c r="E16">
-        <v>1.037246747792882</v>
+        <v>1.003656699377196</v>
       </c>
       <c r="F16">
-        <v>1.02056034184342</v>
+        <v>1.002055321614524</v>
       </c>
       <c r="G16">
-        <v>0.9325691084577036</v>
+        <v>0.9933118002015141</v>
       </c>
       <c r="H16">
-        <v>0.986125285393639</v>
+        <v>0.9986279843641259</v>
       </c>
       <c r="I16">
-        <v>1.025126907532542</v>
+        <v>1.002491542764299</v>
       </c>
       <c r="J16">
-        <v>1.037246747792882</v>
+        <v>1.003656699377196</v>
       </c>
       <c r="K16">
-        <v>1.037246747792882</v>
+        <v>1.003656699377196</v>
       </c>
       <c r="L16">
-        <v>0.9571699879989656</v>
+        <v>0.9957576747887865</v>
       </c>
       <c r="M16">
-        <v>1.014660117363333</v>
+        <v>1.001444029846168</v>
       </c>
       <c r="N16">
-        <v>1.037246747792882</v>
+        <v>1.003656699377196</v>
       </c>
       <c r="O16">
-        <v>1.02056034184342</v>
+        <v>1.002055321614524</v>
       </c>
       <c r="P16">
-        <v>0.9765647251505618</v>
+        <v>0.997683560908019</v>
       </c>
       <c r="Q16">
-        <v>1.003342813618529</v>
+        <v>1.000341652989325</v>
       </c>
       <c r="R16">
-        <v>0.9967920660313352</v>
+        <v>0.9996746070644115</v>
       </c>
       <c r="S16">
-        <v>0.9797515785649208</v>
+        <v>0.9979983687267214</v>
       </c>
       <c r="T16">
-        <v>0.9967920660313352</v>
+        <v>0.9996746070644115</v>
       </c>
       <c r="U16">
-        <v>0.9941253708719111</v>
+        <v>0.9994129513893402</v>
       </c>
       <c r="V16">
-        <v>1.002749646256105</v>
+        <v>1.000261700986911</v>
       </c>
       <c r="W16">
-        <v>0.9953474129309021</v>
+        <v>0.9995374558831847</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9456313971562357</v>
+        <v>0.9871696325034197</v>
       </c>
       <c r="D17">
-        <v>0.9905966687998862</v>
+        <v>0.9980033800987245</v>
       </c>
       <c r="E17">
-        <v>1.032231672745301</v>
+        <v>1.006991218838297</v>
       </c>
       <c r="F17">
-        <v>1.015355492180287</v>
+        <v>1.003949716900514</v>
       </c>
       <c r="G17">
-        <v>0.9456313971562357</v>
+        <v>0.9871696325034197</v>
       </c>
       <c r="H17">
-        <v>0.9887299264659415</v>
+        <v>0.9973723755282361</v>
       </c>
       <c r="I17">
-        <v>1.020138364812574</v>
+        <v>1.004777434683475</v>
       </c>
       <c r="J17">
-        <v>1.032231672745301</v>
+        <v>1.006991218838297</v>
       </c>
       <c r="K17">
-        <v>1.032231672745301</v>
+        <v>1.006991218838297</v>
       </c>
       <c r="L17">
-        <v>0.9652460000144524</v>
+        <v>0.9918666761541209</v>
       </c>
       <c r="M17">
-        <v>1.012502611076579</v>
+        <v>1.002764921924352</v>
       </c>
       <c r="N17">
-        <v>1.032231672745301</v>
+        <v>1.006991218838297</v>
       </c>
       <c r="O17">
-        <v>1.015355492180287</v>
+        <v>1.003949716900514</v>
       </c>
       <c r="P17">
-        <v>0.9804934446682614</v>
+        <v>0.9955596747019668</v>
       </c>
       <c r="Q17">
-        <v>1.002042709323114</v>
+        <v>1.000661046214375</v>
       </c>
       <c r="R17">
-        <v>0.9977395206939411</v>
+        <v>0.9993701894140771</v>
       </c>
       <c r="S17">
-        <v>0.9832389386008215</v>
+        <v>0.9961639083107232</v>
       </c>
       <c r="T17">
-        <v>0.9977395206939411</v>
+        <v>0.9993701894140771</v>
       </c>
       <c r="U17">
-        <v>0.9954871221369412</v>
+        <v>0.9988707359426168</v>
       </c>
       <c r="V17">
-        <v>1.002836032258613</v>
+        <v>1.000494832521753</v>
       </c>
       <c r="W17">
-        <v>0.996304016656407</v>
+        <v>0.9991119195788924</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9716181339315784</v>
+        <v>0.9811834311250328</v>
       </c>
       <c r="D18">
-        <v>0.9931198340849575</v>
+        <v>0.9970702238746195</v>
       </c>
       <c r="E18">
-        <v>1.022295617242084</v>
+        <v>1.010257660723159</v>
       </c>
       <c r="F18">
-        <v>1.00498286517041</v>
+        <v>1.005788908173664</v>
       </c>
       <c r="G18">
-        <v>0.9716181339315784</v>
+        <v>0.9811834311250328</v>
       </c>
       <c r="H18">
-        <v>0.993907360849655</v>
+        <v>0.996146839567153</v>
       </c>
       <c r="I18">
-        <v>1.010214494414789</v>
+        <v>1.007005557217794</v>
       </c>
       <c r="J18">
-        <v>1.022295617242084</v>
+        <v>1.010257660723159</v>
       </c>
       <c r="K18">
-        <v>1.022295617242084</v>
+        <v>1.010257660723159</v>
       </c>
       <c r="L18">
-        <v>0.9813065826579439</v>
+        <v>0.9880719356746062</v>
       </c>
       <c r="M18">
-        <v>1.00822146455549</v>
+        <v>1.004056713842406</v>
       </c>
       <c r="N18">
-        <v>1.022295617242084</v>
+        <v>1.010257660723159</v>
       </c>
       <c r="O18">
-        <v>1.00498286517041</v>
+        <v>1.005788908173664</v>
       </c>
       <c r="P18">
-        <v>0.9883004995509943</v>
+        <v>0.9934861696493482</v>
       </c>
       <c r="Q18">
-        <v>0.9994451130100326</v>
+        <v>1.000967873870408</v>
       </c>
       <c r="R18">
-        <v>0.9996322054480241</v>
+        <v>0.999076666673952</v>
       </c>
       <c r="S18">
-        <v>0.9901694533172146</v>
+        <v>0.9943730596219499</v>
       </c>
       <c r="T18">
-        <v>0.9996322054480241</v>
+        <v>0.999076666673952</v>
       </c>
       <c r="U18">
-        <v>0.9982009942984319</v>
+        <v>0.9983442098972523</v>
       </c>
       <c r="V18">
-        <v>1.003019918887162</v>
+        <v>1.000726900062434</v>
       </c>
       <c r="W18">
-        <v>0.9982082941133634</v>
+        <v>0.9986976587748043</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9696545809878773</v>
+        <v>0.9997149891480102</v>
       </c>
       <c r="D19">
-        <v>0.9924200994485826</v>
+        <v>0.999925070392585</v>
       </c>
       <c r="E19">
-        <v>1.024484848940234</v>
+        <v>1.000240157850922</v>
       </c>
       <c r="F19">
-        <v>1.004786364554123</v>
+        <v>1.000040532685259</v>
       </c>
       <c r="G19">
-        <v>0.9696545809878773</v>
+        <v>0.9997149891480102</v>
       </c>
       <c r="H19">
-        <v>0.9935632687260586</v>
+        <v>0.9999384687558509</v>
       </c>
       <c r="I19">
-        <v>1.010782595578116</v>
+        <v>1.000101414094616</v>
       </c>
       <c r="J19">
-        <v>1.024484848940234</v>
+        <v>1.000240157850922</v>
       </c>
       <c r="K19">
-        <v>1.024484848940234</v>
+        <v>1.000240157850922</v>
       </c>
       <c r="L19">
-        <v>0.9800241697767401</v>
+        <v>0.9998108407841123</v>
       </c>
       <c r="M19">
-        <v>1.009051505422695</v>
+        <v>1.000087760843136</v>
       </c>
       <c r="N19">
-        <v>1.024484848940234</v>
+        <v>1.000240157850922</v>
       </c>
       <c r="O19">
-        <v>1.004786364554123</v>
+        <v>1.000040532685259</v>
       </c>
       <c r="P19">
-        <v>0.9872204727710001</v>
+        <v>0.9998777609166344</v>
       </c>
       <c r="Q19">
-        <v>0.9991748166400909</v>
+        <v>0.9999895007205548</v>
       </c>
       <c r="R19">
-        <v>0.9996419314940782</v>
+        <v>0.9999985598947303</v>
       </c>
       <c r="S19">
-        <v>0.989334738089353</v>
+        <v>0.9998979968630399</v>
       </c>
       <c r="T19">
-        <v>0.9996419314940782</v>
+        <v>0.9999985598947303</v>
       </c>
       <c r="U19">
-        <v>0.9981222658020733</v>
+        <v>0.9999835371100104</v>
       </c>
       <c r="V19">
-        <v>1.003394782429706</v>
+        <v>1.000034861258193</v>
       </c>
       <c r="W19">
-        <v>0.9980959291793035</v>
+        <v>0.9999824043193115</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999155400096631</v>
+        <v>0.9991509705420071</v>
       </c>
       <c r="D20">
-        <v>1.000047076570801</v>
+        <v>0.9997748975312105</v>
       </c>
       <c r="E20">
-        <v>0.9998779639791868</v>
+        <v>1.000720434021072</v>
       </c>
       <c r="F20">
-        <v>1.000125985338641</v>
+        <v>1.000119650485361</v>
       </c>
       <c r="G20">
-        <v>0.9999155400096631</v>
+        <v>0.9991509705420071</v>
       </c>
       <c r="H20">
-        <v>0.9999853356222279</v>
+        <v>0.9998155617413556</v>
       </c>
       <c r="I20">
-        <v>1.000044459043534</v>
+        <v>1.000302784025368</v>
       </c>
       <c r="J20">
-        <v>0.9998779639791868</v>
+        <v>1.000720434021072</v>
       </c>
       <c r="K20">
-        <v>0.9998779639791868</v>
+        <v>1.000720434021072</v>
       </c>
       <c r="L20">
-        <v>0.9999605543758396</v>
+        <v>0.9994353059576877</v>
       </c>
       <c r="M20">
-        <v>0.9999638647975629</v>
+        <v>1.000262427372802</v>
       </c>
       <c r="N20">
-        <v>0.9998779639791868</v>
+        <v>1.000720434021072</v>
       </c>
       <c r="O20">
-        <v>1.000125985338641</v>
+        <v>1.000119650485361</v>
       </c>
       <c r="P20">
-        <v>1.000020762674152</v>
+        <v>0.9996353105136841</v>
       </c>
       <c r="Q20">
-        <v>1.000055660480435</v>
+        <v>0.9999676061133583</v>
       </c>
       <c r="R20">
-        <v>0.9999731631091638</v>
+        <v>0.9999970183494801</v>
       </c>
       <c r="S20">
-        <v>1.000008953656844</v>
+        <v>0.9996953942562413</v>
       </c>
       <c r="T20">
-        <v>0.9999731631091638</v>
+        <v>0.9999970183494801</v>
       </c>
       <c r="U20">
-        <v>0.9999762062374299</v>
+        <v>0.9999516541974489</v>
       </c>
       <c r="V20">
-        <v>0.9999565577857812</v>
+        <v>1.000105410162174</v>
       </c>
       <c r="W20">
-        <v>0.999990097467182</v>
+        <v>0.9999477539596081</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.999845010836897</v>
+        <v>0.9986608908060839</v>
       </c>
       <c r="D21">
-        <v>0.9998494753024121</v>
+        <v>0.9996352482885879</v>
       </c>
       <c r="E21">
-        <v>1.000436828779909</v>
+        <v>1.001162636076085</v>
       </c>
       <c r="F21">
-        <v>0.9998406829820399</v>
+        <v>1.000178377782507</v>
       </c>
       <c r="G21">
-        <v>0.999845010836897</v>
+        <v>0.9986608908060839</v>
       </c>
       <c r="H21">
-        <v>0.9999612805841827</v>
+        <v>0.9997056987113901</v>
       </c>
       <c r="I21">
-        <v>1.000031917555176</v>
+        <v>1.000478537818114</v>
       </c>
       <c r="J21">
-        <v>1.000436828779909</v>
+        <v>1.001162636076085</v>
       </c>
       <c r="K21">
-        <v>1.000436828779909</v>
+        <v>1.001162636076085</v>
       </c>
       <c r="L21">
-        <v>0.9998710975214894</v>
+        <v>0.9991049209388092</v>
       </c>
       <c r="M21">
-        <v>1.000146456137585</v>
+        <v>1.000420647136757</v>
       </c>
       <c r="N21">
-        <v>1.000436828779909</v>
+        <v>1.001162636076085</v>
       </c>
       <c r="O21">
-        <v>0.9998406829820399</v>
+        <v>1.000178377782507</v>
       </c>
       <c r="P21">
-        <v>0.9998428469094685</v>
+        <v>0.9994196342942954</v>
       </c>
       <c r="Q21">
-        <v>0.9999009817831113</v>
+        <v>0.9999420382469485</v>
       </c>
       <c r="R21">
-        <v>1.000040840866282</v>
+        <v>1.000000634888225</v>
       </c>
       <c r="S21">
-        <v>0.9998823248010398</v>
+        <v>0.9995149890999936</v>
       </c>
       <c r="T21">
-        <v>1.000040840866282</v>
+        <v>1.000000634888225</v>
       </c>
       <c r="U21">
-        <v>1.000020950795757</v>
+        <v>0.9999269008440164</v>
       </c>
       <c r="V21">
-        <v>1.000104126392588</v>
+        <v>1.00017404789043</v>
       </c>
       <c r="W21">
-        <v>0.9999978437124615</v>
+        <v>0.9999183696947916</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9986929981470891</v>
+        <v>0.9972424849351729</v>
       </c>
       <c r="D22">
-        <v>1.000002360636614</v>
+        <v>0.9992650943169916</v>
       </c>
       <c r="E22">
-        <v>1.000137842074254</v>
+        <v>1.00234987005891</v>
       </c>
       <c r="F22">
-        <v>1.000745093564429</v>
+        <v>1.000387022805093</v>
       </c>
       <c r="G22">
-        <v>0.9986929981470891</v>
+        <v>0.9972424849351729</v>
       </c>
       <c r="H22">
-        <v>0.9997407367983574</v>
+        <v>0.999398364714685</v>
       </c>
       <c r="I22">
-        <v>1.000531715755564</v>
+        <v>1.000985092461675</v>
       </c>
       <c r="J22">
-        <v>1.000137842074254</v>
+        <v>1.00234987005891</v>
       </c>
       <c r="K22">
-        <v>1.000137842074254</v>
+        <v>1.00234987005891</v>
       </c>
       <c r="L22">
-        <v>0.9992192195223716</v>
+        <v>0.9981633104225268</v>
       </c>
       <c r="M22">
-        <v>1.000095618026563</v>
+        <v>1.000854104466089</v>
       </c>
       <c r="N22">
-        <v>1.000137842074254</v>
+        <v>1.00234987005891</v>
       </c>
       <c r="O22">
-        <v>1.000745093564429</v>
+        <v>1.000387022805093</v>
       </c>
       <c r="P22">
-        <v>0.999719045855759</v>
+        <v>0.9988147538701327</v>
       </c>
       <c r="Q22">
-        <v>1.000242915181393</v>
+        <v>0.9998926937598889</v>
       </c>
       <c r="R22">
-        <v>0.9998586445952574</v>
+        <v>0.9999931259330582</v>
       </c>
       <c r="S22">
-        <v>0.9997262761699585</v>
+        <v>0.9990092908183169</v>
       </c>
       <c r="T22">
-        <v>0.9998586445952574</v>
+        <v>0.9999931259330582</v>
       </c>
       <c r="U22">
-        <v>0.9998291676460325</v>
+        <v>0.9998444356284649</v>
       </c>
       <c r="V22">
-        <v>0.9998909025316769</v>
+        <v>1.000345522514554</v>
       </c>
       <c r="W22">
-        <v>0.9998956980656554</v>
+        <v>0.9998306680226429</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9950825199438512</v>
+      </c>
+      <c r="D23">
+        <v>0.998644170758648</v>
+      </c>
+      <c r="E23">
+        <v>1.004315045116978</v>
+      </c>
+      <c r="F23">
+        <v>1.000628856834206</v>
+      </c>
+      <c r="G23">
+        <v>0.9950825199438512</v>
+      </c>
+      <c r="H23">
+        <v>0.9989180115243492</v>
+      </c>
+      <c r="I23">
+        <v>1.001754289743498</v>
+      </c>
+      <c r="J23">
+        <v>1.004315045116978</v>
+      </c>
+      <c r="K23">
+        <v>1.004315045116978</v>
+      </c>
+      <c r="L23">
+        <v>0.9967088762762576</v>
+      </c>
+      <c r="M23">
+        <v>1.001559130495685</v>
+      </c>
+      <c r="N23">
+        <v>1.004315045116978</v>
+      </c>
+      <c r="O23">
+        <v>1.000628856834206</v>
+      </c>
+      <c r="P23">
+        <v>0.9978556883890284</v>
+      </c>
+      <c r="Q23">
+        <v>0.9997734341792774</v>
+      </c>
+      <c r="R23">
+        <v>1.000008807298345</v>
+      </c>
+      <c r="S23">
+        <v>0.998209796100802</v>
+      </c>
+      <c r="T23">
+        <v>1.000008807298345</v>
+      </c>
+      <c r="U23">
+        <v>0.9997361083548459</v>
+      </c>
+      <c r="V23">
+        <v>1.000651895707272</v>
+      </c>
+      <c r="W23">
+        <v>0.9997013625866841</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.049916448254755</v>
+      </c>
+      <c r="D24">
+        <v>1.010926150135212</v>
+      </c>
+      <c r="E24">
+        <v>0.9642540936251951</v>
+      </c>
+      <c r="F24">
+        <v>0.9878492213880913</v>
+      </c>
+      <c r="G24">
+        <v>1.049916448254755</v>
+      </c>
+      <c r="H24">
+        <v>1.011402441526143</v>
+      </c>
+      <c r="I24">
+        <v>0.9810174755754272</v>
+      </c>
+      <c r="J24">
+        <v>0.9642540936251951</v>
+      </c>
+      <c r="K24">
+        <v>0.9642540936251951</v>
+      </c>
+      <c r="L24">
+        <v>1.033137552110158</v>
+      </c>
+      <c r="M24">
+        <v>0.9871029092539747</v>
+      </c>
+      <c r="N24">
+        <v>0.9642540936251951</v>
+      </c>
+      <c r="O24">
+        <v>0.9878492213880913</v>
+      </c>
+      <c r="P24">
+        <v>1.018882834821423</v>
+      </c>
+      <c r="Q24">
+        <v>0.9996258314571174</v>
+      </c>
+      <c r="R24">
+        <v>1.00067325442268</v>
+      </c>
+      <c r="S24">
+        <v>1.016389370389663</v>
+      </c>
+      <c r="T24">
+        <v>1.00067325442268</v>
+      </c>
+      <c r="U24">
+        <v>1.003355551198546</v>
+      </c>
+      <c r="V24">
+        <v>0.9955352596838759</v>
+      </c>
+      <c r="W24">
+        <v>1.00320078648362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.014606008043508</v>
+      </c>
+      <c r="D25">
+        <v>1.002239997021678</v>
+      </c>
+      <c r="E25">
+        <v>0.9919709910869762</v>
+      </c>
+      <c r="F25">
+        <v>0.9966806367573557</v>
+      </c>
+      <c r="G25">
+        <v>1.014606008043508</v>
+      </c>
+      <c r="H25">
+        <v>1.002357225035031</v>
+      </c>
+      <c r="I25">
+        <v>0.9952090615728051</v>
+      </c>
+      <c r="J25">
+        <v>0.9919709910869762</v>
+      </c>
+      <c r="K25">
+        <v>0.9919709910869762</v>
+      </c>
+      <c r="L25">
+        <v>1.008792353710054</v>
+      </c>
+      <c r="M25">
+        <v>0.9964513261108698</v>
+      </c>
+      <c r="N25">
+        <v>0.9919709910869762</v>
+      </c>
+      <c r="O25">
+        <v>0.9966806367573557</v>
+      </c>
+      <c r="P25">
+        <v>1.005643322400432</v>
+      </c>
+      <c r="Q25">
+        <v>0.9995189308961935</v>
+      </c>
+      <c r="R25">
+        <v>1.00108587862928</v>
+      </c>
+      <c r="S25">
+        <v>1.004547956611965</v>
+      </c>
+      <c r="T25">
+        <v>1.00108587862928</v>
+      </c>
+      <c r="U25">
+        <v>1.001403715230718</v>
+      </c>
+      <c r="V25">
+        <v>0.9995171704019695</v>
+      </c>
+      <c r="W25">
+        <v>1.001038449917285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.8198670179631188</v>
+      </c>
+      <c r="D26">
+        <v>0.9839957928921003</v>
+      </c>
+      <c r="E26">
+        <v>1.064307020482586</v>
+      </c>
+      <c r="F26">
+        <v>1.077562692477143</v>
+      </c>
+      <c r="G26">
+        <v>0.8198670179631188</v>
+      </c>
+      <c r="H26">
+        <v>0.9625349375141971</v>
+      </c>
+      <c r="I26">
+        <v>1.070809382430403</v>
+      </c>
+      <c r="J26">
+        <v>1.064307020482586</v>
+      </c>
+      <c r="K26">
+        <v>1.064307020482586</v>
+      </c>
+      <c r="L26">
+        <v>0.8878296979530805</v>
+      </c>
+      <c r="M26">
+        <v>1.027217396599143</v>
+      </c>
+      <c r="N26">
+        <v>1.064307020482586</v>
+      </c>
+      <c r="O26">
+        <v>1.077562692477143</v>
+      </c>
+      <c r="P26">
+        <v>0.948714855220131</v>
+      </c>
+      <c r="Q26">
+        <v>1.02004881499567</v>
+      </c>
+      <c r="R26">
+        <v>0.9872455769742828</v>
+      </c>
+      <c r="S26">
+        <v>0.953321549318153</v>
+      </c>
+      <c r="T26">
+        <v>0.9872455769742828</v>
+      </c>
+      <c r="U26">
+        <v>0.9810679171092614</v>
+      </c>
+      <c r="V26">
+        <v>0.9977157377839264</v>
+      </c>
+      <c r="W26">
+        <v>0.9867654922889715</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9662610896331583</v>
+      </c>
+      <c r="D27">
+        <v>0.9852570299017442</v>
+      </c>
+      <c r="E27">
+        <v>1.044902067365519</v>
+      </c>
+      <c r="F27">
+        <v>0.9944190829467452</v>
+      </c>
+      <c r="G27">
+        <v>0.9662610896331583</v>
+      </c>
+      <c r="H27">
+        <v>0.9927817933959902</v>
+      </c>
+      <c r="I27">
+        <v>1.010402504950289</v>
+      </c>
+      <c r="J27">
+        <v>1.044902067365519</v>
+      </c>
+      <c r="K27">
+        <v>1.044902067365519</v>
+      </c>
+      <c r="L27">
+        <v>0.9764671976892316</v>
+      </c>
+      <c r="M27">
+        <v>1.015907787121873</v>
+      </c>
+      <c r="N27">
+        <v>1.044902067365519</v>
+      </c>
+      <c r="O27">
+        <v>0.9944190829467452</v>
+      </c>
+      <c r="P27">
+        <v>0.9803400862899517</v>
+      </c>
+      <c r="Q27">
+        <v>0.9936004381713677</v>
+      </c>
+      <c r="R27">
+        <v>1.001860746648474</v>
+      </c>
+      <c r="S27">
+        <v>0.9844873219919646</v>
+      </c>
+      <c r="T27">
+        <v>1.001860746648474</v>
+      </c>
+      <c r="U27">
+        <v>0.9995910083353531</v>
+      </c>
+      <c r="V27">
+        <v>1.008653220141386</v>
+      </c>
+      <c r="W27">
+        <v>0.9982998191255688</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9325691084577036</v>
+      </c>
+      <c r="D28">
+        <v>0.9893208070647319</v>
+      </c>
+      <c r="E28">
+        <v>1.037246747792882</v>
+      </c>
+      <c r="F28">
+        <v>1.02056034184342</v>
+      </c>
+      <c r="G28">
+        <v>0.9325691084577036</v>
+      </c>
+      <c r="H28">
+        <v>0.986125285393639</v>
+      </c>
+      <c r="I28">
+        <v>1.025126907532542</v>
+      </c>
+      <c r="J28">
+        <v>1.037246747792882</v>
+      </c>
+      <c r="K28">
+        <v>1.037246747792882</v>
+      </c>
+      <c r="L28">
+        <v>0.9571699879989656</v>
+      </c>
+      <c r="M28">
+        <v>1.014660117363333</v>
+      </c>
+      <c r="N28">
+        <v>1.037246747792882</v>
+      </c>
+      <c r="O28">
+        <v>1.02056034184342</v>
+      </c>
+      <c r="P28">
+        <v>0.9765647251505618</v>
+      </c>
+      <c r="Q28">
+        <v>1.003342813618529</v>
+      </c>
+      <c r="R28">
+        <v>0.9967920660313352</v>
+      </c>
+      <c r="S28">
+        <v>0.9797515785649208</v>
+      </c>
+      <c r="T28">
+        <v>0.9967920660313352</v>
+      </c>
+      <c r="U28">
+        <v>0.9941253708719111</v>
+      </c>
+      <c r="V28">
+        <v>1.002749646256105</v>
+      </c>
+      <c r="W28">
+        <v>0.9953474129309021</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9456313971562357</v>
+      </c>
+      <c r="D29">
+        <v>0.9905966687998862</v>
+      </c>
+      <c r="E29">
+        <v>1.032231672745301</v>
+      </c>
+      <c r="F29">
+        <v>1.015355492180287</v>
+      </c>
+      <c r="G29">
+        <v>0.9456313971562357</v>
+      </c>
+      <c r="H29">
+        <v>0.9887299264659415</v>
+      </c>
+      <c r="I29">
+        <v>1.020138364812574</v>
+      </c>
+      <c r="J29">
+        <v>1.032231672745301</v>
+      </c>
+      <c r="K29">
+        <v>1.032231672745301</v>
+      </c>
+      <c r="L29">
+        <v>0.9652460000144524</v>
+      </c>
+      <c r="M29">
+        <v>1.012502611076579</v>
+      </c>
+      <c r="N29">
+        <v>1.032231672745301</v>
+      </c>
+      <c r="O29">
+        <v>1.015355492180287</v>
+      </c>
+      <c r="P29">
+        <v>0.9804934446682614</v>
+      </c>
+      <c r="Q29">
+        <v>1.002042709323114</v>
+      </c>
+      <c r="R29">
+        <v>0.9977395206939411</v>
+      </c>
+      <c r="S29">
+        <v>0.9832389386008215</v>
+      </c>
+      <c r="T29">
+        <v>0.9977395206939411</v>
+      </c>
+      <c r="U29">
+        <v>0.9954871221369412</v>
+      </c>
+      <c r="V29">
+        <v>1.002836032258613</v>
+      </c>
+      <c r="W29">
+        <v>0.996304016656407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9716181339315784</v>
+      </c>
+      <c r="D30">
+        <v>0.9931198340849575</v>
+      </c>
+      <c r="E30">
+        <v>1.022295617242084</v>
+      </c>
+      <c r="F30">
+        <v>1.00498286517041</v>
+      </c>
+      <c r="G30">
+        <v>0.9716181339315784</v>
+      </c>
+      <c r="H30">
+        <v>0.993907360849655</v>
+      </c>
+      <c r="I30">
+        <v>1.010214494414789</v>
+      </c>
+      <c r="J30">
+        <v>1.022295617242084</v>
+      </c>
+      <c r="K30">
+        <v>1.022295617242084</v>
+      </c>
+      <c r="L30">
+        <v>0.9813065826579439</v>
+      </c>
+      <c r="M30">
+        <v>1.00822146455549</v>
+      </c>
+      <c r="N30">
+        <v>1.022295617242084</v>
+      </c>
+      <c r="O30">
+        <v>1.00498286517041</v>
+      </c>
+      <c r="P30">
+        <v>0.9883004995509943</v>
+      </c>
+      <c r="Q30">
+        <v>0.9994451130100326</v>
+      </c>
+      <c r="R30">
+        <v>0.9996322054480241</v>
+      </c>
+      <c r="S30">
+        <v>0.9901694533172146</v>
+      </c>
+      <c r="T30">
+        <v>0.9996322054480241</v>
+      </c>
+      <c r="U30">
+        <v>0.9982009942984319</v>
+      </c>
+      <c r="V30">
+        <v>1.003019918887162</v>
+      </c>
+      <c r="W30">
+        <v>0.9982082941133634</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9696545809878773</v>
+      </c>
+      <c r="D31">
+        <v>0.9924200994485826</v>
+      </c>
+      <c r="E31">
+        <v>1.024484848940234</v>
+      </c>
+      <c r="F31">
+        <v>1.004786364554123</v>
+      </c>
+      <c r="G31">
+        <v>0.9696545809878773</v>
+      </c>
+      <c r="H31">
+        <v>0.9935632687260586</v>
+      </c>
+      <c r="I31">
+        <v>1.010782595578116</v>
+      </c>
+      <c r="J31">
+        <v>1.024484848940234</v>
+      </c>
+      <c r="K31">
+        <v>1.024484848940234</v>
+      </c>
+      <c r="L31">
+        <v>0.9800241697767401</v>
+      </c>
+      <c r="M31">
+        <v>1.009051505422695</v>
+      </c>
+      <c r="N31">
+        <v>1.024484848940234</v>
+      </c>
+      <c r="O31">
+        <v>1.004786364554123</v>
+      </c>
+      <c r="P31">
+        <v>0.9872204727710001</v>
+      </c>
+      <c r="Q31">
+        <v>0.9991748166400909</v>
+      </c>
+      <c r="R31">
+        <v>0.9996419314940782</v>
+      </c>
+      <c r="S31">
+        <v>0.989334738089353</v>
+      </c>
+      <c r="T31">
+        <v>0.9996419314940782</v>
+      </c>
+      <c r="U31">
+        <v>0.9981222658020733</v>
+      </c>
+      <c r="V31">
+        <v>1.003394782429706</v>
+      </c>
+      <c r="W31">
+        <v>0.9980959291793035</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9137595446575346</v>
+      </c>
+      <c r="D32">
+        <v>0.9862247778082193</v>
+      </c>
+      <c r="E32">
+        <v>1.047950994246576</v>
+      </c>
+      <c r="F32">
+        <v>1.026195299726027</v>
+      </c>
+      <c r="G32">
+        <v>0.9137595446575346</v>
+      </c>
+      <c r="H32">
+        <v>0.9822015019178081</v>
+      </c>
+      <c r="I32">
+        <v>1.032160722191781</v>
+      </c>
+      <c r="J32">
+        <v>1.047950994246576</v>
+      </c>
+      <c r="K32">
+        <v>1.047950994246576</v>
+      </c>
+      <c r="L32">
+        <v>0.9451602338356162</v>
+      </c>
+      <c r="M32">
+        <v>1.018822219178082</v>
+      </c>
+      <c r="N32">
+        <v>1.047950994246576</v>
+      </c>
+      <c r="O32">
+        <v>1.026195299726027</v>
+      </c>
+      <c r="P32">
+        <v>0.969977422191781</v>
+      </c>
+      <c r="Q32">
+        <v>1.004198400821918</v>
+      </c>
+      <c r="R32">
+        <v>0.9959686128767125</v>
+      </c>
+      <c r="S32">
+        <v>0.97405211543379</v>
+      </c>
+      <c r="T32">
+        <v>0.9959686128767125</v>
+      </c>
+      <c r="U32">
+        <v>0.9925268351369864</v>
+      </c>
+      <c r="V32">
+        <v>1.003611666958904</v>
+      </c>
+      <c r="W32">
+        <v>0.9940594116952055</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.7833150921052631</v>
+      </c>
+      <c r="D33">
+        <v>0.969950027368421</v>
+      </c>
+      <c r="E33">
+        <v>1.107467036842105</v>
+      </c>
+      <c r="F33">
+        <v>1.075548810526316</v>
+      </c>
+      <c r="G33">
+        <v>0.7833150921052631</v>
+      </c>
+      <c r="H33">
+        <v>0.9543707278947369</v>
+      </c>
+      <c r="I33">
+        <v>1.082938652631579</v>
+      </c>
+      <c r="J33">
+        <v>1.107467036842105</v>
+      </c>
+      <c r="K33">
+        <v>1.107467036842105</v>
+      </c>
+      <c r="L33">
+        <v>0.862475142631579</v>
+      </c>
+      <c r="M33">
+        <v>1.042421663157895</v>
+      </c>
+      <c r="N33">
+        <v>1.107467036842105</v>
+      </c>
+      <c r="O33">
+        <v>1.075548810526316</v>
+      </c>
+      <c r="P33">
+        <v>0.9294319513157894</v>
+      </c>
+      <c r="Q33">
+        <v>1.014959769210526</v>
+      </c>
+      <c r="R33">
+        <v>0.9887769798245613</v>
+      </c>
+      <c r="S33">
+        <v>0.9377448768421052</v>
+      </c>
+      <c r="T33">
+        <v>0.9887769798245615</v>
+      </c>
+      <c r="U33">
+        <v>0.9801754168421053</v>
+      </c>
+      <c r="V33">
+        <v>1.005633740842105</v>
+      </c>
+      <c r="W33">
+        <v>0.9848108941447369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9244845721052631</v>
+      </c>
+      <c r="D34">
+        <v>0.9714682210526315</v>
+      </c>
+      <c r="E34">
+        <v>1.087502249473684</v>
+      </c>
+      <c r="F34">
+        <v>0.9989846957894736</v>
+      </c>
+      <c r="G34">
+        <v>0.9244845721052631</v>
+      </c>
+      <c r="H34">
+        <v>0.9819534868421053</v>
+      </c>
+      <c r="I34">
+        <v>1.026406600526316</v>
+      </c>
+      <c r="J34">
+        <v>1.087502249473684</v>
+      </c>
+      <c r="K34">
+        <v>1.087502249473684</v>
+      </c>
+      <c r="L34">
+        <v>0.9468610831578949</v>
+      </c>
+      <c r="M34">
+        <v>1.030155067894737</v>
+      </c>
+      <c r="N34">
+        <v>1.087502249473684</v>
+      </c>
+      <c r="O34">
+        <v>0.9989846957894736</v>
+      </c>
+      <c r="P34">
+        <v>0.9617346339473684</v>
+      </c>
+      <c r="Q34">
+        <v>0.9904690913157894</v>
+      </c>
+      <c r="R34">
+        <v>1.00365717245614</v>
+      </c>
+      <c r="S34">
+        <v>0.9684742515789474</v>
+      </c>
+      <c r="T34">
+        <v>1.00365717245614</v>
+      </c>
+      <c r="U34">
+        <v>0.9982312510526316</v>
+      </c>
+      <c r="V34">
+        <v>1.016085450736842</v>
+      </c>
+      <c r="W34">
+        <v>0.9959769971052632</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.8915560279740632</v>
+      </c>
+      <c r="D35">
+        <v>0.9719428912133229</v>
+      </c>
+      <c r="E35">
+        <v>1.09020146170999</v>
+      </c>
+      <c r="F35">
+        <v>1.015522479869941</v>
+      </c>
+      <c r="G35">
+        <v>0.8915560279740632</v>
+      </c>
+      <c r="H35">
+        <v>0.976941243537903</v>
+      </c>
+      <c r="I35">
+        <v>1.038338131573848</v>
+      </c>
+      <c r="J35">
+        <v>1.09020146170999</v>
+      </c>
+      <c r="K35">
+        <v>1.09020146170999</v>
+      </c>
+      <c r="L35">
+        <v>0.9283764629849057</v>
+      </c>
+      <c r="M35">
+        <v>1.033212009445298</v>
+      </c>
+      <c r="N35">
+        <v>1.09020146170999</v>
+      </c>
+      <c r="O35">
+        <v>1.015522479869941</v>
+      </c>
+      <c r="P35">
+        <v>0.953539253922002</v>
+      </c>
+      <c r="Q35">
+        <v>0.996231861703922</v>
+      </c>
+      <c r="R35">
+        <v>0.9990933231846646</v>
+      </c>
+      <c r="S35">
+        <v>0.9613399171273024</v>
+      </c>
+      <c r="T35">
+        <v>0.9990933231846646</v>
+      </c>
+      <c r="U35">
+        <v>0.9935553032729743</v>
+      </c>
+      <c r="V35">
+        <v>1.012884534960377</v>
+      </c>
+      <c r="W35">
+        <v>0.9932613385386589</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999155400096631</v>
+      </c>
+      <c r="D36">
+        <v>1.000047076570801</v>
+      </c>
+      <c r="E36">
+        <v>0.9998779639791868</v>
+      </c>
+      <c r="F36">
+        <v>1.000125985338641</v>
+      </c>
+      <c r="G36">
+        <v>0.9999155400096631</v>
+      </c>
+      <c r="H36">
+        <v>0.9999853356222279</v>
+      </c>
+      <c r="I36">
+        <v>1.000044459043534</v>
+      </c>
+      <c r="J36">
+        <v>0.9998779639791868</v>
+      </c>
+      <c r="K36">
+        <v>0.9998779639791868</v>
+      </c>
+      <c r="L36">
+        <v>0.9999605543758396</v>
+      </c>
+      <c r="M36">
+        <v>0.9999638647975629</v>
+      </c>
+      <c r="N36">
+        <v>0.9998779639791868</v>
+      </c>
+      <c r="O36">
+        <v>1.000125985338641</v>
+      </c>
+      <c r="P36">
+        <v>1.000020762674152</v>
+      </c>
+      <c r="Q36">
+        <v>1.000055660480435</v>
+      </c>
+      <c r="R36">
+        <v>0.9999731631091638</v>
+      </c>
+      <c r="S36">
+        <v>1.000008953656844</v>
+      </c>
+      <c r="T36">
+        <v>0.9999731631091638</v>
+      </c>
+      <c r="U36">
+        <v>0.9999762062374299</v>
+      </c>
+      <c r="V36">
+        <v>0.9999565577857812</v>
+      </c>
+      <c r="W36">
+        <v>0.999990097467182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.999845010836897</v>
+      </c>
+      <c r="D37">
+        <v>0.9998494753024121</v>
+      </c>
+      <c r="E37">
+        <v>1.000436828779909</v>
+      </c>
+      <c r="F37">
+        <v>0.9998406829820399</v>
+      </c>
+      <c r="G37">
+        <v>0.999845010836897</v>
+      </c>
+      <c r="H37">
+        <v>0.9999612805841827</v>
+      </c>
+      <c r="I37">
+        <v>1.000031917555176</v>
+      </c>
+      <c r="J37">
+        <v>1.000436828779909</v>
+      </c>
+      <c r="K37">
+        <v>1.000436828779909</v>
+      </c>
+      <c r="L37">
+        <v>0.9998710975214894</v>
+      </c>
+      <c r="M37">
+        <v>1.000146456137585</v>
+      </c>
+      <c r="N37">
+        <v>1.000436828779909</v>
+      </c>
+      <c r="O37">
+        <v>0.9998406829820399</v>
+      </c>
+      <c r="P37">
+        <v>0.9998428469094685</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999009817831113</v>
+      </c>
+      <c r="R37">
+        <v>1.000040840866282</v>
+      </c>
+      <c r="S37">
+        <v>0.9998823248010398</v>
+      </c>
+      <c r="T37">
+        <v>1.000040840866282</v>
+      </c>
+      <c r="U37">
+        <v>1.000020950795757</v>
+      </c>
+      <c r="V37">
+        <v>1.000104126392588</v>
+      </c>
+      <c r="W37">
+        <v>0.9999978437124615</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9986929981470891</v>
+      </c>
+      <c r="D38">
+        <v>1.000002360636614</v>
+      </c>
+      <c r="E38">
+        <v>1.000137842074254</v>
+      </c>
+      <c r="F38">
+        <v>1.000745093564429</v>
+      </c>
+      <c r="G38">
+        <v>0.9986929981470891</v>
+      </c>
+      <c r="H38">
+        <v>0.9997407367983574</v>
+      </c>
+      <c r="I38">
+        <v>1.000531715755564</v>
+      </c>
+      <c r="J38">
+        <v>1.000137842074254</v>
+      </c>
+      <c r="K38">
+        <v>1.000137842074254</v>
+      </c>
+      <c r="L38">
+        <v>0.9992192195223716</v>
+      </c>
+      <c r="M38">
+        <v>1.000095618026563</v>
+      </c>
+      <c r="N38">
+        <v>1.000137842074254</v>
+      </c>
+      <c r="O38">
+        <v>1.000745093564429</v>
+      </c>
+      <c r="P38">
+        <v>0.999719045855759</v>
+      </c>
+      <c r="Q38">
+        <v>1.000242915181393</v>
+      </c>
+      <c r="R38">
+        <v>0.9998586445952574</v>
+      </c>
+      <c r="S38">
+        <v>0.9997262761699585</v>
+      </c>
+      <c r="T38">
+        <v>0.9998586445952574</v>
+      </c>
+      <c r="U38">
+        <v>0.9998291676460325</v>
+      </c>
+      <c r="V38">
+        <v>0.9998909025316769</v>
+      </c>
+      <c r="W38">
+        <v>0.9998956980656554</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9964618696980951</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000338136619026</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9994483033013463</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.002560754245643</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9964618696980951</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.999316273302983</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.001507290210313</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9994483033013463</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9994483033013463</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9979666716574275</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9999619850647878</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9994483033013463</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.002560754245643</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9995113119718688</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000938513774313</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9994903090816947</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9994462990822403</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9994903090816946</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9994468001370167</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>0.9994471007698825</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9996951605124527</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9638924101889923</v>
+      </c>
+      <c r="D40">
+        <v>0.9964795138815828</v>
+      </c>
+      <c r="E40">
+        <v>1.013753579463022</v>
+      </c>
+      <c r="F40">
+        <v>1.01509450863934</v>
+      </c>
+      <c r="G40">
+        <v>0.9638924101889923</v>
+      </c>
+      <c r="H40">
+        <v>0.9924426717331125</v>
+      </c>
+      <c r="I40">
+        <v>1.014161232109688</v>
+      </c>
+      <c r="J40">
+        <v>1.013753579463022</v>
+      </c>
+      <c r="K40">
+        <v>1.013753579463022</v>
+      </c>
+      <c r="L40">
+        <v>0.9774178242296347</v>
+      </c>
+      <c r="M40">
+        <v>1.005714589103779</v>
+      </c>
+      <c r="N40">
+        <v>1.013753579463022</v>
+      </c>
+      <c r="O40">
+        <v>1.01509450863934</v>
+      </c>
+      <c r="P40">
+        <v>0.9894934594141662</v>
+      </c>
+      <c r="Q40">
+        <v>1.003768590186226</v>
+      </c>
+      <c r="R40">
+        <v>0.9975801660971181</v>
+      </c>
+      <c r="S40">
+        <v>0.9904765301871482</v>
+      </c>
+      <c r="T40">
+        <v>0.9975801660971181</v>
+      </c>
+      <c r="U40">
+        <v>0.9962957925061167</v>
+      </c>
+      <c r="V40">
+        <v>0.9997873498974977</v>
+      </c>
+      <c r="W40">
+        <v>0.9973695411686438</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.050788386834018</v>
+      </c>
+      <c r="D41">
+        <v>1.008968689191192</v>
+      </c>
+      <c r="E41">
+        <v>0.9694374480605781</v>
+      </c>
+      <c r="F41">
+        <v>0.9854934382263688</v>
+      </c>
+      <c r="G41">
+        <v>1.050788386834018</v>
+      </c>
+      <c r="H41">
+        <v>1.010776726891904</v>
+      </c>
+      <c r="I41">
+        <v>0.9809784763362853</v>
+      </c>
+      <c r="J41">
+        <v>0.9694374480605781</v>
+      </c>
+      <c r="K41">
+        <v>0.9694374480605781</v>
+      </c>
+      <c r="L41">
+        <v>1.032683228745223</v>
+      </c>
+      <c r="M41">
+        <v>0.9883181043618541</v>
+      </c>
+      <c r="N41">
+        <v>0.9694374480605781</v>
+      </c>
+      <c r="O41">
+        <v>0.9854934382263688</v>
+      </c>
+      <c r="P41">
+        <v>1.018140912530193</v>
+      </c>
+      <c r="Q41">
+        <v>0.9981350825591366</v>
+      </c>
+      <c r="R41">
+        <v>1.001906424373655</v>
+      </c>
+      <c r="S41">
+        <v>1.015686183984097</v>
+      </c>
+      <c r="T41">
+        <v>1.001906424373655</v>
+      </c>
+      <c r="U41">
+        <v>1.004124000003217</v>
+      </c>
+      <c r="V41">
+        <v>0.9971866896146894</v>
+      </c>
+      <c r="W41">
+        <v>1.003430562330928</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9781822343227174</v>
+      </c>
+      <c r="D42">
+        <v>1.001843509915821</v>
+      </c>
+      <c r="E42">
+        <v>0.9972942637927089</v>
+      </c>
+      <c r="F42">
+        <v>1.015221791426375</v>
+      </c>
+      <c r="G42">
+        <v>0.9781822343227174</v>
+      </c>
+      <c r="H42">
+        <v>0.9958594744032657</v>
+      </c>
+      <c r="I42">
+        <v>1.009153217229369</v>
+      </c>
+      <c r="J42">
+        <v>0.9972942637927089</v>
+      </c>
+      <c r="K42">
+        <v>0.9972942637927089</v>
+      </c>
+      <c r="L42">
+        <v>0.9874675722048716</v>
+      </c>
+      <c r="M42">
+        <v>1.000042293153028</v>
+      </c>
+      <c r="N42">
+        <v>0.9972942637927089</v>
+      </c>
+      <c r="O42">
+        <v>1.015221791426375</v>
+      </c>
+      <c r="P42">
+        <v>0.9967020128745463</v>
+      </c>
+      <c r="Q42">
+        <v>1.00554063291482</v>
+      </c>
+      <c r="R42">
+        <v>0.9968994298472671</v>
+      </c>
+      <c r="S42">
+        <v>0.9964211667174528</v>
+      </c>
+      <c r="T42">
+        <v>0.9968994298472671</v>
+      </c>
+      <c r="U42">
+        <v>0.9966394409862668</v>
+      </c>
+      <c r="V42">
+        <v>0.9967704055475552</v>
+      </c>
+      <c r="W42">
+        <v>0.9981330445560197</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CopperA-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW30.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
+    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.001877471035126</v>
+        <v>0.9991509705420071</v>
       </c>
       <c r="D3">
-        <v>0.9965249397803573</v>
+        <v>0.9997748975312105</v>
       </c>
       <c r="E3">
-        <v>1.001078792176916</v>
+        <v>1.000720434021072</v>
       </c>
       <c r="F3">
-        <v>1.001877471035126</v>
+        <v>1.000119650485361</v>
       </c>
       <c r="G3">
-        <v>0.9992888711753916</v>
+        <v>0.9991509705420071</v>
       </c>
       <c r="H3">
-        <v>1.001294892220408</v>
+        <v>0.9998155617413556</v>
       </c>
       <c r="I3">
-        <v>1.001877471035126</v>
+        <v>1.000302784025368</v>
       </c>
       <c r="J3">
-        <v>0.9965249397803573</v>
+        <v>1.000720434021072</v>
       </c>
       <c r="K3">
-        <v>0.9994650083680818</v>
+        <v>1.000720434021072</v>
       </c>
       <c r="L3">
-        <v>1.000743850888042</v>
+        <v>0.9994353059576877</v>
       </c>
       <c r="M3">
-        <v>0.9977986877468767</v>
+        <v>1.000262427372802</v>
       </c>
       <c r="N3">
-        <v>1.001877471035126</v>
+        <v>1.000720434021072</v>
       </c>
       <c r="O3">
-        <v>1.001078792176916</v>
+        <v>1.000119650485361</v>
       </c>
       <c r="P3">
-        <v>0.9988018659786367</v>
+        <v>0.9996353105136841</v>
       </c>
       <c r="Q3">
-        <v>1.000183831676154</v>
+        <v>0.9999676061133583</v>
       </c>
       <c r="R3">
-        <v>0.9998270676641333</v>
+        <v>0.9999970183494801</v>
       </c>
       <c r="S3">
-        <v>0.9989642010442217</v>
+        <v>0.9996953942562413</v>
       </c>
       <c r="T3">
-        <v>0.9998270676641333</v>
+        <v>0.9999970183494801</v>
       </c>
       <c r="U3">
-        <v>0.9996925185419478</v>
+        <v>0.9999516541974489</v>
       </c>
       <c r="V3">
-        <v>1.000129509040584</v>
+        <v>1.000105410162174</v>
       </c>
       <c r="W3">
-        <v>0.9997590641739</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9999477539596081</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.003656699377196</v>
+        <v>0.9638924101889923</v>
       </c>
       <c r="D4">
-        <v>0.9933118002015141</v>
+        <v>0.9964795138815828</v>
       </c>
       <c r="E4">
-        <v>1.002055321614524</v>
+        <v>1.013753579463022</v>
       </c>
       <c r="F4">
-        <v>1.003656699377196</v>
+        <v>1.01509450863934</v>
       </c>
       <c r="G4">
-        <v>0.9986279843641259</v>
+        <v>0.9638924101889923</v>
       </c>
       <c r="H4">
-        <v>1.002491542764299</v>
+        <v>0.9924426717331125</v>
       </c>
       <c r="I4">
-        <v>1.003656699377196</v>
+        <v>1.014161232109688</v>
       </c>
       <c r="J4">
-        <v>0.9933118002015141</v>
+        <v>1.013753579463022</v>
       </c>
       <c r="K4">
-        <v>0.9989545941088633</v>
+        <v>1.013753579463022</v>
       </c>
       <c r="L4">
-        <v>1.001444029846168</v>
+        <v>0.9774178242296347</v>
       </c>
       <c r="M4">
-        <v>0.9957576747887861</v>
+        <v>1.005714589103779</v>
       </c>
       <c r="N4">
-        <v>1.003656699377196</v>
+        <v>1.013753579463022</v>
       </c>
       <c r="O4">
-        <v>1.002055321614524</v>
+        <v>1.01509450863934</v>
       </c>
       <c r="P4">
-        <v>0.997683560908019</v>
+        <v>0.9894934594141662</v>
       </c>
       <c r="Q4">
-        <v>1.000341652989325</v>
+        <v>1.003768590186226</v>
       </c>
       <c r="R4">
-        <v>0.9996746070644115</v>
+        <v>0.9975801660971181</v>
       </c>
       <c r="S4">
-        <v>0.9979983687267214</v>
+        <v>0.9904765301871482</v>
       </c>
       <c r="T4">
-        <v>0.9996746070644115</v>
+        <v>0.9975801660971181</v>
       </c>
       <c r="U4">
-        <v>0.9994129513893402</v>
+        <v>0.9962957925061167</v>
       </c>
       <c r="V4">
-        <v>1.000261700986911</v>
+        <v>0.9997873498974977</v>
       </c>
       <c r="W4">
-        <v>0.9995374558831847</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9973695411686438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.006991218838297</v>
+        <v>0.9664646180043224</v>
       </c>
       <c r="D5">
-        <v>0.9871696325034197</v>
+        <v>0.9918324632636896</v>
       </c>
       <c r="E5">
-        <v>1.003949716900514</v>
+        <v>1.026453361685878</v>
       </c>
       <c r="F5">
-        <v>1.006991218838297</v>
+        <v>1.00580110926513</v>
       </c>
       <c r="G5">
-        <v>0.9973723755282361</v>
+        <v>0.9664646180043224</v>
       </c>
       <c r="H5">
-        <v>1.004777434683475</v>
+        <v>0.9928113758141218</v>
       </c>
       <c r="I5">
-        <v>1.006991218838297</v>
+        <v>1.012048604906343</v>
       </c>
       <c r="J5">
-        <v>0.9871696325034197</v>
+        <v>1.026453361685878</v>
       </c>
       <c r="K5">
-        <v>0.9980033800987245</v>
+        <v>1.026453361685878</v>
       </c>
       <c r="L5">
-        <v>1.002764921924352</v>
+        <v>0.9779120373847247</v>
       </c>
       <c r="M5">
-        <v>0.9918666761541209</v>
+        <v>1.009756811707492</v>
       </c>
       <c r="N5">
-        <v>1.006991218838297</v>
+        <v>1.026453361685878</v>
       </c>
       <c r="O5">
-        <v>1.003949716900514</v>
+        <v>1.00580110926513</v>
       </c>
       <c r="P5">
-        <v>0.9955596747019668</v>
+        <v>0.9861328636347262</v>
       </c>
       <c r="Q5">
-        <v>1.000661046214375</v>
+        <v>0.999306242539626</v>
       </c>
       <c r="R5">
-        <v>0.9993701894140771</v>
+        <v>0.9995730296517769</v>
       </c>
       <c r="S5">
-        <v>0.9961639083107232</v>
+        <v>0.9883590343611913</v>
       </c>
       <c r="T5">
-        <v>0.9993701894140771</v>
+        <v>0.9995730296517769</v>
       </c>
       <c r="U5">
-        <v>0.9988707359426168</v>
+        <v>0.9978826161923631</v>
       </c>
       <c r="V5">
-        <v>1.000494832521753</v>
+        <v>1.003596765291066</v>
       </c>
       <c r="W5">
-        <v>0.9991119195788924</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9978850477539627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.010257660723159</v>
+        <v>0.8915560279740632</v>
       </c>
       <c r="D6">
-        <v>0.9811834311250328</v>
+        <v>0.9719428912133229</v>
       </c>
       <c r="E6">
-        <v>1.005788908173664</v>
+        <v>1.09020146170999</v>
       </c>
       <c r="F6">
-        <v>1.010257660723159</v>
+        <v>1.015522479869941</v>
       </c>
       <c r="G6">
-        <v>0.996146839567153</v>
+        <v>0.8915560279740632</v>
       </c>
       <c r="H6">
-        <v>1.007005557217794</v>
+        <v>0.976941243537903</v>
       </c>
       <c r="I6">
-        <v>1.010257660723159</v>
+        <v>1.038338131573848</v>
       </c>
       <c r="J6">
-        <v>0.9811834311250328</v>
+        <v>1.09020146170999</v>
       </c>
       <c r="K6">
-        <v>0.9970702238746195</v>
+        <v>1.09020146170999</v>
       </c>
       <c r="L6">
-        <v>1.004056713842406</v>
+        <v>0.9283764629849057</v>
       </c>
       <c r="M6">
-        <v>0.9880719356746062</v>
+        <v>1.033212009445298</v>
       </c>
       <c r="N6">
-        <v>1.010257660723159</v>
+        <v>1.09020146170999</v>
       </c>
       <c r="O6">
-        <v>1.005788908173664</v>
+        <v>1.015522479869941</v>
       </c>
       <c r="P6">
-        <v>0.9934861696493482</v>
+        <v>0.953539253922002</v>
       </c>
       <c r="Q6">
-        <v>1.000967873870408</v>
+        <v>0.996231861703922</v>
       </c>
       <c r="R6">
-        <v>0.999076666673952</v>
+        <v>0.9990933231846646</v>
       </c>
       <c r="S6">
-        <v>0.9943730596219499</v>
+        <v>0.9613399171273024</v>
       </c>
       <c r="T6">
-        <v>0.999076666673952</v>
+        <v>0.9990933231846646</v>
       </c>
       <c r="U6">
-        <v>0.9983442098972523</v>
+        <v>0.9935553032729743</v>
       </c>
       <c r="V6">
-        <v>1.000726900062434</v>
+        <v>1.012884534960377</v>
       </c>
       <c r="W6">
-        <v>0.9986976587748044</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9932613385386589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000240157850922</v>
+        <v>0.9961704411763582</v>
       </c>
       <c r="D7">
-        <v>0.9997149891480102</v>
+        <v>0.9992873445483992</v>
       </c>
       <c r="E7">
-        <v>1.000040532685259</v>
+        <v>1.00240868669014</v>
       </c>
       <c r="F7">
-        <v>1.000240157850922</v>
+        <v>1.001013377543666</v>
       </c>
       <c r="G7">
-        <v>0.999938468755851</v>
+        <v>0.9961704411763582</v>
       </c>
       <c r="H7">
-        <v>1.000101414094616</v>
+        <v>0.9991961076208813</v>
       </c>
       <c r="I7">
-        <v>1.000240157850922</v>
+        <v>1.001415761735209</v>
       </c>
       <c r="J7">
-        <v>0.9997149891480102</v>
+        <v>1.00240868669014</v>
       </c>
       <c r="K7">
-        <v>0.999925070392585</v>
+        <v>1.00240868669014</v>
       </c>
       <c r="L7">
-        <v>1.000087760843136</v>
+        <v>0.9975345463433838</v>
       </c>
       <c r="M7">
-        <v>0.9998108407841121</v>
+        <v>1.000920682256807</v>
       </c>
       <c r="N7">
-        <v>1.000240157850922</v>
+        <v>1.00240868669014</v>
       </c>
       <c r="O7">
-        <v>1.000040532685259</v>
+        <v>1.001013377543666</v>
       </c>
       <c r="P7">
-        <v>0.9998777609166344</v>
+        <v>0.9985919093600122</v>
       </c>
       <c r="Q7">
-        <v>0.9999895007205548</v>
+        <v>1.000104742582274</v>
       </c>
       <c r="R7">
-        <v>0.9999985598947303</v>
+        <v>0.9998641684700548</v>
       </c>
       <c r="S7">
-        <v>0.9998979968630399</v>
+        <v>0.9987933087803018</v>
       </c>
       <c r="T7">
-        <v>0.9999985598947303</v>
+        <v>0.9998641684700548</v>
       </c>
       <c r="U7">
-        <v>0.9999835371100105</v>
+        <v>0.9996971532577614</v>
       </c>
       <c r="V7">
-        <v>1.000034861258193</v>
+        <v>1.000239459944237</v>
       </c>
       <c r="W7">
-        <v>0.9999824043193115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9997433684893556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000720434021072</v>
+        <v>0.999845010836897</v>
       </c>
       <c r="D8">
-        <v>0.9991509705420071</v>
+        <v>0.9998494753024121</v>
       </c>
       <c r="E8">
-        <v>1.000119650485361</v>
+        <v>1.000436828779909</v>
       </c>
       <c r="F8">
-        <v>1.000720434021072</v>
+        <v>0.9998406829820399</v>
       </c>
       <c r="G8">
-        <v>0.9998155617413556</v>
+        <v>0.999845010836897</v>
       </c>
       <c r="H8">
-        <v>1.000302784025368</v>
+        <v>0.9999612805841827</v>
       </c>
       <c r="I8">
-        <v>1.000720434021072</v>
+        <v>1.000031917555176</v>
       </c>
       <c r="J8">
-        <v>0.9991509705420071</v>
+        <v>1.000436828779909</v>
       </c>
       <c r="K8">
-        <v>0.9997748975312103</v>
+        <v>1.000436828779909</v>
       </c>
       <c r="L8">
-        <v>1.000262427372802</v>
+        <v>0.9998710975214894</v>
       </c>
       <c r="M8">
-        <v>0.9994353059576877</v>
+        <v>1.000146456137585</v>
       </c>
       <c r="N8">
-        <v>1.000720434021072</v>
+        <v>1.000436828779909</v>
       </c>
       <c r="O8">
-        <v>1.000119650485361</v>
+        <v>0.9998406829820399</v>
       </c>
       <c r="P8">
-        <v>0.9996353105136841</v>
+        <v>0.9998428469094685</v>
       </c>
       <c r="Q8">
-        <v>0.9999676061133583</v>
+        <v>0.9999009817831113</v>
       </c>
       <c r="R8">
-        <v>0.9999970183494801</v>
+        <v>1.000040840866282</v>
       </c>
       <c r="S8">
-        <v>0.9996953942562413</v>
+        <v>0.9998823248010398</v>
       </c>
       <c r="T8">
-        <v>0.9999970183494801</v>
+        <v>1.000040840866282</v>
       </c>
       <c r="U8">
-        <v>0.9999516541974489</v>
+        <v>1.000020950795757</v>
       </c>
       <c r="V8">
-        <v>1.000105410162174</v>
+        <v>1.000104126392588</v>
       </c>
       <c r="W8">
-        <v>0.9999477539596081</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999978437124615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.001162636076085</v>
+        <v>0.9933118002015141</v>
       </c>
       <c r="D9">
-        <v>0.9986608908060839</v>
+        <v>0.9989545941088636</v>
       </c>
       <c r="E9">
-        <v>1.000178377782507</v>
+        <v>1.003656699377196</v>
       </c>
       <c r="F9">
-        <v>1.001162636076085</v>
+        <v>1.002055321614524</v>
       </c>
       <c r="G9">
-        <v>0.9997056987113901</v>
+        <v>0.9933118002015141</v>
       </c>
       <c r="H9">
-        <v>1.000478537818114</v>
+        <v>0.9986279843641259</v>
       </c>
       <c r="I9">
-        <v>1.001162636076085</v>
+        <v>1.002491542764299</v>
       </c>
       <c r="J9">
-        <v>0.9986608908060839</v>
+        <v>1.003656699377196</v>
       </c>
       <c r="K9">
-        <v>0.9996352482885879</v>
+        <v>1.003656699377196</v>
       </c>
       <c r="L9">
-        <v>1.000420647136757</v>
+        <v>0.9957576747887865</v>
       </c>
       <c r="M9">
-        <v>0.9991049209388092</v>
+        <v>1.001444029846168</v>
       </c>
       <c r="N9">
-        <v>1.001162636076085</v>
+        <v>1.003656699377196</v>
       </c>
       <c r="O9">
-        <v>1.000178377782507</v>
+        <v>1.002055321614524</v>
       </c>
       <c r="P9">
-        <v>0.9994196342942954</v>
+        <v>0.997683560908019</v>
       </c>
       <c r="Q9">
-        <v>0.9999420382469485</v>
+        <v>1.000341652989325</v>
       </c>
       <c r="R9">
-        <v>1.000000634888225</v>
+        <v>0.9996746070644115</v>
       </c>
       <c r="S9">
-        <v>0.9995149890999936</v>
+        <v>0.9979983687267214</v>
       </c>
       <c r="T9">
-        <v>1.000000634888225</v>
+        <v>0.9996746070644115</v>
       </c>
       <c r="U9">
-        <v>0.9999269008440164</v>
+        <v>0.9994129513893402</v>
       </c>
       <c r="V9">
-        <v>1.00017404789043</v>
+        <v>1.000261700986911</v>
       </c>
       <c r="W9">
-        <v>0.9999183696947916</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.9995374558831847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.00234987005891</v>
+        <v>0.8900185962566077</v>
       </c>
       <c r="D10">
-        <v>0.9972424849351729</v>
+        <v>0.9714519222082404</v>
       </c>
       <c r="E10">
-        <v>1.000387022805093</v>
+        <v>1.091749670710083</v>
       </c>
       <c r="F10">
-        <v>1.00234987005891</v>
+        <v>1.015517022151789</v>
       </c>
       <c r="G10">
-        <v>0.999398364714685</v>
+        <v>0.8900185962566077</v>
       </c>
       <c r="H10">
-        <v>1.000985092461675</v>
+        <v>0.9766466220796057</v>
       </c>
       <c r="I10">
-        <v>1.00234987005891</v>
+        <v>1.038823896780851</v>
       </c>
       <c r="J10">
-        <v>0.9972424849351729</v>
+        <v>1.091749670710083</v>
       </c>
       <c r="K10">
-        <v>0.9992650943169916</v>
+        <v>1.091749670710083</v>
       </c>
       <c r="L10">
-        <v>1.000854104466089</v>
+        <v>0.9273655953441838</v>
       </c>
       <c r="M10">
-        <v>0.9981633104225268</v>
+        <v>1.033791713349182</v>
       </c>
       <c r="N10">
-        <v>1.00234987005891</v>
+        <v>1.091749670710083</v>
       </c>
       <c r="O10">
-        <v>1.000387022805093</v>
+        <v>1.015517022151789</v>
       </c>
       <c r="P10">
-        <v>0.9988147538701327</v>
+        <v>0.9527678092041982</v>
       </c>
       <c r="Q10">
-        <v>0.9998926937598889</v>
+        <v>0.9960818221156973</v>
       </c>
       <c r="R10">
-        <v>0.9999931259330582</v>
+        <v>0.9990950963728263</v>
       </c>
       <c r="S10">
-        <v>0.9990092908183169</v>
+        <v>0.9607274134960008</v>
       </c>
       <c r="T10">
-        <v>0.9999931259330582</v>
+        <v>0.9990950963728263</v>
       </c>
       <c r="U10">
-        <v>0.9998444356284649</v>
+        <v>0.9934829777995212</v>
       </c>
       <c r="V10">
-        <v>1.000345522514554</v>
+        <v>1.013136316381634</v>
       </c>
       <c r="W10">
-        <v>0.9998306680226429</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9931706298600678</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.004315045116978</v>
+        <v>1.015693763434494</v>
       </c>
       <c r="D11">
-        <v>0.9950825199438512</v>
+        <v>1.005749053916998</v>
       </c>
       <c r="E11">
-        <v>1.000628856834206</v>
+        <v>0.9822420322369669</v>
       </c>
       <c r="F11">
-        <v>1.004315045116978</v>
+        <v>1.000493942234275</v>
       </c>
       <c r="G11">
-        <v>0.9989180115243492</v>
+        <v>1.015693763434494</v>
       </c>
       <c r="H11">
-        <v>1.001754289743498</v>
+        <v>1.003443351819525</v>
       </c>
       <c r="I11">
-        <v>1.004315045116978</v>
+        <v>0.9947828559519225</v>
       </c>
       <c r="J11">
-        <v>0.9950825199438512</v>
+        <v>0.9822420322369669</v>
       </c>
       <c r="K11">
-        <v>0.998644170758648</v>
+        <v>0.9822420322369669</v>
       </c>
       <c r="L11">
-        <v>1.001559130495685</v>
+        <v>1.010784146770624</v>
       </c>
       <c r="M11">
-        <v>0.9967088762762576</v>
+        <v>0.9936921636980899</v>
       </c>
       <c r="N11">
-        <v>1.004315045116978</v>
+        <v>0.9822420322369669</v>
       </c>
       <c r="O11">
-        <v>1.000628856834206</v>
+        <v>1.000493942234275</v>
       </c>
       <c r="P11">
-        <v>0.9978556883890284</v>
+        <v>1.008093852834384</v>
       </c>
       <c r="Q11">
-        <v>0.9997734341792774</v>
+        <v>1.0019686470269</v>
       </c>
       <c r="R11">
-        <v>1.000008807298345</v>
+        <v>0.9994765793019118</v>
       </c>
       <c r="S11">
-        <v>0.998209796100802</v>
+        <v>1.006543685829431</v>
       </c>
       <c r="T11">
-        <v>1.000008807298345</v>
+        <v>0.9994765793019118</v>
       </c>
       <c r="U11">
-        <v>0.9997361083548459</v>
+        <v>1.000468272431315</v>
       </c>
       <c r="V11">
-        <v>1.000651895707272</v>
+        <v>0.9968230243924454</v>
       </c>
       <c r="W11">
-        <v>0.9997013625866841</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>1.000860163757862</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9642540936251951</v>
+        <v>0.968231965494736</v>
       </c>
       <c r="D12">
-        <v>1.049916448254755</v>
+        <v>0.9915232490947381</v>
       </c>
       <c r="E12">
-        <v>0.9878492213880913</v>
+        <v>1.027140603831579</v>
       </c>
       <c r="F12">
-        <v>0.9642540936251951</v>
+        <v>1.00413638145263</v>
       </c>
       <c r="G12">
-        <v>1.011402441526143</v>
+        <v>0.968231965494736</v>
       </c>
       <c r="H12">
-        <v>0.9810174755754274</v>
+        <v>0.9932251791473693</v>
       </c>
       <c r="I12">
-        <v>0.9642540936251951</v>
+        <v>1.011184240726316</v>
       </c>
       <c r="J12">
-        <v>1.049916448254755</v>
+        <v>1.027140603831579</v>
       </c>
       <c r="K12">
-        <v>1.010926150135212</v>
+        <v>1.027140603831579</v>
       </c>
       <c r="L12">
-        <v>0.9871029092539746</v>
+        <v>0.9789517275789454</v>
       </c>
       <c r="M12">
-        <v>1.033137552110158</v>
+        <v>1.009955789715789</v>
       </c>
       <c r="N12">
-        <v>0.9642540936251951</v>
+        <v>1.027140603831579</v>
       </c>
       <c r="O12">
-        <v>0.9878492213880913</v>
+        <v>1.00413638145263</v>
       </c>
       <c r="P12">
-        <v>1.018882834821423</v>
+        <v>0.986184173473683</v>
       </c>
       <c r="Q12">
-        <v>0.9996258314571174</v>
+        <v>0.9986807802999997</v>
       </c>
       <c r="R12">
-        <v>1.00067325442268</v>
+        <v>0.999836316926315</v>
       </c>
       <c r="S12">
-        <v>1.016389370389663</v>
+        <v>0.9885311753649119</v>
       </c>
       <c r="T12">
-        <v>1.00067325442268</v>
+        <v>0.999836316926315</v>
       </c>
       <c r="U12">
-        <v>1.003355551198546</v>
+        <v>0.9981835324815785</v>
       </c>
       <c r="V12">
-        <v>0.9955352596838759</v>
+        <v>1.003974946751579</v>
       </c>
       <c r="W12">
-        <v>1.00320078648362</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9980436421302628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9919709910869763</v>
+        <v>1.022395837964543</v>
       </c>
       <c r="D13">
-        <v>1.014606008043508</v>
+        <v>1.004921588067939</v>
       </c>
       <c r="E13">
-        <v>0.9966806367573557</v>
+        <v>0.9838670994322638</v>
       </c>
       <c r="F13">
-        <v>0.9919709910869763</v>
+        <v>0.9948902853141095</v>
       </c>
       <c r="G13">
-        <v>1.002357225035031</v>
+        <v>1.022395837964543</v>
       </c>
       <c r="H13">
-        <v>0.9952090615728052</v>
+        <v>1.004957653622492</v>
       </c>
       <c r="I13">
-        <v>0.9919709910869763</v>
+        <v>0.9916520270061921</v>
       </c>
       <c r="J13">
-        <v>1.014606008043508</v>
+        <v>0.9838670994322638</v>
       </c>
       <c r="K13">
-        <v>1.002239997021678</v>
+        <v>0.9838670994322638</v>
       </c>
       <c r="L13">
-        <v>0.9964513261108698</v>
+        <v>1.014756858859691</v>
       </c>
       <c r="M13">
-        <v>1.008792353710054</v>
+        <v>0.9940876670300612</v>
       </c>
       <c r="N13">
-        <v>0.9919709910869763</v>
+        <v>0.9838670994322638</v>
       </c>
       <c r="O13">
-        <v>0.9966806367573557</v>
+        <v>0.9948902853141095</v>
       </c>
       <c r="P13">
-        <v>1.005643322400432</v>
+        <v>1.008643061639326</v>
       </c>
       <c r="Q13">
-        <v>0.9995189308961935</v>
+        <v>0.9999239694683006</v>
       </c>
       <c r="R13">
-        <v>1.00108587862928</v>
+        <v>1.000384407570306</v>
       </c>
       <c r="S13">
-        <v>1.004547956611965</v>
+        <v>1.007414592300382</v>
       </c>
       <c r="T13">
-        <v>1.00108587862928</v>
+        <v>1.000384407570306</v>
       </c>
       <c r="U13">
-        <v>1.001403715230718</v>
+        <v>1.001527719083352</v>
       </c>
       <c r="V13">
-        <v>0.9995171704019695</v>
+        <v>0.9979955951531345</v>
       </c>
       <c r="W13">
-        <v>1.001038449917285</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.001441127162161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.064307020482586</v>
+        <v>0.8102701199999989</v>
       </c>
       <c r="D14">
-        <v>0.8198670179631189</v>
+        <v>0.9504690099999996</v>
       </c>
       <c r="E14">
-        <v>1.077562692477143</v>
+        <v>1.159068599999999</v>
       </c>
       <c r="F14">
-        <v>1.064307020482586</v>
+        <v>1.026282799999999</v>
       </c>
       <c r="G14">
-        <v>0.9625349375141971</v>
+        <v>0.8102701199999989</v>
       </c>
       <c r="H14">
-        <v>1.070809382430403</v>
+        <v>0.9597091699999981</v>
       </c>
       <c r="I14">
-        <v>1.064307020482586</v>
+        <v>1.0669055</v>
       </c>
       <c r="J14">
-        <v>0.8198670179631189</v>
+        <v>1.159068599999999</v>
       </c>
       <c r="K14">
-        <v>0.9839957928921003</v>
+        <v>1.159068599999999</v>
       </c>
       <c r="L14">
-        <v>1.027217396599143</v>
+        <v>0.874637890000001</v>
       </c>
       <c r="M14">
-        <v>0.8878296979530805</v>
+        <v>1.058555100000001</v>
       </c>
       <c r="N14">
-        <v>1.064307020482586</v>
+        <v>1.159068599999999</v>
       </c>
       <c r="O14">
-        <v>1.077562692477143</v>
+        <v>1.026282799999999</v>
       </c>
       <c r="P14">
-        <v>0.9487148552201311</v>
+        <v>0.9182764599999992</v>
       </c>
       <c r="Q14">
-        <v>1.02004881499567</v>
+        <v>0.9929959849999987</v>
       </c>
       <c r="R14">
-        <v>0.9872455769742828</v>
+        <v>0.9985405066666657</v>
       </c>
       <c r="S14">
-        <v>0.953321549318153</v>
+        <v>0.9320873633333321</v>
       </c>
       <c r="T14">
-        <v>0.9872455769742828</v>
+        <v>0.9985405066666657</v>
       </c>
       <c r="U14">
-        <v>0.9810679171092614</v>
+        <v>0.9888326724999988</v>
       </c>
       <c r="V14">
-        <v>0.9977157377839264</v>
+        <v>1.022879857999999</v>
       </c>
       <c r="W14">
-        <v>0.9867654922889715</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9882372737499995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.044902067365519</v>
+        <v>0.5123396</v>
       </c>
       <c r="D15">
-        <v>0.9662610896331583</v>
+        <v>0.85874682</v>
       </c>
       <c r="E15">
-        <v>0.9944190829467452</v>
+        <v>1.4462575</v>
       </c>
       <c r="F15">
-        <v>1.044902067365519</v>
+        <v>1.055856</v>
       </c>
       <c r="G15">
-        <v>0.9927817933959902</v>
+        <v>0.5123396</v>
       </c>
       <c r="H15">
-        <v>1.010402504950289</v>
+        <v>0.8899491400000001</v>
       </c>
       <c r="I15">
-        <v>1.044902067365519</v>
+        <v>1.175043</v>
       </c>
       <c r="J15">
-        <v>0.9662610896331583</v>
+        <v>1.4462575</v>
       </c>
       <c r="K15">
-        <v>0.9852570299017442</v>
+        <v>1.4462575</v>
       </c>
       <c r="L15">
-        <v>1.015907787121873</v>
+        <v>0.67025205</v>
       </c>
       <c r="M15">
-        <v>0.9764671976892316</v>
+        <v>1.1590786</v>
       </c>
       <c r="N15">
-        <v>1.044902067365519</v>
+        <v>1.4462575</v>
       </c>
       <c r="O15">
-        <v>0.9944190829467452</v>
+        <v>1.055856</v>
       </c>
       <c r="P15">
-        <v>0.9803400862899517</v>
+        <v>0.7840978</v>
       </c>
       <c r="Q15">
-        <v>0.9936004381713677</v>
+        <v>0.97290257</v>
       </c>
       <c r="R15">
-        <v>1.001860746648474</v>
+        <v>1.0048177</v>
       </c>
       <c r="S15">
-        <v>0.9844873219919646</v>
+        <v>0.8193815799999999</v>
       </c>
       <c r="T15">
-        <v>1.001860746648474</v>
+        <v>1.0048177</v>
       </c>
       <c r="U15">
-        <v>0.9995910083353531</v>
+        <v>0.97610056</v>
       </c>
       <c r="V15">
-        <v>1.008653220141386</v>
+        <v>1.070131948</v>
       </c>
       <c r="W15">
-        <v>0.9982998191255688</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.9709403387500001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9998779639791869</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="D16">
-        <v>0.9999155400096631</v>
+        <v>0.98943402</v>
       </c>
       <c r="E16">
-        <v>1.000125985338641</v>
+        <v>1.055856</v>
       </c>
       <c r="F16">
-        <v>0.9998779639791869</v>
+        <v>1.1248129</v>
       </c>
       <c r="G16">
-        <v>0.9999853356222279</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="H16">
-        <v>1.000044459043534</v>
+        <v>0.94903487</v>
       </c>
       <c r="I16">
-        <v>0.9998779639791869</v>
+        <v>1.0989676</v>
       </c>
       <c r="J16">
-        <v>0.9999155400096631</v>
+        <v>1.055856</v>
       </c>
       <c r="K16">
-        <v>1.000047076570801</v>
+        <v>1.055856</v>
       </c>
       <c r="L16">
-        <v>0.9999638647975629</v>
+        <v>0.85032006</v>
       </c>
       <c r="M16">
-        <v>0.9999605543758394</v>
+        <v>1.0262848</v>
       </c>
       <c r="N16">
-        <v>0.9998779639791869</v>
+        <v>1.055856</v>
       </c>
       <c r="O16">
-        <v>1.000125985338641</v>
+        <v>1.1248129</v>
       </c>
       <c r="P16">
-        <v>1.000020762674152</v>
+        <v>0.9405922</v>
       </c>
       <c r="Q16">
-        <v>1.000055660480435</v>
+        <v>1.036923885</v>
       </c>
       <c r="R16">
-        <v>0.9999731631091638</v>
+        <v>0.9790134666666667</v>
       </c>
       <c r="S16">
-        <v>1.000008953656844</v>
+        <v>0.9434064233333332</v>
       </c>
       <c r="T16">
-        <v>0.9999731631091638</v>
+        <v>0.9790134666666667</v>
       </c>
       <c r="U16">
-        <v>0.9999762062374299</v>
+        <v>0.9715188175</v>
       </c>
       <c r="V16">
-        <v>0.9999565577857814</v>
+        <v>0.9883862539999999</v>
       </c>
       <c r="W16">
-        <v>0.999990097467182</v>
+        <v>0.98138521875</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000436828779909</v>
+        <v>0.81025202</v>
       </c>
       <c r="D17">
-        <v>0.9998450108368971</v>
+        <v>0.9504643</v>
       </c>
       <c r="E17">
-        <v>0.9998406829820399</v>
+        <v>1.1590836</v>
       </c>
       <c r="F17">
-        <v>1.000436828779909</v>
+        <v>1.0262858</v>
       </c>
       <c r="G17">
-        <v>0.9999612805841828</v>
+        <v>0.81025202</v>
       </c>
       <c r="H17">
-        <v>1.000031917555176</v>
+        <v>0.9597050699999999</v>
       </c>
       <c r="I17">
-        <v>1.000436828779909</v>
+        <v>1.0669122</v>
       </c>
       <c r="J17">
-        <v>0.9998450108368971</v>
+        <v>1.1590836</v>
       </c>
       <c r="K17">
-        <v>0.9998494753024121</v>
+        <v>1.1590836</v>
       </c>
       <c r="L17">
-        <v>1.000146456137585</v>
+        <v>0.87462575</v>
       </c>
       <c r="M17">
-        <v>0.9998710975214894</v>
+        <v>1.0585605</v>
       </c>
       <c r="N17">
-        <v>1.000436828779909</v>
+        <v>1.1590836</v>
       </c>
       <c r="O17">
-        <v>0.9998406829820399</v>
+        <v>1.0262858</v>
       </c>
       <c r="P17">
-        <v>0.9998428469094685</v>
+        <v>0.9182689099999999</v>
       </c>
       <c r="Q17">
-        <v>0.9999009817831113</v>
+        <v>0.9929954349999999</v>
       </c>
       <c r="R17">
-        <v>1.000040840866282</v>
+        <v>0.9985404733333333</v>
       </c>
       <c r="S17">
-        <v>0.9998823248010399</v>
+        <v>0.9320809633333332</v>
       </c>
       <c r="T17">
-        <v>1.000040840866282</v>
+        <v>0.9985404733333333</v>
       </c>
       <c r="U17">
-        <v>1.000020950795757</v>
+        <v>0.9888316225</v>
       </c>
       <c r="V17">
-        <v>1.000104126392588</v>
+        <v>1.022882018</v>
       </c>
       <c r="W17">
-        <v>0.9999978437124615</v>
+        <v>0.9882361549999999</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000137842074254</v>
+        <v>0.9137595446575346</v>
       </c>
       <c r="D18">
-        <v>0.9986929981470891</v>
+        <v>0.9862247778082193</v>
       </c>
       <c r="E18">
-        <v>1.000745093564429</v>
+        <v>1.047950994246576</v>
       </c>
       <c r="F18">
-        <v>1.000137842074254</v>
+        <v>1.026195299726027</v>
       </c>
       <c r="G18">
-        <v>0.9997407367983574</v>
+        <v>0.9137595446575346</v>
       </c>
       <c r="H18">
-        <v>1.000531715755564</v>
+        <v>0.9822015019178081</v>
       </c>
       <c r="I18">
-        <v>1.000137842074254</v>
+        <v>1.032160722191781</v>
       </c>
       <c r="J18">
-        <v>0.9986929981470891</v>
+        <v>1.047950994246576</v>
       </c>
       <c r="K18">
-        <v>1.000002360636614</v>
+        <v>1.047950994246576</v>
       </c>
       <c r="L18">
-        <v>1.000095618026563</v>
+        <v>0.9451602338356162</v>
       </c>
       <c r="M18">
-        <v>0.9992192195223716</v>
+        <v>1.018822219178082</v>
       </c>
       <c r="N18">
-        <v>1.000137842074254</v>
+        <v>1.047950994246576</v>
       </c>
       <c r="O18">
-        <v>1.000745093564429</v>
+        <v>1.026195299726027</v>
       </c>
       <c r="P18">
-        <v>0.999719045855759</v>
+        <v>0.969977422191781</v>
       </c>
       <c r="Q18">
-        <v>1.000242915181393</v>
+        <v>1.004198400821918</v>
       </c>
       <c r="R18">
-        <v>0.9998586445952574</v>
+        <v>0.9959686128767125</v>
       </c>
       <c r="S18">
-        <v>0.9997262761699585</v>
+        <v>0.97405211543379</v>
       </c>
       <c r="T18">
-        <v>0.9998586445952574</v>
+        <v>0.9959686128767125</v>
       </c>
       <c r="U18">
-        <v>0.9998291676460325</v>
+        <v>0.9925268351369864</v>
       </c>
       <c r="V18">
-        <v>0.9998909025316769</v>
+        <v>1.003611666958904</v>
       </c>
       <c r="W18">
-        <v>0.9998956980656554</v>
+        <v>0.9940594116952055</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9994483033013463</v>
+        <v>0.7833150921052631</v>
       </c>
       <c r="D19">
-        <v>0.9964618696980951</v>
+        <v>0.969950027368421</v>
       </c>
       <c r="E19">
-        <v>1.002560754245643</v>
+        <v>1.107467036842105</v>
       </c>
       <c r="F19">
-        <v>0.9994483033013463</v>
+        <v>1.075548810526316</v>
       </c>
       <c r="G19">
-        <v>0.999316273302983</v>
+        <v>0.7833150921052631</v>
       </c>
       <c r="H19">
-        <v>1.001507290210313</v>
+        <v>0.9543707278947369</v>
       </c>
       <c r="I19">
-        <v>0.9994483033013463</v>
+        <v>1.082938652631579</v>
       </c>
       <c r="J19">
-        <v>0.9964618696980951</v>
+        <v>1.107467036842105</v>
       </c>
       <c r="K19">
-        <v>1.000338136619026</v>
+        <v>1.107467036842105</v>
       </c>
       <c r="L19">
-        <v>0.9999619850647878</v>
+        <v>0.862475142631579</v>
       </c>
       <c r="M19">
-        <v>0.9979666716574275</v>
+        <v>1.042421663157895</v>
       </c>
       <c r="N19">
-        <v>0.9994483033013463</v>
+        <v>1.107467036842105</v>
       </c>
       <c r="O19">
-        <v>1.002560754245643</v>
+        <v>1.075548810526316</v>
       </c>
       <c r="P19">
-        <v>0.9995113119718688</v>
+        <v>0.9294319513157894</v>
       </c>
       <c r="Q19">
-        <v>1.000938513774313</v>
+        <v>1.014959769210526</v>
       </c>
       <c r="R19">
-        <v>0.9994903090816947</v>
+        <v>0.9887769798245613</v>
       </c>
       <c r="S19">
-        <v>0.9994462990822403</v>
+        <v>0.9377448768421052</v>
       </c>
       <c r="T19">
-        <v>0.9994903090816946</v>
+        <v>0.9887769798245615</v>
       </c>
       <c r="U19">
-        <v>0.9994468001370167</v>
+        <v>0.9801754168421053</v>
       </c>
       <c r="V19">
-        <v>0.9994471007698825</v>
+        <v>1.005633740842105</v>
       </c>
       <c r="W19">
-        <v>0.9996951605124527</v>
+        <v>0.9848108941447369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9244845721052631</v>
+      </c>
+      <c r="D20">
+        <v>0.9714682210526315</v>
+      </c>
+      <c r="E20">
+        <v>1.087502249473684</v>
+      </c>
+      <c r="F20">
+        <v>0.9989846957894736</v>
+      </c>
+      <c r="G20">
+        <v>0.9244845721052631</v>
+      </c>
+      <c r="H20">
+        <v>0.9819534868421053</v>
+      </c>
+      <c r="I20">
+        <v>1.026406600526316</v>
+      </c>
+      <c r="J20">
+        <v>1.087502249473684</v>
+      </c>
+      <c r="K20">
+        <v>1.087502249473684</v>
+      </c>
+      <c r="L20">
+        <v>0.9468610831578949</v>
+      </c>
+      <c r="M20">
+        <v>1.030155067894737</v>
+      </c>
+      <c r="N20">
+        <v>1.087502249473684</v>
+      </c>
+      <c r="O20">
+        <v>0.9989846957894736</v>
+      </c>
+      <c r="P20">
+        <v>0.9617346339473684</v>
+      </c>
+      <c r="Q20">
+        <v>0.9904690913157894</v>
+      </c>
+      <c r="R20">
+        <v>1.00365717245614</v>
+      </c>
+      <c r="S20">
+        <v>0.9684742515789474</v>
+      </c>
+      <c r="T20">
+        <v>1.00365717245614</v>
+      </c>
+      <c r="U20">
+        <v>0.9982312510526316</v>
+      </c>
+      <c r="V20">
+        <v>1.016085450736842</v>
+      </c>
+      <c r="W20">
+        <v>0.9959769971052632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.8198670179631188</v>
+      </c>
+      <c r="D21">
+        <v>0.9839957928921003</v>
+      </c>
+      <c r="E21">
+        <v>1.064307020482586</v>
+      </c>
+      <c r="F21">
+        <v>1.077562692477143</v>
+      </c>
+      <c r="G21">
+        <v>0.8198670179631188</v>
+      </c>
+      <c r="H21">
+        <v>0.9625349375141971</v>
+      </c>
+      <c r="I21">
+        <v>1.070809382430403</v>
+      </c>
+      <c r="J21">
+        <v>1.064307020482586</v>
+      </c>
+      <c r="K21">
+        <v>1.064307020482586</v>
+      </c>
+      <c r="L21">
+        <v>0.8878296979530805</v>
+      </c>
+      <c r="M21">
+        <v>1.027217396599143</v>
+      </c>
+      <c r="N21">
+        <v>1.064307020482586</v>
+      </c>
+      <c r="O21">
+        <v>1.077562692477143</v>
+      </c>
+      <c r="P21">
+        <v>0.948714855220131</v>
+      </c>
+      <c r="Q21">
+        <v>1.02004881499567</v>
+      </c>
+      <c r="R21">
+        <v>0.9872455769742828</v>
+      </c>
+      <c r="S21">
+        <v>0.953321549318153</v>
+      </c>
+      <c r="T21">
+        <v>0.9872455769742828</v>
+      </c>
+      <c r="U21">
+        <v>0.9810679171092614</v>
+      </c>
+      <c r="V21">
+        <v>0.9977157377839264</v>
+      </c>
+      <c r="W21">
+        <v>0.9867654922889715</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9662610896331583</v>
+      </c>
+      <c r="D22">
+        <v>0.9852570299017442</v>
+      </c>
+      <c r="E22">
+        <v>1.044902067365519</v>
+      </c>
+      <c r="F22">
+        <v>0.9944190829467452</v>
+      </c>
+      <c r="G22">
+        <v>0.9662610896331583</v>
+      </c>
+      <c r="H22">
+        <v>0.9927817933959902</v>
+      </c>
+      <c r="I22">
+        <v>1.010402504950289</v>
+      </c>
+      <c r="J22">
+        <v>1.044902067365519</v>
+      </c>
+      <c r="K22">
+        <v>1.044902067365519</v>
+      </c>
+      <c r="L22">
+        <v>0.9764671976892316</v>
+      </c>
+      <c r="M22">
+        <v>1.015907787121873</v>
+      </c>
+      <c r="N22">
+        <v>1.044902067365519</v>
+      </c>
+      <c r="O22">
+        <v>0.9944190829467452</v>
+      </c>
+      <c r="P22">
+        <v>0.9803400862899517</v>
+      </c>
+      <c r="Q22">
+        <v>0.9936004381713677</v>
+      </c>
+      <c r="R22">
+        <v>1.001860746648474</v>
+      </c>
+      <c r="S22">
+        <v>0.9844873219919646</v>
+      </c>
+      <c r="T22">
+        <v>1.001860746648474</v>
+      </c>
+      <c r="U22">
+        <v>0.9995910083353531</v>
+      </c>
+      <c r="V22">
+        <v>1.008653220141386</v>
+      </c>
+      <c r="W22">
+        <v>0.9982998191255688</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.049916448254755</v>
+      </c>
+      <c r="D23">
+        <v>1.010926150135212</v>
+      </c>
+      <c r="E23">
+        <v>0.9642540936251951</v>
+      </c>
+      <c r="F23">
+        <v>0.9878492213880913</v>
+      </c>
+      <c r="G23">
+        <v>1.049916448254755</v>
+      </c>
+      <c r="H23">
+        <v>1.011402441526143</v>
+      </c>
+      <c r="I23">
+        <v>0.9810174755754272</v>
+      </c>
+      <c r="J23">
+        <v>0.9642540936251951</v>
+      </c>
+      <c r="K23">
+        <v>0.9642540936251951</v>
+      </c>
+      <c r="L23">
+        <v>1.033137552110158</v>
+      </c>
+      <c r="M23">
+        <v>0.9871029092539747</v>
+      </c>
+      <c r="N23">
+        <v>0.9642540936251951</v>
+      </c>
+      <c r="O23">
+        <v>0.9878492213880913</v>
+      </c>
+      <c r="P23">
+        <v>1.018882834821423</v>
+      </c>
+      <c r="Q23">
+        <v>0.9996258314571174</v>
+      </c>
+      <c r="R23">
+        <v>1.00067325442268</v>
+      </c>
+      <c r="S23">
+        <v>1.016389370389663</v>
+      </c>
+      <c r="T23">
+        <v>1.00067325442268</v>
+      </c>
+      <c r="U23">
+        <v>1.003355551198546</v>
+      </c>
+      <c r="V23">
+        <v>0.9955352596838759</v>
+      </c>
+      <c r="W23">
+        <v>1.00320078648362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.014606008043508</v>
+      </c>
+      <c r="D24">
+        <v>1.002239997021678</v>
+      </c>
+      <c r="E24">
+        <v>0.9919709910869762</v>
+      </c>
+      <c r="F24">
+        <v>0.9966806367573557</v>
+      </c>
+      <c r="G24">
+        <v>1.014606008043508</v>
+      </c>
+      <c r="H24">
+        <v>1.002357225035031</v>
+      </c>
+      <c r="I24">
+        <v>0.9952090615728051</v>
+      </c>
+      <c r="J24">
+        <v>0.9919709910869762</v>
+      </c>
+      <c r="K24">
+        <v>0.9919709910869762</v>
+      </c>
+      <c r="L24">
+        <v>1.008792353710054</v>
+      </c>
+      <c r="M24">
+        <v>0.9964513261108698</v>
+      </c>
+      <c r="N24">
+        <v>0.9919709910869762</v>
+      </c>
+      <c r="O24">
+        <v>0.9966806367573557</v>
+      </c>
+      <c r="P24">
+        <v>1.005643322400432</v>
+      </c>
+      <c r="Q24">
+        <v>0.9995189308961935</v>
+      </c>
+      <c r="R24">
+        <v>1.00108587862928</v>
+      </c>
+      <c r="S24">
+        <v>1.004547956611965</v>
+      </c>
+      <c r="T24">
+        <v>1.00108587862928</v>
+      </c>
+      <c r="U24">
+        <v>1.001403715230718</v>
+      </c>
+      <c r="V24">
+        <v>0.9995171704019695</v>
+      </c>
+      <c r="W24">
+        <v>1.001038449917285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.173351225581464</v>
+      </c>
+      <c r="D25">
+        <v>1.024115097419429</v>
+      </c>
+      <c r="E25">
+        <v>0.913551607454107</v>
+      </c>
+      <c r="F25">
+        <v>0.9416943733723186</v>
+      </c>
+      <c r="G25">
+        <v>1.173351225581464</v>
+      </c>
+      <c r="H25">
+        <v>1.035474682314142</v>
+      </c>
+      <c r="I25">
+        <v>0.9347328239836254</v>
+      </c>
+      <c r="J25">
+        <v>0.913551607454107</v>
+      </c>
+      <c r="K25">
+        <v>0.913551607454107</v>
+      </c>
+      <c r="L25">
+        <v>1.109290411359569</v>
+      </c>
+      <c r="M25">
+        <v>0.9652913574705188</v>
+      </c>
+      <c r="N25">
+        <v>0.913551607454107</v>
+      </c>
+      <c r="O25">
+        <v>0.9416943733723186</v>
+      </c>
+      <c r="P25">
+        <v>1.057522799476891</v>
+      </c>
+      <c r="Q25">
+        <v>0.9885845278432304</v>
+      </c>
+      <c r="R25">
+        <v>1.009532402135963</v>
+      </c>
+      <c r="S25">
+        <v>1.050173427089308</v>
+      </c>
+      <c r="T25">
+        <v>1.009532402135964</v>
+      </c>
+      <c r="U25">
+        <v>1.016017972180508</v>
+      </c>
+      <c r="V25">
+        <v>0.9955246992352279</v>
+      </c>
+      <c r="W25">
+        <v>1.012187697369397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.036999773288064</v>
+      </c>
+      <c r="D26">
+        <v>1.012023395607581</v>
+      </c>
+      <c r="E26">
+        <v>0.9627373661533287</v>
+      </c>
+      <c r="F26">
+        <v>0.9961002123134253</v>
+      </c>
+      <c r="G26">
+        <v>1.036999773288064</v>
+      </c>
+      <c r="H26">
+        <v>1.009347097078337</v>
+      </c>
+      <c r="I26">
+        <v>0.9860281196685214</v>
+      </c>
+      <c r="J26">
+        <v>0.9627373661533287</v>
+      </c>
+      <c r="K26">
+        <v>0.9627373661533287</v>
+      </c>
+      <c r="L26">
+        <v>1.026006406167992</v>
+      </c>
+      <c r="M26">
+        <v>0.9873921571052153</v>
+      </c>
+      <c r="N26">
+        <v>0.9627373661533287</v>
+      </c>
+      <c r="O26">
+        <v>0.9961002123134253</v>
+      </c>
+      <c r="P26">
+        <v>1.016549992800745</v>
+      </c>
+      <c r="Q26">
+        <v>1.002723654695881</v>
+      </c>
+      <c r="R26">
+        <v>0.9986124505849393</v>
+      </c>
+      <c r="S26">
+        <v>1.014149027559942</v>
+      </c>
+      <c r="T26">
+        <v>0.9986124505849393</v>
+      </c>
+      <c r="U26">
+        <v>1.001296112208289</v>
+      </c>
+      <c r="V26">
+        <v>0.9935843629972968</v>
+      </c>
+      <c r="W26">
+        <v>1.002079315922808</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9883667343184943</v>
+      </c>
+      <c r="D27">
+        <v>0.9976591527570228</v>
+      </c>
+      <c r="E27">
+        <v>1.007656964093606</v>
+      </c>
+      <c r="F27">
+        <v>1.003933683415517</v>
+      </c>
+      <c r="G27">
+        <v>0.9883667343184943</v>
+      </c>
+      <c r="H27">
+        <v>0.9969609098763618</v>
+      </c>
+      <c r="I27">
+        <v>1.004872727071488</v>
+      </c>
+      <c r="J27">
+        <v>1.007656964093606</v>
+      </c>
+      <c r="K27">
+        <v>1.007656964093606</v>
+      </c>
+      <c r="L27">
+        <v>0.9920418986562645</v>
+      </c>
+      <c r="M27">
+        <v>1.002554201729624</v>
+      </c>
+      <c r="N27">
+        <v>1.007656964093606</v>
+      </c>
+      <c r="O27">
+        <v>1.003933683415517</v>
+      </c>
+      <c r="P27">
+        <v>0.9961502088670054</v>
+      </c>
+      <c r="Q27">
+        <v>1.000447296645939</v>
+      </c>
+      <c r="R27">
+        <v>0.9999857939425391</v>
+      </c>
+      <c r="S27">
+        <v>0.9964204425367909</v>
+      </c>
+      <c r="T27">
+        <v>0.9999857939425391</v>
+      </c>
+      <c r="U27">
+        <v>0.9992295729259948</v>
+      </c>
+      <c r="V27">
+        <v>1.000915051159517</v>
+      </c>
+      <c r="W27">
+        <v>0.9992557839897972</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9863565145709215</v>
+      </c>
+      <c r="D28">
+        <v>0.9989608002061008</v>
+      </c>
+      <c r="E28">
+        <v>1.004379033052427</v>
+      </c>
+      <c r="F28">
+        <v>1.006229649965759</v>
+      </c>
+      <c r="G28">
+        <v>0.9863565145709215</v>
+      </c>
+      <c r="H28">
+        <v>0.9971351147467289</v>
+      </c>
+      <c r="I28">
+        <v>1.005436577610426</v>
+      </c>
+      <c r="J28">
+        <v>1.004379033052427</v>
+      </c>
+      <c r="K28">
+        <v>1.004379033052427</v>
+      </c>
+      <c r="L28">
+        <v>0.9915193450308635</v>
+      </c>
+      <c r="M28">
+        <v>1.001881710975935</v>
+      </c>
+      <c r="N28">
+        <v>1.004379033052427</v>
+      </c>
+      <c r="O28">
+        <v>1.006229649965759</v>
+      </c>
+      <c r="P28">
+        <v>0.9962930822683402</v>
+      </c>
+      <c r="Q28">
+        <v>1.001682382356244</v>
+      </c>
+      <c r="R28">
+        <v>0.9989883991963692</v>
+      </c>
+      <c r="S28">
+        <v>0.9965737597611364</v>
+      </c>
+      <c r="T28">
+        <v>0.9989883991963692</v>
+      </c>
+      <c r="U28">
+        <v>0.9985250780839592</v>
+      </c>
+      <c r="V28">
+        <v>0.9996958690776527</v>
+      </c>
+      <c r="W28">
+        <v>0.9989873432698952</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.024904702976653</v>
+      </c>
+      <c r="D29">
+        <v>1.003957941044265</v>
+      </c>
+      <c r="E29">
+        <v>0.9862519427635417</v>
+      </c>
+      <c r="F29">
+        <v>0.9920733769688695</v>
+      </c>
+      <c r="G29">
+        <v>1.024904702976653</v>
+      </c>
+      <c r="H29">
+        <v>1.005307766129435</v>
+      </c>
+      <c r="I29">
+        <v>0.9905335711444954</v>
+      </c>
+      <c r="J29">
+        <v>0.9862519427635417</v>
+      </c>
+      <c r="K29">
+        <v>0.9862519427635417</v>
+      </c>
+      <c r="L29">
+        <v>1.015954441438669</v>
+      </c>
+      <c r="M29">
+        <v>0.9946975445134305</v>
+      </c>
+      <c r="N29">
+        <v>0.9862519427635417</v>
+      </c>
+      <c r="O29">
+        <v>0.9920733769688695</v>
+      </c>
+      <c r="P29">
+        <v>1.008489039972761</v>
+      </c>
+      <c r="Q29">
+        <v>0.9986905715491523</v>
+      </c>
+      <c r="R29">
+        <v>1.001076674236355</v>
+      </c>
+      <c r="S29">
+        <v>1.007428615358319</v>
+      </c>
+      <c r="T29">
+        <v>1.001076674236355</v>
+      </c>
+      <c r="U29">
+        <v>1.002134447209625</v>
+      </c>
+      <c r="V29">
+        <v>0.998957946320408</v>
+      </c>
+      <c r="W29">
+        <v>1.00171016087242</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CopperA-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9638924101889923</v>
+        <v>0.9743534981095819</v>
       </c>
       <c r="D4">
-        <v>0.9964795138815828</v>
+        <v>0.9938881477279421</v>
       </c>
       <c r="E4">
-        <v>1.013753579463022</v>
+        <v>1.019859349540876</v>
       </c>
       <c r="F4">
-        <v>1.01509450863934</v>
+        <v>1.004630552678038</v>
       </c>
       <c r="G4">
-        <v>0.9638924101889923</v>
+        <v>0.9743534981095819</v>
       </c>
       <c r="H4">
-        <v>0.9924426717331125</v>
+        <v>0.9945231756235159</v>
       </c>
       <c r="I4">
-        <v>1.014161232109688</v>
+        <v>1.009227910289045</v>
       </c>
       <c r="J4">
-        <v>1.013753579463022</v>
+        <v>1.019859349540876</v>
       </c>
       <c r="K4">
-        <v>1.013753579463022</v>
+        <v>1.019859349540876</v>
       </c>
       <c r="L4">
-        <v>0.9774178242296347</v>
+        <v>0.9831502607875456</v>
       </c>
       <c r="M4">
-        <v>1.005714589103779</v>
+        <v>1.007350525971211</v>
       </c>
       <c r="N4">
-        <v>1.013753579463022</v>
+        <v>1.019859349540876</v>
       </c>
       <c r="O4">
-        <v>1.01509450863934</v>
+        <v>1.004630552678038</v>
       </c>
       <c r="P4">
-        <v>0.9894934594141662</v>
+        <v>0.9894920253938098</v>
       </c>
       <c r="Q4">
-        <v>1.003768590186226</v>
+        <v>0.9995768641507767</v>
       </c>
       <c r="R4">
-        <v>0.9975801660971181</v>
+        <v>0.9996144667761652</v>
       </c>
       <c r="S4">
-        <v>0.9904765301871482</v>
+        <v>0.9911690754703785</v>
       </c>
       <c r="T4">
-        <v>0.9975801660971181</v>
+        <v>0.9996144667761652</v>
       </c>
       <c r="U4">
-        <v>0.9962957925061167</v>
+        <v>0.9983416439880028</v>
       </c>
       <c r="V4">
-        <v>0.9997873498974977</v>
+        <v>1.002645185098577</v>
       </c>
       <c r="W4">
-        <v>0.9973695411686438</v>
+        <v>0.9983729275909694</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9664646180043224</v>
+        <v>0.9431794387605827</v>
       </c>
       <c r="D5">
-        <v>0.9918324632636896</v>
+        <v>0.9758666872123553</v>
       </c>
       <c r="E5">
-        <v>1.026453361685878</v>
+        <v>1.073168402735414</v>
       </c>
       <c r="F5">
-        <v>1.00580110926513</v>
+        <v>0.9956351238892717</v>
       </c>
       <c r="G5">
-        <v>0.9664646180043224</v>
+        <v>0.9431794387605827</v>
       </c>
       <c r="H5">
-        <v>0.9928113758141218</v>
+        <v>0.9858816561632406</v>
       </c>
       <c r="I5">
-        <v>1.012048604906343</v>
+        <v>1.01973152841155</v>
       </c>
       <c r="J5">
-        <v>1.026453361685878</v>
+        <v>1.073168402735414</v>
       </c>
       <c r="K5">
-        <v>1.026453361685878</v>
+        <v>1.073168402735414</v>
       </c>
       <c r="L5">
-        <v>0.9779120373847247</v>
+        <v>0.9590856012157658</v>
       </c>
       <c r="M5">
-        <v>1.009756811707492</v>
+        <v>1.02480614590369</v>
       </c>
       <c r="N5">
-        <v>1.026453361685878</v>
+        <v>1.073168402735414</v>
       </c>
       <c r="O5">
-        <v>1.00580110926513</v>
+        <v>0.9956351238892717</v>
       </c>
       <c r="P5">
-        <v>0.9861328636347262</v>
+        <v>0.9694072813249273</v>
       </c>
       <c r="Q5">
-        <v>0.999306242539626</v>
+        <v>0.9907583900262562</v>
       </c>
       <c r="R5">
-        <v>0.9995730296517769</v>
+        <v>1.00399432179509</v>
       </c>
       <c r="S5">
-        <v>0.9883590343611913</v>
+        <v>0.974898739604365</v>
       </c>
       <c r="T5">
-        <v>0.9995730296517769</v>
+        <v>1.00399432179509</v>
       </c>
       <c r="U5">
-        <v>0.9978826161923631</v>
+        <v>0.9994661553871274</v>
       </c>
       <c r="V5">
-        <v>1.003596765291066</v>
+        <v>1.014206604856785</v>
       </c>
       <c r="W5">
-        <v>0.9978850477539627</v>
+        <v>0.9971693230364839</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8915560279740632</v>
+        <v>0.9638924101889923</v>
       </c>
       <c r="D6">
-        <v>0.9719428912133229</v>
+        <v>0.9964795138815828</v>
       </c>
       <c r="E6">
-        <v>1.09020146170999</v>
+        <v>1.013753579463022</v>
       </c>
       <c r="F6">
-        <v>1.015522479869941</v>
+        <v>1.01509450863934</v>
       </c>
       <c r="G6">
-        <v>0.8915560279740632</v>
+        <v>0.9638924101889923</v>
       </c>
       <c r="H6">
-        <v>0.976941243537903</v>
+        <v>0.9924426717331125</v>
       </c>
       <c r="I6">
-        <v>1.038338131573848</v>
+        <v>1.014161232109688</v>
       </c>
       <c r="J6">
-        <v>1.09020146170999</v>
+        <v>1.013753579463022</v>
       </c>
       <c r="K6">
-        <v>1.09020146170999</v>
+        <v>1.013753579463022</v>
       </c>
       <c r="L6">
-        <v>0.9283764629849057</v>
+        <v>0.9774178242296347</v>
       </c>
       <c r="M6">
-        <v>1.033212009445298</v>
+        <v>1.005714589103779</v>
       </c>
       <c r="N6">
-        <v>1.09020146170999</v>
+        <v>1.013753579463022</v>
       </c>
       <c r="O6">
-        <v>1.015522479869941</v>
+        <v>1.01509450863934</v>
       </c>
       <c r="P6">
-        <v>0.953539253922002</v>
+        <v>0.9894934594141662</v>
       </c>
       <c r="Q6">
-        <v>0.996231861703922</v>
+        <v>1.003768590186226</v>
       </c>
       <c r="R6">
-        <v>0.9990933231846646</v>
+        <v>0.9975801660971181</v>
       </c>
       <c r="S6">
-        <v>0.9613399171273024</v>
+        <v>0.9904765301871482</v>
       </c>
       <c r="T6">
-        <v>0.9990933231846646</v>
+        <v>0.9975801660971181</v>
       </c>
       <c r="U6">
-        <v>0.9935553032729743</v>
+        <v>0.9962957925061167</v>
       </c>
       <c r="V6">
-        <v>1.012884534960377</v>
+        <v>0.9997873498974977</v>
       </c>
       <c r="W6">
-        <v>0.9932613385386589</v>
+        <v>0.9973695411686438</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9961704411763582</v>
+        <v>0.9664646180043224</v>
       </c>
       <c r="D7">
-        <v>0.9992873445483992</v>
+        <v>0.9918324632636896</v>
       </c>
       <c r="E7">
-        <v>1.00240868669014</v>
+        <v>1.026453361685878</v>
       </c>
       <c r="F7">
-        <v>1.001013377543666</v>
+        <v>1.00580110926513</v>
       </c>
       <c r="G7">
-        <v>0.9961704411763582</v>
+        <v>0.9664646180043224</v>
       </c>
       <c r="H7">
-        <v>0.9991961076208813</v>
+        <v>0.9928113758141218</v>
       </c>
       <c r="I7">
-        <v>1.001415761735209</v>
+        <v>1.012048604906343</v>
       </c>
       <c r="J7">
-        <v>1.00240868669014</v>
+        <v>1.026453361685878</v>
       </c>
       <c r="K7">
-        <v>1.00240868669014</v>
+        <v>1.026453361685878</v>
       </c>
       <c r="L7">
-        <v>0.9975345463433838</v>
+        <v>0.9779120373847247</v>
       </c>
       <c r="M7">
-        <v>1.000920682256807</v>
+        <v>1.009756811707492</v>
       </c>
       <c r="N7">
-        <v>1.00240868669014</v>
+        <v>1.026453361685878</v>
       </c>
       <c r="O7">
-        <v>1.001013377543666</v>
+        <v>1.00580110926513</v>
       </c>
       <c r="P7">
-        <v>0.9985919093600122</v>
+        <v>0.9861328636347262</v>
       </c>
       <c r="Q7">
-        <v>1.000104742582274</v>
+        <v>0.999306242539626</v>
       </c>
       <c r="R7">
-        <v>0.9998641684700548</v>
+        <v>0.9995730296517769</v>
       </c>
       <c r="S7">
-        <v>0.9987933087803018</v>
+        <v>0.9883590343611913</v>
       </c>
       <c r="T7">
-        <v>0.9998641684700548</v>
+        <v>0.9995730296517769</v>
       </c>
       <c r="U7">
-        <v>0.9996971532577614</v>
+        <v>0.9978826161923631</v>
       </c>
       <c r="V7">
-        <v>1.000239459944237</v>
+        <v>1.003596765291066</v>
       </c>
       <c r="W7">
-        <v>0.9997433684893556</v>
+        <v>0.9978850477539627</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.999845010836897</v>
+        <v>0.8915560279740632</v>
       </c>
       <c r="D8">
-        <v>0.9998494753024121</v>
+        <v>0.9719428912133229</v>
       </c>
       <c r="E8">
-        <v>1.000436828779909</v>
+        <v>1.09020146170999</v>
       </c>
       <c r="F8">
-        <v>0.9998406829820399</v>
+        <v>1.015522479869941</v>
       </c>
       <c r="G8">
-        <v>0.999845010836897</v>
+        <v>0.8915560279740632</v>
       </c>
       <c r="H8">
-        <v>0.9999612805841827</v>
+        <v>0.976941243537903</v>
       </c>
       <c r="I8">
-        <v>1.000031917555176</v>
+        <v>1.038338131573848</v>
       </c>
       <c r="J8">
-        <v>1.000436828779909</v>
+        <v>1.09020146170999</v>
       </c>
       <c r="K8">
-        <v>1.000436828779909</v>
+        <v>1.09020146170999</v>
       </c>
       <c r="L8">
-        <v>0.9998710975214894</v>
+        <v>0.9283764629849057</v>
       </c>
       <c r="M8">
-        <v>1.000146456137585</v>
+        <v>1.033212009445298</v>
       </c>
       <c r="N8">
-        <v>1.000436828779909</v>
+        <v>1.09020146170999</v>
       </c>
       <c r="O8">
-        <v>0.9998406829820399</v>
+        <v>1.015522479869941</v>
       </c>
       <c r="P8">
-        <v>0.9998428469094685</v>
+        <v>0.953539253922002</v>
       </c>
       <c r="Q8">
-        <v>0.9999009817831113</v>
+        <v>0.996231861703922</v>
       </c>
       <c r="R8">
-        <v>1.000040840866282</v>
+        <v>0.9990933231846646</v>
       </c>
       <c r="S8">
-        <v>0.9998823248010398</v>
+        <v>0.9613399171273024</v>
       </c>
       <c r="T8">
-        <v>1.000040840866282</v>
+        <v>0.9990933231846646</v>
       </c>
       <c r="U8">
-        <v>1.000020950795757</v>
+        <v>0.9935553032729743</v>
       </c>
       <c r="V8">
-        <v>1.000104126392588</v>
+        <v>1.012884534960377</v>
       </c>
       <c r="W8">
-        <v>0.9999978437124615</v>
+        <v>0.9932613385386589</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9933118002015141</v>
+        <v>0.9961704411763582</v>
       </c>
       <c r="D9">
-        <v>0.9989545941088636</v>
+        <v>0.9992873445483992</v>
       </c>
       <c r="E9">
-        <v>1.003656699377196</v>
+        <v>1.00240868669014</v>
       </c>
       <c r="F9">
-        <v>1.002055321614524</v>
+        <v>1.001013377543666</v>
       </c>
       <c r="G9">
-        <v>0.9933118002015141</v>
+        <v>0.9961704411763582</v>
       </c>
       <c r="H9">
-        <v>0.9986279843641259</v>
+        <v>0.9991961076208813</v>
       </c>
       <c r="I9">
-        <v>1.002491542764299</v>
+        <v>1.001415761735209</v>
       </c>
       <c r="J9">
-        <v>1.003656699377196</v>
+        <v>1.00240868669014</v>
       </c>
       <c r="K9">
-        <v>1.003656699377196</v>
+        <v>1.00240868669014</v>
       </c>
       <c r="L9">
-        <v>0.9957576747887865</v>
+        <v>0.9975345463433838</v>
       </c>
       <c r="M9">
-        <v>1.001444029846168</v>
+        <v>1.000920682256807</v>
       </c>
       <c r="N9">
-        <v>1.003656699377196</v>
+        <v>1.00240868669014</v>
       </c>
       <c r="O9">
-        <v>1.002055321614524</v>
+        <v>1.001013377543666</v>
       </c>
       <c r="P9">
-        <v>0.997683560908019</v>
+        <v>0.9985919093600122</v>
       </c>
       <c r="Q9">
-        <v>1.000341652989325</v>
+        <v>1.000104742582274</v>
       </c>
       <c r="R9">
-        <v>0.9996746070644115</v>
+        <v>0.9998641684700548</v>
       </c>
       <c r="S9">
-        <v>0.9979983687267214</v>
+        <v>0.9987933087803018</v>
       </c>
       <c r="T9">
-        <v>0.9996746070644115</v>
+        <v>0.9998641684700548</v>
       </c>
       <c r="U9">
-        <v>0.9994129513893402</v>
+        <v>0.9996971532577614</v>
       </c>
       <c r="V9">
-        <v>1.000261700986911</v>
+        <v>1.000239459944237</v>
       </c>
       <c r="W9">
-        <v>0.9995374558831847</v>
+        <v>0.9997433684893556</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8900185962566077</v>
+        <v>0.999845010836897</v>
       </c>
       <c r="D10">
-        <v>0.9714519222082404</v>
+        <v>0.9998494753024121</v>
       </c>
       <c r="E10">
-        <v>1.091749670710083</v>
+        <v>1.000436828779909</v>
       </c>
       <c r="F10">
-        <v>1.015517022151789</v>
+        <v>0.9998406829820399</v>
       </c>
       <c r="G10">
-        <v>0.8900185962566077</v>
+        <v>0.999845010836897</v>
       </c>
       <c r="H10">
-        <v>0.9766466220796057</v>
+        <v>0.9999612805841827</v>
       </c>
       <c r="I10">
-        <v>1.038823896780851</v>
+        <v>1.000031917555176</v>
       </c>
       <c r="J10">
-        <v>1.091749670710083</v>
+        <v>1.000436828779909</v>
       </c>
       <c r="K10">
-        <v>1.091749670710083</v>
+        <v>1.000436828779909</v>
       </c>
       <c r="L10">
-        <v>0.9273655953441838</v>
+        <v>0.9998710975214894</v>
       </c>
       <c r="M10">
-        <v>1.033791713349182</v>
+        <v>1.000146456137585</v>
       </c>
       <c r="N10">
-        <v>1.091749670710083</v>
+        <v>1.000436828779909</v>
       </c>
       <c r="O10">
-        <v>1.015517022151789</v>
+        <v>0.9998406829820399</v>
       </c>
       <c r="P10">
-        <v>0.9527678092041982</v>
+        <v>0.9998428469094685</v>
       </c>
       <c r="Q10">
-        <v>0.9960818221156973</v>
+        <v>0.9999009817831113</v>
       </c>
       <c r="R10">
-        <v>0.9990950963728263</v>
+        <v>1.000040840866282</v>
       </c>
       <c r="S10">
-        <v>0.9607274134960008</v>
+        <v>0.9998823248010398</v>
       </c>
       <c r="T10">
-        <v>0.9990950963728263</v>
+        <v>1.000040840866282</v>
       </c>
       <c r="U10">
-        <v>0.9934829777995212</v>
+        <v>1.000020950795757</v>
       </c>
       <c r="V10">
-        <v>1.013136316381634</v>
+        <v>1.000104126392588</v>
       </c>
       <c r="W10">
-        <v>0.9931706298600678</v>
+        <v>0.9999978437124615</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.015693763434494</v>
+        <v>0.9933118002015141</v>
       </c>
       <c r="D11">
-        <v>1.005749053916998</v>
+        <v>0.9989545941088636</v>
       </c>
       <c r="E11">
-        <v>0.9822420322369669</v>
+        <v>1.003656699377196</v>
       </c>
       <c r="F11">
-        <v>1.000493942234275</v>
+        <v>1.002055321614524</v>
       </c>
       <c r="G11">
-        <v>1.015693763434494</v>
+        <v>0.9933118002015141</v>
       </c>
       <c r="H11">
-        <v>1.003443351819525</v>
+        <v>0.9986279843641259</v>
       </c>
       <c r="I11">
-        <v>0.9947828559519225</v>
+        <v>1.002491542764299</v>
       </c>
       <c r="J11">
-        <v>0.9822420322369669</v>
+        <v>1.003656699377196</v>
       </c>
       <c r="K11">
-        <v>0.9822420322369669</v>
+        <v>1.003656699377196</v>
       </c>
       <c r="L11">
-        <v>1.010784146770624</v>
+        <v>0.9957576747887865</v>
       </c>
       <c r="M11">
-        <v>0.9936921636980899</v>
+        <v>1.001444029846168</v>
       </c>
       <c r="N11">
-        <v>0.9822420322369669</v>
+        <v>1.003656699377196</v>
       </c>
       <c r="O11">
-        <v>1.000493942234275</v>
+        <v>1.002055321614524</v>
       </c>
       <c r="P11">
-        <v>1.008093852834384</v>
+        <v>0.997683560908019</v>
       </c>
       <c r="Q11">
-        <v>1.0019686470269</v>
+        <v>1.000341652989325</v>
       </c>
       <c r="R11">
-        <v>0.9994765793019118</v>
+        <v>0.9996746070644115</v>
       </c>
       <c r="S11">
-        <v>1.006543685829431</v>
+        <v>0.9979983687267214</v>
       </c>
       <c r="T11">
-        <v>0.9994765793019118</v>
+        <v>0.9996746070644115</v>
       </c>
       <c r="U11">
-        <v>1.000468272431315</v>
+        <v>0.9994129513893402</v>
       </c>
       <c r="V11">
-        <v>0.9968230243924454</v>
+        <v>1.000261700986911</v>
       </c>
       <c r="W11">
-        <v>1.000860163757862</v>
+        <v>0.9995374558831847</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.968231965494736</v>
+        <v>0.8900185962566077</v>
       </c>
       <c r="D12">
-        <v>0.9915232490947381</v>
+        <v>0.9714519222082404</v>
       </c>
       <c r="E12">
-        <v>1.027140603831579</v>
+        <v>1.091749670710083</v>
       </c>
       <c r="F12">
-        <v>1.00413638145263</v>
+        <v>1.015517022151789</v>
       </c>
       <c r="G12">
-        <v>0.968231965494736</v>
+        <v>0.8900185962566077</v>
       </c>
       <c r="H12">
-        <v>0.9932251791473693</v>
+        <v>0.9766466220796057</v>
       </c>
       <c r="I12">
-        <v>1.011184240726316</v>
+        <v>1.038823896780851</v>
       </c>
       <c r="J12">
-        <v>1.027140603831579</v>
+        <v>1.091749670710083</v>
       </c>
       <c r="K12">
-        <v>1.027140603831579</v>
+        <v>1.091749670710083</v>
       </c>
       <c r="L12">
-        <v>0.9789517275789454</v>
+        <v>0.9273655953441838</v>
       </c>
       <c r="M12">
-        <v>1.009955789715789</v>
+        <v>1.033791713349182</v>
       </c>
       <c r="N12">
-        <v>1.027140603831579</v>
+        <v>1.091749670710083</v>
       </c>
       <c r="O12">
-        <v>1.00413638145263</v>
+        <v>1.015517022151789</v>
       </c>
       <c r="P12">
-        <v>0.986184173473683</v>
+        <v>0.9527678092041982</v>
       </c>
       <c r="Q12">
-        <v>0.9986807802999997</v>
+        <v>0.9960818221156973</v>
       </c>
       <c r="R12">
-        <v>0.999836316926315</v>
+        <v>0.9990950963728263</v>
       </c>
       <c r="S12">
-        <v>0.9885311753649119</v>
+        <v>0.9607274134960008</v>
       </c>
       <c r="T12">
-        <v>0.999836316926315</v>
+        <v>0.9990950963728263</v>
       </c>
       <c r="U12">
-        <v>0.9981835324815785</v>
+        <v>0.9934829777995212</v>
       </c>
       <c r="V12">
-        <v>1.003974946751579</v>
+        <v>1.013136316381634</v>
       </c>
       <c r="W12">
-        <v>0.9980436421302628</v>
+        <v>0.9931706298600678</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.022395837964543</v>
+        <v>1.015693763434494</v>
       </c>
       <c r="D13">
-        <v>1.004921588067939</v>
+        <v>1.005749053916998</v>
       </c>
       <c r="E13">
-        <v>0.9838670994322638</v>
+        <v>0.9822420322369669</v>
       </c>
       <c r="F13">
-        <v>0.9948902853141095</v>
+        <v>1.000493942234275</v>
       </c>
       <c r="G13">
-        <v>1.022395837964543</v>
+        <v>1.015693763434494</v>
       </c>
       <c r="H13">
-        <v>1.004957653622492</v>
+        <v>1.003443351819525</v>
       </c>
       <c r="I13">
-        <v>0.9916520270061921</v>
+        <v>0.9947828559519225</v>
       </c>
       <c r="J13">
-        <v>0.9838670994322638</v>
+        <v>0.9822420322369669</v>
       </c>
       <c r="K13">
-        <v>0.9838670994322638</v>
+        <v>0.9822420322369669</v>
       </c>
       <c r="L13">
-        <v>1.014756858859691</v>
+        <v>1.010784146770624</v>
       </c>
       <c r="M13">
-        <v>0.9940876670300612</v>
+        <v>0.9936921636980899</v>
       </c>
       <c r="N13">
-        <v>0.9838670994322638</v>
+        <v>0.9822420322369669</v>
       </c>
       <c r="O13">
-        <v>0.9948902853141095</v>
+        <v>1.000493942234275</v>
       </c>
       <c r="P13">
-        <v>1.008643061639326</v>
+        <v>1.008093852834384</v>
       </c>
       <c r="Q13">
-        <v>0.9999239694683006</v>
+        <v>1.0019686470269</v>
       </c>
       <c r="R13">
-        <v>1.000384407570306</v>
+        <v>0.9994765793019118</v>
       </c>
       <c r="S13">
-        <v>1.007414592300382</v>
+        <v>1.006543685829431</v>
       </c>
       <c r="T13">
-        <v>1.000384407570306</v>
+        <v>0.9994765793019118</v>
       </c>
       <c r="U13">
-        <v>1.001527719083352</v>
+        <v>1.000468272431315</v>
       </c>
       <c r="V13">
-        <v>0.9979955951531345</v>
+        <v>0.9968230243924454</v>
       </c>
       <c r="W13">
-        <v>1.001441127162161</v>
+        <v>1.000860163757862</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8102701199999989</v>
+        <v>0.968231965494736</v>
       </c>
       <c r="D14">
-        <v>0.9504690099999996</v>
+        <v>0.9915232490947381</v>
       </c>
       <c r="E14">
-        <v>1.159068599999999</v>
+        <v>1.027140603831579</v>
       </c>
       <c r="F14">
-        <v>1.026282799999999</v>
+        <v>1.00413638145263</v>
       </c>
       <c r="G14">
-        <v>0.8102701199999989</v>
+        <v>0.968231965494736</v>
       </c>
       <c r="H14">
-        <v>0.9597091699999981</v>
+        <v>0.9932251791473693</v>
       </c>
       <c r="I14">
-        <v>1.0669055</v>
+        <v>1.011184240726316</v>
       </c>
       <c r="J14">
-        <v>1.159068599999999</v>
+        <v>1.027140603831579</v>
       </c>
       <c r="K14">
-        <v>1.159068599999999</v>
+        <v>1.027140603831579</v>
       </c>
       <c r="L14">
-        <v>0.874637890000001</v>
+        <v>0.9789517275789454</v>
       </c>
       <c r="M14">
-        <v>1.058555100000001</v>
+        <v>1.009955789715789</v>
       </c>
       <c r="N14">
-        <v>1.159068599999999</v>
+        <v>1.027140603831579</v>
       </c>
       <c r="O14">
-        <v>1.026282799999999</v>
+        <v>1.00413638145263</v>
       </c>
       <c r="P14">
-        <v>0.9182764599999992</v>
+        <v>0.986184173473683</v>
       </c>
       <c r="Q14">
-        <v>0.9929959849999987</v>
+        <v>0.9986807802999997</v>
       </c>
       <c r="R14">
-        <v>0.9985405066666657</v>
+        <v>0.999836316926315</v>
       </c>
       <c r="S14">
-        <v>0.9320873633333321</v>
+        <v>0.9885311753649119</v>
       </c>
       <c r="T14">
-        <v>0.9985405066666657</v>
+        <v>0.999836316926315</v>
       </c>
       <c r="U14">
-        <v>0.9888326724999988</v>
+        <v>0.9981835324815785</v>
       </c>
       <c r="V14">
-        <v>1.022879857999999</v>
+        <v>1.003974946751579</v>
       </c>
       <c r="W14">
-        <v>0.9882372737499995</v>
+        <v>0.9980436421302628</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.5123396</v>
+        <v>1.022395837964543</v>
       </c>
       <c r="D15">
-        <v>0.85874682</v>
+        <v>1.004921588067939</v>
       </c>
       <c r="E15">
-        <v>1.4462575</v>
+        <v>0.9838670994322638</v>
       </c>
       <c r="F15">
-        <v>1.055856</v>
+        <v>0.9948902853141095</v>
       </c>
       <c r="G15">
-        <v>0.5123396</v>
+        <v>1.022395837964543</v>
       </c>
       <c r="H15">
-        <v>0.8899491400000001</v>
+        <v>1.004957653622492</v>
       </c>
       <c r="I15">
-        <v>1.175043</v>
+        <v>0.9916520270061921</v>
       </c>
       <c r="J15">
-        <v>1.4462575</v>
+        <v>0.9838670994322638</v>
       </c>
       <c r="K15">
-        <v>1.4462575</v>
+        <v>0.9838670994322638</v>
       </c>
       <c r="L15">
-        <v>0.67025205</v>
+        <v>1.014756858859691</v>
       </c>
       <c r="M15">
-        <v>1.1590786</v>
+        <v>0.9940876670300612</v>
       </c>
       <c r="N15">
-        <v>1.4462575</v>
+        <v>0.9838670994322638</v>
       </c>
       <c r="O15">
-        <v>1.055856</v>
+        <v>0.9948902853141095</v>
       </c>
       <c r="P15">
-        <v>0.7840978</v>
+        <v>1.008643061639326</v>
       </c>
       <c r="Q15">
-        <v>0.97290257</v>
+        <v>0.9999239694683006</v>
       </c>
       <c r="R15">
-        <v>1.0048177</v>
+        <v>1.000384407570306</v>
       </c>
       <c r="S15">
-        <v>0.8193815799999999</v>
+        <v>1.007414592300382</v>
       </c>
       <c r="T15">
-        <v>1.0048177</v>
+        <v>1.000384407570306</v>
       </c>
       <c r="U15">
-        <v>0.97610056</v>
+        <v>1.001527719083352</v>
       </c>
       <c r="V15">
-        <v>1.070131948</v>
+        <v>0.9979955951531345</v>
       </c>
       <c r="W15">
-        <v>0.9709403387500001</v>
+        <v>1.001441127162161</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.7563714999999999</v>
+        <v>0.8102701199999989</v>
       </c>
       <c r="D16">
-        <v>0.98943402</v>
+        <v>0.9504690099999996</v>
       </c>
       <c r="E16">
-        <v>1.055856</v>
+        <v>1.159068599999999</v>
       </c>
       <c r="F16">
-        <v>1.1248129</v>
+        <v>1.026282799999999</v>
       </c>
       <c r="G16">
-        <v>0.7563714999999999</v>
+        <v>0.8102701199999989</v>
       </c>
       <c r="H16">
-        <v>0.94903487</v>
+        <v>0.9597091699999981</v>
       </c>
       <c r="I16">
-        <v>1.0989676</v>
+        <v>1.0669055</v>
       </c>
       <c r="J16">
-        <v>1.055856</v>
+        <v>1.159068599999999</v>
       </c>
       <c r="K16">
-        <v>1.055856</v>
+        <v>1.159068599999999</v>
       </c>
       <c r="L16">
-        <v>0.85032006</v>
+        <v>0.874637890000001</v>
       </c>
       <c r="M16">
-        <v>1.0262848</v>
+        <v>1.058555100000001</v>
       </c>
       <c r="N16">
-        <v>1.055856</v>
+        <v>1.159068599999999</v>
       </c>
       <c r="O16">
-        <v>1.1248129</v>
+        <v>1.026282799999999</v>
       </c>
       <c r="P16">
-        <v>0.9405922</v>
+        <v>0.9182764599999992</v>
       </c>
       <c r="Q16">
-        <v>1.036923885</v>
+        <v>0.9929959849999987</v>
       </c>
       <c r="R16">
-        <v>0.9790134666666667</v>
+        <v>0.9985405066666657</v>
       </c>
       <c r="S16">
-        <v>0.9434064233333332</v>
+        <v>0.9320873633333321</v>
       </c>
       <c r="T16">
-        <v>0.9790134666666667</v>
+        <v>0.9985405066666657</v>
       </c>
       <c r="U16">
-        <v>0.9715188175</v>
+        <v>0.9888326724999988</v>
       </c>
       <c r="V16">
-        <v>0.9883862539999999</v>
+        <v>1.022879857999999</v>
       </c>
       <c r="W16">
-        <v>0.98138521875</v>
+        <v>0.9882372737499995</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.81025202</v>
+        <v>0.5123396</v>
       </c>
       <c r="D17">
-        <v>0.9504643</v>
+        <v>0.85874682</v>
       </c>
       <c r="E17">
-        <v>1.1590836</v>
+        <v>1.4462575</v>
       </c>
       <c r="F17">
-        <v>1.0262858</v>
+        <v>1.055856</v>
       </c>
       <c r="G17">
-        <v>0.81025202</v>
+        <v>0.5123396</v>
       </c>
       <c r="H17">
-        <v>0.9597050699999999</v>
+        <v>0.8899491400000001</v>
       </c>
       <c r="I17">
-        <v>1.0669122</v>
+        <v>1.175043</v>
       </c>
       <c r="J17">
-        <v>1.1590836</v>
+        <v>1.4462575</v>
       </c>
       <c r="K17">
-        <v>1.1590836</v>
+        <v>1.4462575</v>
       </c>
       <c r="L17">
-        <v>0.87462575</v>
+        <v>0.67025205</v>
       </c>
       <c r="M17">
-        <v>1.0585605</v>
+        <v>1.1590786</v>
       </c>
       <c r="N17">
-        <v>1.1590836</v>
+        <v>1.4462575</v>
       </c>
       <c r="O17">
-        <v>1.0262858</v>
+        <v>1.055856</v>
       </c>
       <c r="P17">
-        <v>0.9182689099999999</v>
+        <v>0.7840978</v>
       </c>
       <c r="Q17">
-        <v>0.9929954349999999</v>
+        <v>0.97290257</v>
       </c>
       <c r="R17">
-        <v>0.9985404733333333</v>
+        <v>1.0048177</v>
       </c>
       <c r="S17">
-        <v>0.9320809633333332</v>
+        <v>0.8193815799999999</v>
       </c>
       <c r="T17">
-        <v>0.9985404733333333</v>
+        <v>1.0048177</v>
       </c>
       <c r="U17">
-        <v>0.9888316225</v>
+        <v>0.97610056</v>
       </c>
       <c r="V17">
-        <v>1.022882018</v>
+        <v>1.070131948</v>
       </c>
       <c r="W17">
-        <v>0.9882361549999999</v>
+        <v>0.9709403387500001</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9137595446575346</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="D18">
-        <v>0.9862247778082193</v>
+        <v>0.98943402</v>
       </c>
       <c r="E18">
-        <v>1.047950994246576</v>
+        <v>1.055856</v>
       </c>
       <c r="F18">
-        <v>1.026195299726027</v>
+        <v>1.1248129</v>
       </c>
       <c r="G18">
-        <v>0.9137595446575346</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="H18">
-        <v>0.9822015019178081</v>
+        <v>0.94903487</v>
       </c>
       <c r="I18">
-        <v>1.032160722191781</v>
+        <v>1.0989676</v>
       </c>
       <c r="J18">
-        <v>1.047950994246576</v>
+        <v>1.055856</v>
       </c>
       <c r="K18">
-        <v>1.047950994246576</v>
+        <v>1.055856</v>
       </c>
       <c r="L18">
-        <v>0.9451602338356162</v>
+        <v>0.85032006</v>
       </c>
       <c r="M18">
-        <v>1.018822219178082</v>
+        <v>1.0262848</v>
       </c>
       <c r="N18">
-        <v>1.047950994246576</v>
+        <v>1.055856</v>
       </c>
       <c r="O18">
-        <v>1.026195299726027</v>
+        <v>1.1248129</v>
       </c>
       <c r="P18">
-        <v>0.969977422191781</v>
+        <v>0.9405922</v>
       </c>
       <c r="Q18">
-        <v>1.004198400821918</v>
+        <v>1.036923885</v>
       </c>
       <c r="R18">
-        <v>0.9959686128767125</v>
+        <v>0.9790134666666667</v>
       </c>
       <c r="S18">
-        <v>0.97405211543379</v>
+        <v>0.9434064233333332</v>
       </c>
       <c r="T18">
-        <v>0.9959686128767125</v>
+        <v>0.9790134666666667</v>
       </c>
       <c r="U18">
-        <v>0.9925268351369864</v>
+        <v>0.9715188175</v>
       </c>
       <c r="V18">
-        <v>1.003611666958904</v>
+        <v>0.9883862539999999</v>
       </c>
       <c r="W18">
-        <v>0.9940594116952055</v>
+        <v>0.98138521875</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7833150921052631</v>
+        <v>0.81025202</v>
       </c>
       <c r="D19">
-        <v>0.969950027368421</v>
+        <v>0.9504643</v>
       </c>
       <c r="E19">
-        <v>1.107467036842105</v>
+        <v>1.1590836</v>
       </c>
       <c r="F19">
-        <v>1.075548810526316</v>
+        <v>1.0262858</v>
       </c>
       <c r="G19">
-        <v>0.7833150921052631</v>
+        <v>0.81025202</v>
       </c>
       <c r="H19">
-        <v>0.9543707278947369</v>
+        <v>0.9597050699999999</v>
       </c>
       <c r="I19">
-        <v>1.082938652631579</v>
+        <v>1.0669122</v>
       </c>
       <c r="J19">
-        <v>1.107467036842105</v>
+        <v>1.1590836</v>
       </c>
       <c r="K19">
-        <v>1.107467036842105</v>
+        <v>1.1590836</v>
       </c>
       <c r="L19">
-        <v>0.862475142631579</v>
+        <v>0.87462575</v>
       </c>
       <c r="M19">
-        <v>1.042421663157895</v>
+        <v>1.0585605</v>
       </c>
       <c r="N19">
-        <v>1.107467036842105</v>
+        <v>1.1590836</v>
       </c>
       <c r="O19">
-        <v>1.075548810526316</v>
+        <v>1.0262858</v>
       </c>
       <c r="P19">
-        <v>0.9294319513157894</v>
+        <v>0.9182689099999999</v>
       </c>
       <c r="Q19">
-        <v>1.014959769210526</v>
+        <v>0.9929954349999999</v>
       </c>
       <c r="R19">
-        <v>0.9887769798245613</v>
+        <v>0.9985404733333333</v>
       </c>
       <c r="S19">
-        <v>0.9377448768421052</v>
+        <v>0.9320809633333332</v>
       </c>
       <c r="T19">
-        <v>0.9887769798245615</v>
+        <v>0.9985404733333333</v>
       </c>
       <c r="U19">
-        <v>0.9801754168421053</v>
+        <v>0.9888316225</v>
       </c>
       <c r="V19">
-        <v>1.005633740842105</v>
+        <v>1.022882018</v>
       </c>
       <c r="W19">
-        <v>0.9848108941447369</v>
+        <v>0.9882361549999999</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9244845721052631</v>
+        <v>0.9137595446575346</v>
       </c>
       <c r="D20">
-        <v>0.9714682210526315</v>
+        <v>0.9862247778082193</v>
       </c>
       <c r="E20">
-        <v>1.087502249473684</v>
+        <v>1.047950994246576</v>
       </c>
       <c r="F20">
-        <v>0.9989846957894736</v>
+        <v>1.026195299726027</v>
       </c>
       <c r="G20">
-        <v>0.9244845721052631</v>
+        <v>0.9137595446575346</v>
       </c>
       <c r="H20">
-        <v>0.9819534868421053</v>
+        <v>0.9822015019178081</v>
       </c>
       <c r="I20">
-        <v>1.026406600526316</v>
+        <v>1.032160722191781</v>
       </c>
       <c r="J20">
-        <v>1.087502249473684</v>
+        <v>1.047950994246576</v>
       </c>
       <c r="K20">
-        <v>1.087502249473684</v>
+        <v>1.047950994246576</v>
       </c>
       <c r="L20">
-        <v>0.9468610831578949</v>
+        <v>0.9451602338356162</v>
       </c>
       <c r="M20">
-        <v>1.030155067894737</v>
+        <v>1.018822219178082</v>
       </c>
       <c r="N20">
-        <v>1.087502249473684</v>
+        <v>1.047950994246576</v>
       </c>
       <c r="O20">
-        <v>0.9989846957894736</v>
+        <v>1.026195299726027</v>
       </c>
       <c r="P20">
-        <v>0.9617346339473684</v>
+        <v>0.969977422191781</v>
       </c>
       <c r="Q20">
-        <v>0.9904690913157894</v>
+        <v>1.004198400821918</v>
       </c>
       <c r="R20">
-        <v>1.00365717245614</v>
+        <v>0.9959686128767125</v>
       </c>
       <c r="S20">
-        <v>0.9684742515789474</v>
+        <v>0.97405211543379</v>
       </c>
       <c r="T20">
-        <v>1.00365717245614</v>
+        <v>0.9959686128767125</v>
       </c>
       <c r="U20">
-        <v>0.9982312510526316</v>
+        <v>0.9925268351369864</v>
       </c>
       <c r="V20">
-        <v>1.016085450736842</v>
+        <v>1.003611666958904</v>
       </c>
       <c r="W20">
-        <v>0.9959769971052632</v>
+        <v>0.9940594116952055</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.8198670179631188</v>
+        <v>0.7833150921052631</v>
       </c>
       <c r="D21">
-        <v>0.9839957928921003</v>
+        <v>0.969950027368421</v>
       </c>
       <c r="E21">
-        <v>1.064307020482586</v>
+        <v>1.107467036842105</v>
       </c>
       <c r="F21">
-        <v>1.077562692477143</v>
+        <v>1.075548810526316</v>
       </c>
       <c r="G21">
-        <v>0.8198670179631188</v>
+        <v>0.7833150921052631</v>
       </c>
       <c r="H21">
-        <v>0.9625349375141971</v>
+        <v>0.9543707278947369</v>
       </c>
       <c r="I21">
-        <v>1.070809382430403</v>
+        <v>1.082938652631579</v>
       </c>
       <c r="J21">
-        <v>1.064307020482586</v>
+        <v>1.107467036842105</v>
       </c>
       <c r="K21">
-        <v>1.064307020482586</v>
+        <v>1.107467036842105</v>
       </c>
       <c r="L21">
-        <v>0.8878296979530805</v>
+        <v>0.862475142631579</v>
       </c>
       <c r="M21">
-        <v>1.027217396599143</v>
+        <v>1.042421663157895</v>
       </c>
       <c r="N21">
-        <v>1.064307020482586</v>
+        <v>1.107467036842105</v>
       </c>
       <c r="O21">
-        <v>1.077562692477143</v>
+        <v>1.075548810526316</v>
       </c>
       <c r="P21">
-        <v>0.948714855220131</v>
+        <v>0.9294319513157894</v>
       </c>
       <c r="Q21">
-        <v>1.02004881499567</v>
+        <v>1.014959769210526</v>
       </c>
       <c r="R21">
-        <v>0.9872455769742828</v>
+        <v>0.9887769798245613</v>
       </c>
       <c r="S21">
-        <v>0.953321549318153</v>
+        <v>0.9377448768421052</v>
       </c>
       <c r="T21">
-        <v>0.9872455769742828</v>
+        <v>0.9887769798245615</v>
       </c>
       <c r="U21">
-        <v>0.9810679171092614</v>
+        <v>0.9801754168421053</v>
       </c>
       <c r="V21">
-        <v>0.9977157377839264</v>
+        <v>1.005633740842105</v>
       </c>
       <c r="W21">
-        <v>0.9867654922889715</v>
+        <v>0.9848108941447369</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9662610896331583</v>
+        <v>0.9244845721052631</v>
       </c>
       <c r="D22">
-        <v>0.9852570299017442</v>
+        <v>0.9714682210526315</v>
       </c>
       <c r="E22">
-        <v>1.044902067365519</v>
+        <v>1.087502249473684</v>
       </c>
       <c r="F22">
-        <v>0.9944190829467452</v>
+        <v>0.9989846957894736</v>
       </c>
       <c r="G22">
-        <v>0.9662610896331583</v>
+        <v>0.9244845721052631</v>
       </c>
       <c r="H22">
-        <v>0.9927817933959902</v>
+        <v>0.9819534868421053</v>
       </c>
       <c r="I22">
-        <v>1.010402504950289</v>
+        <v>1.026406600526316</v>
       </c>
       <c r="J22">
-        <v>1.044902067365519</v>
+        <v>1.087502249473684</v>
       </c>
       <c r="K22">
-        <v>1.044902067365519</v>
+        <v>1.087502249473684</v>
       </c>
       <c r="L22">
-        <v>0.9764671976892316</v>
+        <v>0.9468610831578949</v>
       </c>
       <c r="M22">
-        <v>1.015907787121873</v>
+        <v>1.030155067894737</v>
       </c>
       <c r="N22">
-        <v>1.044902067365519</v>
+        <v>1.087502249473684</v>
       </c>
       <c r="O22">
-        <v>0.9944190829467452</v>
+        <v>0.9989846957894736</v>
       </c>
       <c r="P22">
-        <v>0.9803400862899517</v>
+        <v>0.9617346339473684</v>
       </c>
       <c r="Q22">
-        <v>0.9936004381713677</v>
+        <v>0.9904690913157894</v>
       </c>
       <c r="R22">
-        <v>1.001860746648474</v>
+        <v>1.00365717245614</v>
       </c>
       <c r="S22">
-        <v>0.9844873219919646</v>
+        <v>0.9684742515789474</v>
       </c>
       <c r="T22">
-        <v>1.001860746648474</v>
+        <v>1.00365717245614</v>
       </c>
       <c r="U22">
-        <v>0.9995910083353531</v>
+        <v>0.9982312510526316</v>
       </c>
       <c r="V22">
-        <v>1.008653220141386</v>
+        <v>1.016085450736842</v>
       </c>
       <c r="W22">
-        <v>0.9982998191255688</v>
+        <v>0.9959769971052632</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.049916448254755</v>
+        <v>0.8198670179631188</v>
       </c>
       <c r="D23">
-        <v>1.010926150135212</v>
+        <v>0.9839957928921003</v>
       </c>
       <c r="E23">
-        <v>0.9642540936251951</v>
+        <v>1.064307020482586</v>
       </c>
       <c r="F23">
-        <v>0.9878492213880913</v>
+        <v>1.077562692477143</v>
       </c>
       <c r="G23">
-        <v>1.049916448254755</v>
+        <v>0.8198670179631188</v>
       </c>
       <c r="H23">
-        <v>1.011402441526143</v>
+        <v>0.9625349375141971</v>
       </c>
       <c r="I23">
-        <v>0.9810174755754272</v>
+        <v>1.070809382430403</v>
       </c>
       <c r="J23">
-        <v>0.9642540936251951</v>
+        <v>1.064307020482586</v>
       </c>
       <c r="K23">
-        <v>0.9642540936251951</v>
+        <v>1.064307020482586</v>
       </c>
       <c r="L23">
-        <v>1.033137552110158</v>
+        <v>0.8878296979530805</v>
       </c>
       <c r="M23">
-        <v>0.9871029092539747</v>
+        <v>1.027217396599143</v>
       </c>
       <c r="N23">
-        <v>0.9642540936251951</v>
+        <v>1.064307020482586</v>
       </c>
       <c r="O23">
-        <v>0.9878492213880913</v>
+        <v>1.077562692477143</v>
       </c>
       <c r="P23">
-        <v>1.018882834821423</v>
+        <v>0.948714855220131</v>
       </c>
       <c r="Q23">
-        <v>0.9996258314571174</v>
+        <v>1.02004881499567</v>
       </c>
       <c r="R23">
-        <v>1.00067325442268</v>
+        <v>0.9872455769742828</v>
       </c>
       <c r="S23">
-        <v>1.016389370389663</v>
+        <v>0.953321549318153</v>
       </c>
       <c r="T23">
-        <v>1.00067325442268</v>
+        <v>0.9872455769742828</v>
       </c>
       <c r="U23">
-        <v>1.003355551198546</v>
+        <v>0.9810679171092614</v>
       </c>
       <c r="V23">
-        <v>0.9955352596838759</v>
+        <v>0.9977157377839264</v>
       </c>
       <c r="W23">
-        <v>1.00320078648362</v>
+        <v>0.9867654922889715</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.014606008043508</v>
+        <v>0.9662610896331583</v>
       </c>
       <c r="D24">
-        <v>1.002239997021678</v>
+        <v>0.9852570299017442</v>
       </c>
       <c r="E24">
-        <v>0.9919709910869762</v>
+        <v>1.044902067365519</v>
       </c>
       <c r="F24">
-        <v>0.9966806367573557</v>
+        <v>0.9944190829467452</v>
       </c>
       <c r="G24">
-        <v>1.014606008043508</v>
+        <v>0.9662610896331583</v>
       </c>
       <c r="H24">
-        <v>1.002357225035031</v>
+        <v>0.9927817933959902</v>
       </c>
       <c r="I24">
-        <v>0.9952090615728051</v>
+        <v>1.010402504950289</v>
       </c>
       <c r="J24">
-        <v>0.9919709910869762</v>
+        <v>1.044902067365519</v>
       </c>
       <c r="K24">
-        <v>0.9919709910869762</v>
+        <v>1.044902067365519</v>
       </c>
       <c r="L24">
-        <v>1.008792353710054</v>
+        <v>0.9764671976892316</v>
       </c>
       <c r="M24">
-        <v>0.9964513261108698</v>
+        <v>1.015907787121873</v>
       </c>
       <c r="N24">
-        <v>0.9919709910869762</v>
+        <v>1.044902067365519</v>
       </c>
       <c r="O24">
-        <v>0.9966806367573557</v>
+        <v>0.9944190829467452</v>
       </c>
       <c r="P24">
-        <v>1.005643322400432</v>
+        <v>0.9803400862899517</v>
       </c>
       <c r="Q24">
-        <v>0.9995189308961935</v>
+        <v>0.9936004381713677</v>
       </c>
       <c r="R24">
-        <v>1.00108587862928</v>
+        <v>1.001860746648474</v>
       </c>
       <c r="S24">
-        <v>1.004547956611965</v>
+        <v>0.9844873219919646</v>
       </c>
       <c r="T24">
-        <v>1.00108587862928</v>
+        <v>1.001860746648474</v>
       </c>
       <c r="U24">
-        <v>1.001403715230718</v>
+        <v>0.9995910083353531</v>
       </c>
       <c r="V24">
-        <v>0.9995171704019695</v>
+        <v>1.008653220141386</v>
       </c>
       <c r="W24">
-        <v>1.001038449917285</v>
+        <v>0.9982998191255688</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.173351225581464</v>
+        <v>1.049916448254755</v>
       </c>
       <c r="D25">
-        <v>1.024115097419429</v>
+        <v>1.010926150135212</v>
       </c>
       <c r="E25">
-        <v>0.913551607454107</v>
+        <v>0.9642540936251951</v>
       </c>
       <c r="F25">
-        <v>0.9416943733723186</v>
+        <v>0.9878492213880913</v>
       </c>
       <c r="G25">
-        <v>1.173351225581464</v>
+        <v>1.049916448254755</v>
       </c>
       <c r="H25">
-        <v>1.035474682314142</v>
+        <v>1.011402441526143</v>
       </c>
       <c r="I25">
-        <v>0.9347328239836254</v>
+        <v>0.9810174755754272</v>
       </c>
       <c r="J25">
-        <v>0.913551607454107</v>
+        <v>0.9642540936251951</v>
       </c>
       <c r="K25">
-        <v>0.913551607454107</v>
+        <v>0.9642540936251951</v>
       </c>
       <c r="L25">
-        <v>1.109290411359569</v>
+        <v>1.033137552110158</v>
       </c>
       <c r="M25">
-        <v>0.9652913574705188</v>
+        <v>0.9871029092539747</v>
       </c>
       <c r="N25">
-        <v>0.913551607454107</v>
+        <v>0.9642540936251951</v>
       </c>
       <c r="O25">
-        <v>0.9416943733723186</v>
+        <v>0.9878492213880913</v>
       </c>
       <c r="P25">
-        <v>1.057522799476891</v>
+        <v>1.018882834821423</v>
       </c>
       <c r="Q25">
-        <v>0.9885845278432304</v>
+        <v>0.9996258314571174</v>
       </c>
       <c r="R25">
-        <v>1.009532402135963</v>
+        <v>1.00067325442268</v>
       </c>
       <c r="S25">
-        <v>1.050173427089308</v>
+        <v>1.016389370389663</v>
       </c>
       <c r="T25">
-        <v>1.009532402135964</v>
+        <v>1.00067325442268</v>
       </c>
       <c r="U25">
-        <v>1.016017972180508</v>
+        <v>1.003355551198546</v>
       </c>
       <c r="V25">
-        <v>0.9955246992352279</v>
+        <v>0.9955352596838759</v>
       </c>
       <c r="W25">
-        <v>1.012187697369397</v>
+        <v>1.00320078648362</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.036999773288064</v>
+        <v>1.014606008043508</v>
       </c>
       <c r="D26">
-        <v>1.012023395607581</v>
+        <v>1.002239997021678</v>
       </c>
       <c r="E26">
-        <v>0.9627373661533287</v>
+        <v>0.9919709910869762</v>
       </c>
       <c r="F26">
-        <v>0.9961002123134253</v>
+        <v>0.9966806367573557</v>
       </c>
       <c r="G26">
-        <v>1.036999773288064</v>
+        <v>1.014606008043508</v>
       </c>
       <c r="H26">
-        <v>1.009347097078337</v>
+        <v>1.002357225035031</v>
       </c>
       <c r="I26">
-        <v>0.9860281196685214</v>
+        <v>0.9952090615728051</v>
       </c>
       <c r="J26">
-        <v>0.9627373661533287</v>
+        <v>0.9919709910869762</v>
       </c>
       <c r="K26">
-        <v>0.9627373661533287</v>
+        <v>0.9919709910869762</v>
       </c>
       <c r="L26">
-        <v>1.026006406167992</v>
+        <v>1.008792353710054</v>
       </c>
       <c r="M26">
-        <v>0.9873921571052153</v>
+        <v>0.9964513261108698</v>
       </c>
       <c r="N26">
-        <v>0.9627373661533287</v>
+        <v>0.9919709910869762</v>
       </c>
       <c r="O26">
-        <v>0.9961002123134253</v>
+        <v>0.9966806367573557</v>
       </c>
       <c r="P26">
-        <v>1.016549992800745</v>
+        <v>1.005643322400432</v>
       </c>
       <c r="Q26">
-        <v>1.002723654695881</v>
+        <v>0.9995189308961935</v>
       </c>
       <c r="R26">
-        <v>0.9986124505849393</v>
+        <v>1.00108587862928</v>
       </c>
       <c r="S26">
-        <v>1.014149027559942</v>
+        <v>1.004547956611965</v>
       </c>
       <c r="T26">
-        <v>0.9986124505849393</v>
+        <v>1.00108587862928</v>
       </c>
       <c r="U26">
-        <v>1.001296112208289</v>
+        <v>1.001403715230718</v>
       </c>
       <c r="V26">
-        <v>0.9935843629972968</v>
+        <v>0.9995171704019695</v>
       </c>
       <c r="W26">
-        <v>1.002079315922808</v>
+        <v>1.001038449917285</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9883667343184943</v>
+        <v>1.173351225581464</v>
       </c>
       <c r="D27">
-        <v>0.9976591527570228</v>
+        <v>1.024115097419429</v>
       </c>
       <c r="E27">
-        <v>1.007656964093606</v>
+        <v>0.913551607454107</v>
       </c>
       <c r="F27">
-        <v>1.003933683415517</v>
+        <v>0.9416943733723186</v>
       </c>
       <c r="G27">
-        <v>0.9883667343184943</v>
+        <v>1.173351225581464</v>
       </c>
       <c r="H27">
-        <v>0.9969609098763618</v>
+        <v>1.035474682314142</v>
       </c>
       <c r="I27">
-        <v>1.004872727071488</v>
+        <v>0.9347328239836254</v>
       </c>
       <c r="J27">
-        <v>1.007656964093606</v>
+        <v>0.913551607454107</v>
       </c>
       <c r="K27">
-        <v>1.007656964093606</v>
+        <v>0.913551607454107</v>
       </c>
       <c r="L27">
-        <v>0.9920418986562645</v>
+        <v>1.109290411359569</v>
       </c>
       <c r="M27">
-        <v>1.002554201729624</v>
+        <v>0.9652913574705188</v>
       </c>
       <c r="N27">
-        <v>1.007656964093606</v>
+        <v>0.913551607454107</v>
       </c>
       <c r="O27">
-        <v>1.003933683415517</v>
+        <v>0.9416943733723186</v>
       </c>
       <c r="P27">
-        <v>0.9961502088670054</v>
+        <v>1.057522799476891</v>
       </c>
       <c r="Q27">
-        <v>1.000447296645939</v>
+        <v>0.9885845278432304</v>
       </c>
       <c r="R27">
-        <v>0.9999857939425391</v>
+        <v>1.009532402135963</v>
       </c>
       <c r="S27">
-        <v>0.9964204425367909</v>
+        <v>1.050173427089308</v>
       </c>
       <c r="T27">
-        <v>0.9999857939425391</v>
+        <v>1.009532402135964</v>
       </c>
       <c r="U27">
-        <v>0.9992295729259948</v>
+        <v>1.016017972180508</v>
       </c>
       <c r="V27">
-        <v>1.000915051159517</v>
+        <v>0.9955246992352279</v>
       </c>
       <c r="W27">
-        <v>0.9992557839897972</v>
+        <v>1.012187697369397</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9863565145709215</v>
+        <v>1.036999773288064</v>
       </c>
       <c r="D28">
-        <v>0.9989608002061008</v>
+        <v>1.012023395607581</v>
       </c>
       <c r="E28">
-        <v>1.004379033052427</v>
+        <v>0.9627373661533287</v>
       </c>
       <c r="F28">
-        <v>1.006229649965759</v>
+        <v>0.9961002123134253</v>
       </c>
       <c r="G28">
-        <v>0.9863565145709215</v>
+        <v>1.036999773288064</v>
       </c>
       <c r="H28">
-        <v>0.9971351147467289</v>
+        <v>1.009347097078337</v>
       </c>
       <c r="I28">
-        <v>1.005436577610426</v>
+        <v>0.9860281196685214</v>
       </c>
       <c r="J28">
-        <v>1.004379033052427</v>
+        <v>0.9627373661533287</v>
       </c>
       <c r="K28">
-        <v>1.004379033052427</v>
+        <v>0.9627373661533287</v>
       </c>
       <c r="L28">
-        <v>0.9915193450308635</v>
+        <v>1.026006406167992</v>
       </c>
       <c r="M28">
-        <v>1.001881710975935</v>
+        <v>0.9873921571052153</v>
       </c>
       <c r="N28">
-        <v>1.004379033052427</v>
+        <v>0.9627373661533287</v>
       </c>
       <c r="O28">
-        <v>1.006229649965759</v>
+        <v>0.9961002123134253</v>
       </c>
       <c r="P28">
-        <v>0.9962930822683402</v>
+        <v>1.016549992800745</v>
       </c>
       <c r="Q28">
-        <v>1.001682382356244</v>
+        <v>1.002723654695881</v>
       </c>
       <c r="R28">
-        <v>0.9989883991963692</v>
+        <v>0.9986124505849393</v>
       </c>
       <c r="S28">
-        <v>0.9965737597611364</v>
+        <v>1.014149027559942</v>
       </c>
       <c r="T28">
-        <v>0.9989883991963692</v>
+        <v>0.9986124505849393</v>
       </c>
       <c r="U28">
-        <v>0.9985250780839592</v>
+        <v>1.001296112208289</v>
       </c>
       <c r="V28">
-        <v>0.9996958690776527</v>
+        <v>0.9935843629972968</v>
       </c>
       <c r="W28">
-        <v>0.9989873432698952</v>
+        <v>1.002079315922808</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9883667343184943</v>
+      </c>
+      <c r="D29">
+        <v>0.9976591527570228</v>
+      </c>
+      <c r="E29">
+        <v>1.007656964093606</v>
+      </c>
+      <c r="F29">
+        <v>1.003933683415517</v>
+      </c>
+      <c r="G29">
+        <v>0.9883667343184943</v>
+      </c>
+      <c r="H29">
+        <v>0.9969609098763618</v>
+      </c>
+      <c r="I29">
+        <v>1.004872727071488</v>
+      </c>
+      <c r="J29">
+        <v>1.007656964093606</v>
+      </c>
+      <c r="K29">
+        <v>1.007656964093606</v>
+      </c>
+      <c r="L29">
+        <v>0.9920418986562645</v>
+      </c>
+      <c r="M29">
+        <v>1.002554201729624</v>
+      </c>
+      <c r="N29">
+        <v>1.007656964093606</v>
+      </c>
+      <c r="O29">
+        <v>1.003933683415517</v>
+      </c>
+      <c r="P29">
+        <v>0.9961502088670054</v>
+      </c>
+      <c r="Q29">
+        <v>1.000447296645939</v>
+      </c>
+      <c r="R29">
+        <v>0.9999857939425391</v>
+      </c>
+      <c r="S29">
+        <v>0.9964204425367909</v>
+      </c>
+      <c r="T29">
+        <v>0.9999857939425391</v>
+      </c>
+      <c r="U29">
+        <v>0.9992295729259948</v>
+      </c>
+      <c r="V29">
+        <v>1.000915051159517</v>
+      </c>
+      <c r="W29">
+        <v>0.9992557839897972</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9863565145709215</v>
+      </c>
+      <c r="D30">
+        <v>0.9989608002061008</v>
+      </c>
+      <c r="E30">
+        <v>1.004379033052427</v>
+      </c>
+      <c r="F30">
+        <v>1.006229649965759</v>
+      </c>
+      <c r="G30">
+        <v>0.9863565145709215</v>
+      </c>
+      <c r="H30">
+        <v>0.9971351147467289</v>
+      </c>
+      <c r="I30">
+        <v>1.005436577610426</v>
+      </c>
+      <c r="J30">
+        <v>1.004379033052427</v>
+      </c>
+      <c r="K30">
+        <v>1.004379033052427</v>
+      </c>
+      <c r="L30">
+        <v>0.9915193450308635</v>
+      </c>
+      <c r="M30">
+        <v>1.001881710975935</v>
+      </c>
+      <c r="N30">
+        <v>1.004379033052427</v>
+      </c>
+      <c r="O30">
+        <v>1.006229649965759</v>
+      </c>
+      <c r="P30">
+        <v>0.9962930822683402</v>
+      </c>
+      <c r="Q30">
+        <v>1.001682382356244</v>
+      </c>
+      <c r="R30">
+        <v>0.9989883991963692</v>
+      </c>
+      <c r="S30">
+        <v>0.9965737597611364</v>
+      </c>
+      <c r="T30">
+        <v>0.9989883991963692</v>
+      </c>
+      <c r="U30">
+        <v>0.9985250780839592</v>
+      </c>
+      <c r="V30">
+        <v>0.9996958690776527</v>
+      </c>
+      <c r="W30">
+        <v>0.9989873432698952</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.024904702976653</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.003957941044265</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9862519427635417</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9920733769688695</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.024904702976653</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.005307766129435</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9905335711444954</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9862519427635417</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9862519427635417</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.015954441438669</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9946975445134305</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9862519427635417</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9920733769688695</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.008489039972761</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9986905715491523</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.001076674236355</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.007428615358319</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.001076674236355</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.002134447209625</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.998957946320408</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.00171016087242</v>
       </c>
     </row>
